--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_3_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_3_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>306493.5017854664</v>
+        <v>309389.8669763129</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>988005.7655927931</v>
+        <v>1241453.964023875</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24903603.24714331</v>
+        <v>24630881.73804684</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3853285.957329211</v>
+        <v>3958704.426405036</v>
       </c>
     </row>
     <row r="11">
@@ -8693,13 +8695,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L11" t="n">
-        <v>270.6444670286918</v>
+        <v>255.8266834221102</v>
       </c>
       <c r="M11" t="n">
-        <v>262.1171336583936</v>
+        <v>245.6294943148315</v>
       </c>
       <c r="N11" t="n">
-        <v>260.6727596612894</v>
+        <v>243.9183330758522</v>
       </c>
       <c r="O11" t="n">
         <v>246.758517458259</v>
@@ -8769,22 +8771,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>158.8643559162101</v>
+        <v>150.7517341174952</v>
       </c>
       <c r="L12" t="n">
-        <v>156.5283879628043</v>
+        <v>145.6199667947194</v>
       </c>
       <c r="M12" t="n">
-        <v>158.8073274317979</v>
+        <v>146.0777144456295</v>
       </c>
       <c r="N12" t="n">
-        <v>145.2543769669952</v>
+        <v>132.1878490032285</v>
       </c>
       <c r="O12" t="n">
-        <v>160.2613470196622</v>
+        <v>148.3080266862594</v>
       </c>
       <c r="P12" t="n">
-        <v>152.4484465568465</v>
+        <v>142.8548531659551</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -8930,13 +8932,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L14" t="n">
-        <v>270.6444670286918</v>
+        <v>255.8266834221102</v>
       </c>
       <c r="M14" t="n">
-        <v>262.1171336583936</v>
+        <v>245.6294943148315</v>
       </c>
       <c r="N14" t="n">
-        <v>260.6727596612894</v>
+        <v>243.9183330758522</v>
       </c>
       <c r="O14" t="n">
         <v>246.758517458259</v>
@@ -9006,22 +9008,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>158.8643559162101</v>
+        <v>150.7517341174952</v>
       </c>
       <c r="L15" t="n">
-        <v>156.5283879628043</v>
+        <v>145.6199667947194</v>
       </c>
       <c r="M15" t="n">
-        <v>158.8073274317979</v>
+        <v>146.0777144456295</v>
       </c>
       <c r="N15" t="n">
-        <v>145.2543769669952</v>
+        <v>132.1878490032285</v>
       </c>
       <c r="O15" t="n">
-        <v>160.2613470196622</v>
+        <v>148.3080266862594</v>
       </c>
       <c r="P15" t="n">
-        <v>152.4484465568465</v>
+        <v>142.8548531659551</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9167,13 +9169,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L17" t="n">
-        <v>270.6444670286918</v>
+        <v>255.8266834221102</v>
       </c>
       <c r="M17" t="n">
-        <v>262.1171336583936</v>
+        <v>245.6294943148315</v>
       </c>
       <c r="N17" t="n">
-        <v>260.6727596612894</v>
+        <v>243.9183330758522</v>
       </c>
       <c r="O17" t="n">
         <v>246.758517458259</v>
@@ -9243,22 +9245,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>158.8643559162101</v>
+        <v>150.7517341174952</v>
       </c>
       <c r="L18" t="n">
-        <v>156.5283879628043</v>
+        <v>145.6199667947194</v>
       </c>
       <c r="M18" t="n">
-        <v>158.8073274317979</v>
+        <v>146.0777144456295</v>
       </c>
       <c r="N18" t="n">
-        <v>145.2543769669952</v>
+        <v>132.1878490032285</v>
       </c>
       <c r="O18" t="n">
-        <v>160.2613470196622</v>
+        <v>148.3080266862594</v>
       </c>
       <c r="P18" t="n">
-        <v>152.4484465568465</v>
+        <v>142.8548531659551</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9404,13 +9406,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L20" t="n">
-        <v>270.6444670286918</v>
+        <v>255.8266834221102</v>
       </c>
       <c r="M20" t="n">
-        <v>262.1171336583936</v>
+        <v>245.6294943148315</v>
       </c>
       <c r="N20" t="n">
-        <v>260.6727596612894</v>
+        <v>243.9183330758522</v>
       </c>
       <c r="O20" t="n">
         <v>246.758517458259</v>
@@ -9480,22 +9482,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>158.8643559162101</v>
+        <v>150.7517341174952</v>
       </c>
       <c r="L21" t="n">
-        <v>156.5283879628043</v>
+        <v>145.6199667947194</v>
       </c>
       <c r="M21" t="n">
-        <v>158.8073274317979</v>
+        <v>146.0777144456295</v>
       </c>
       <c r="N21" t="n">
-        <v>145.2543769669952</v>
+        <v>132.1878490032285</v>
       </c>
       <c r="O21" t="n">
-        <v>160.2613470196622</v>
+        <v>148.3080266862594</v>
       </c>
       <c r="P21" t="n">
-        <v>152.4484465568465</v>
+        <v>142.8548531659551</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9641,13 +9643,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L23" t="n">
-        <v>270.6444670286918</v>
+        <v>255.8266834221102</v>
       </c>
       <c r="M23" t="n">
-        <v>262.1171336583936</v>
+        <v>245.6294943148315</v>
       </c>
       <c r="N23" t="n">
-        <v>260.6727596612894</v>
+        <v>243.9183330758522</v>
       </c>
       <c r="O23" t="n">
         <v>246.758517458259</v>
@@ -9717,22 +9719,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>158.8643559162101</v>
+        <v>150.7517341174952</v>
       </c>
       <c r="L24" t="n">
-        <v>156.5283879628043</v>
+        <v>145.6199667947194</v>
       </c>
       <c r="M24" t="n">
-        <v>158.8073274317979</v>
+        <v>146.0777144456295</v>
       </c>
       <c r="N24" t="n">
-        <v>145.2543769669952</v>
+        <v>132.1878490032285</v>
       </c>
       <c r="O24" t="n">
-        <v>160.2613470196622</v>
+        <v>148.3080266862594</v>
       </c>
       <c r="P24" t="n">
-        <v>152.4484465568465</v>
+        <v>142.8548531659551</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -9878,13 +9880,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L26" t="n">
-        <v>270.6444670286918</v>
+        <v>255.8266834221102</v>
       </c>
       <c r="M26" t="n">
-        <v>262.1171336583936</v>
+        <v>245.6294943148315</v>
       </c>
       <c r="N26" t="n">
-        <v>260.6727596612894</v>
+        <v>243.9183330758522</v>
       </c>
       <c r="O26" t="n">
         <v>246.758517458259</v>
@@ -9954,22 +9956,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>158.8643559162101</v>
+        <v>150.7517341174952</v>
       </c>
       <c r="L27" t="n">
-        <v>156.5283879628043</v>
+        <v>145.6199667947194</v>
       </c>
       <c r="M27" t="n">
-        <v>158.8073274317979</v>
+        <v>146.0777144456295</v>
       </c>
       <c r="N27" t="n">
-        <v>145.2543769669952</v>
+        <v>132.1878490032285</v>
       </c>
       <c r="O27" t="n">
-        <v>160.2613470196622</v>
+        <v>148.3080266862594</v>
       </c>
       <c r="P27" t="n">
-        <v>152.4484465568465</v>
+        <v>142.8548531659551</v>
       </c>
       <c r="Q27" t="n">
         <v>136.1300824528302</v>
@@ -10115,13 +10117,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L29" t="n">
-        <v>270.6444670286918</v>
+        <v>255.8266834221102</v>
       </c>
       <c r="M29" t="n">
-        <v>262.1171336583936</v>
+        <v>245.6294943148315</v>
       </c>
       <c r="N29" t="n">
-        <v>260.6727596612894</v>
+        <v>243.9183330758522</v>
       </c>
       <c r="O29" t="n">
         <v>246.758517458259</v>
@@ -10191,22 +10193,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>158.8643559162101</v>
+        <v>150.7517341174952</v>
       </c>
       <c r="L30" t="n">
-        <v>156.5283879628043</v>
+        <v>145.6199667947194</v>
       </c>
       <c r="M30" t="n">
-        <v>158.8073274317979</v>
+        <v>146.0777144456295</v>
       </c>
       <c r="N30" t="n">
-        <v>145.2543769669952</v>
+        <v>132.1878490032285</v>
       </c>
       <c r="O30" t="n">
-        <v>160.2613470196622</v>
+        <v>148.3080266862594</v>
       </c>
       <c r="P30" t="n">
-        <v>152.4484465568465</v>
+        <v>142.8548531659551</v>
       </c>
       <c r="Q30" t="n">
         <v>136.1300824528302</v>
@@ -10352,13 +10354,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L32" t="n">
-        <v>270.6444670286918</v>
+        <v>255.8266834221102</v>
       </c>
       <c r="M32" t="n">
-        <v>262.1171336583936</v>
+        <v>245.6294943148315</v>
       </c>
       <c r="N32" t="n">
-        <v>260.6727596612894</v>
+        <v>243.9183330758522</v>
       </c>
       <c r="O32" t="n">
         <v>246.758517458259</v>
@@ -10428,22 +10430,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>158.8643559162101</v>
+        <v>150.7517341174952</v>
       </c>
       <c r="L33" t="n">
-        <v>156.5283879628043</v>
+        <v>145.6199667947194</v>
       </c>
       <c r="M33" t="n">
-        <v>158.8073274317979</v>
+        <v>146.0777144456295</v>
       </c>
       <c r="N33" t="n">
-        <v>145.2543769669952</v>
+        <v>132.1878490032285</v>
       </c>
       <c r="O33" t="n">
-        <v>160.2613470196622</v>
+        <v>148.3080266862594</v>
       </c>
       <c r="P33" t="n">
-        <v>152.4484465568465</v>
+        <v>142.8548531659551</v>
       </c>
       <c r="Q33" t="n">
         <v>136.1300824528302</v>
@@ -10589,13 +10591,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L35" t="n">
-        <v>270.6444670286918</v>
+        <v>255.8266834221102</v>
       </c>
       <c r="M35" t="n">
-        <v>262.1171336583936</v>
+        <v>245.6294943148315</v>
       </c>
       <c r="N35" t="n">
-        <v>260.6727596612894</v>
+        <v>243.9183330758522</v>
       </c>
       <c r="O35" t="n">
         <v>246.758517458259</v>
@@ -10665,22 +10667,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>158.8643559162101</v>
+        <v>150.7517341174952</v>
       </c>
       <c r="L36" t="n">
-        <v>156.5283879628043</v>
+        <v>145.6199667947194</v>
       </c>
       <c r="M36" t="n">
-        <v>158.8073274317979</v>
+        <v>146.0777144456295</v>
       </c>
       <c r="N36" t="n">
-        <v>145.2543769669952</v>
+        <v>132.1878490032285</v>
       </c>
       <c r="O36" t="n">
-        <v>160.2613470196622</v>
+        <v>148.3080266862594</v>
       </c>
       <c r="P36" t="n">
-        <v>152.4484465568465</v>
+        <v>142.8548531659551</v>
       </c>
       <c r="Q36" t="n">
         <v>136.1300824528302</v>
@@ -10826,13 +10828,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L38" t="n">
-        <v>270.6444670286918</v>
+        <v>255.8266834221102</v>
       </c>
       <c r="M38" t="n">
-        <v>262.1171336583936</v>
+        <v>245.6294943148315</v>
       </c>
       <c r="N38" t="n">
-        <v>260.6727596612894</v>
+        <v>243.9183330758522</v>
       </c>
       <c r="O38" t="n">
         <v>246.758517458259</v>
@@ -10902,22 +10904,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>158.8643559162101</v>
+        <v>150.7517341174952</v>
       </c>
       <c r="L39" t="n">
-        <v>156.5283879628043</v>
+        <v>145.6199667947194</v>
       </c>
       <c r="M39" t="n">
-        <v>158.8073274317979</v>
+        <v>146.0777144456295</v>
       </c>
       <c r="N39" t="n">
-        <v>145.2543769669952</v>
+        <v>132.1878490032285</v>
       </c>
       <c r="O39" t="n">
-        <v>160.2613470196622</v>
+        <v>148.3080266862594</v>
       </c>
       <c r="P39" t="n">
-        <v>152.4484465568465</v>
+        <v>142.8548531659551</v>
       </c>
       <c r="Q39" t="n">
         <v>136.1300824528302</v>
@@ -11063,13 +11065,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L41" t="n">
-        <v>270.6444670286918</v>
+        <v>255.8266834221102</v>
       </c>
       <c r="M41" t="n">
-        <v>262.1171336583936</v>
+        <v>245.6294943148315</v>
       </c>
       <c r="N41" t="n">
-        <v>260.6727596612894</v>
+        <v>243.9183330758522</v>
       </c>
       <c r="O41" t="n">
         <v>246.758517458259</v>
@@ -11139,22 +11141,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>158.8643559162101</v>
+        <v>150.7517341174952</v>
       </c>
       <c r="L42" t="n">
-        <v>156.5283879628043</v>
+        <v>145.6199667947194</v>
       </c>
       <c r="M42" t="n">
-        <v>158.8073274317979</v>
+        <v>146.0777144456295</v>
       </c>
       <c r="N42" t="n">
-        <v>145.2543769669952</v>
+        <v>132.1878490032285</v>
       </c>
       <c r="O42" t="n">
-        <v>160.2613470196622</v>
+        <v>148.3080266862594</v>
       </c>
       <c r="P42" t="n">
-        <v>152.4484465568465</v>
+        <v>142.8548531659551</v>
       </c>
       <c r="Q42" t="n">
         <v>136.1300824528302</v>
@@ -11300,16 +11302,16 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L44" t="n">
-        <v>270.6444670286918</v>
+        <v>215.1060201295988</v>
       </c>
       <c r="M44" t="n">
-        <v>262.1171336583936</v>
+        <v>200.3199103700812</v>
       </c>
       <c r="N44" t="n">
-        <v>260.6727596612894</v>
+        <v>197.8755926931642</v>
       </c>
       <c r="O44" t="n">
-        <v>246.758517458259</v>
+        <v>203.2816633332895</v>
       </c>
       <c r="P44" t="n">
         <v>208.5255628951208</v>
@@ -11376,22 +11378,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>158.8643559162101</v>
+        <v>128.4574862423794</v>
       </c>
       <c r="L45" t="n">
-        <v>156.5283879628043</v>
+        <v>115.6425992455544</v>
       </c>
       <c r="M45" t="n">
-        <v>158.8073274317979</v>
+        <v>111.0955404568352</v>
       </c>
       <c r="N45" t="n">
-        <v>145.2543769669952</v>
+        <v>96.27980096165827</v>
       </c>
       <c r="O45" t="n">
-        <v>160.2613470196622</v>
+        <v>115.4591779348292</v>
       </c>
       <c r="P45" t="n">
-        <v>152.4484465568465</v>
+        <v>116.4907560372702</v>
       </c>
       <c r="Q45" t="n">
         <v>136.1300824528302</v>
@@ -23270,19 +23272,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>419.1372257337943</v>
+        <v>419.0433278923953</v>
       </c>
       <c r="H11" t="n">
-        <v>350.0840728010472</v>
+        <v>349.1224415328191</v>
       </c>
       <c r="I11" t="n">
-        <v>252.5390011750733</v>
+        <v>248.9190046445362</v>
       </c>
       <c r="J11" t="n">
-        <v>102.1633490996273</v>
+        <v>94.19388718318407</v>
       </c>
       <c r="K11" t="n">
-        <v>44.7678260839346</v>
+        <v>32.82366854106931</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -23294,25 +23296,25 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>58.0961346578143</v>
+        <v>44.59350769232816</v>
       </c>
       <c r="Q11" t="n">
-        <v>122.0060719774896</v>
+        <v>111.8661614571072</v>
       </c>
       <c r="R11" t="n">
-        <v>213.6669190178523</v>
+        <v>207.7686087380687</v>
       </c>
       <c r="S11" t="n">
-        <v>234.3316595809324</v>
+        <v>232.1919625200514</v>
       </c>
       <c r="T11" t="n">
-        <v>223.7749849055099</v>
+        <v>223.3639471047855</v>
       </c>
       <c r="U11" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1669538870295</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23349,16 +23351,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.9046118134526</v>
+        <v>148.8543720391606</v>
       </c>
       <c r="H12" t="n">
-        <v>127.2808586212757</v>
+        <v>126.7956481695613</v>
       </c>
       <c r="I12" t="n">
-        <v>112.8724349482959</v>
+        <v>111.1426883334193</v>
       </c>
       <c r="J12" t="n">
-        <v>67.59235497006948</v>
+        <v>62.8457980489157</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23379,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.29425231795664</v>
+        <v>20.88118919956569</v>
       </c>
       <c r="R12" t="n">
-        <v>144.6542915277517</v>
+        <v>141.5350185239054</v>
       </c>
       <c r="S12" t="n">
-        <v>194.5628574600357</v>
+        <v>193.6296756875513</v>
       </c>
       <c r="T12" t="n">
-        <v>215.61586546681</v>
+        <v>215.4133639204314</v>
       </c>
       <c r="U12" t="n">
-        <v>237.2385962954956</v>
+        <v>237.2352910471869</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23428,49 +23430,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.8349197050291</v>
+        <v>168.7928003659262</v>
       </c>
       <c r="H13" t="n">
-        <v>167.0170666797881</v>
+        <v>166.6425874648544</v>
       </c>
       <c r="I13" t="n">
-        <v>168.8870673881104</v>
+        <v>167.6204239903589</v>
       </c>
       <c r="J13" t="n">
-        <v>129.7236433787886</v>
+        <v>126.7458061042081</v>
       </c>
       <c r="K13" t="n">
-        <v>82.61516433249618</v>
+        <v>77.72166293489558</v>
       </c>
       <c r="L13" t="n">
-        <v>52.09548622449577</v>
+        <v>45.8334892091311</v>
       </c>
       <c r="M13" t="n">
-        <v>46.24466908004986</v>
+        <v>39.64227122411658</v>
       </c>
       <c r="N13" t="n">
-        <v>37.04796687835205</v>
+        <v>30.60255928634805</v>
       </c>
       <c r="O13" t="n">
-        <v>56.43963860165199</v>
+        <v>50.48626147098734</v>
       </c>
       <c r="P13" t="n">
-        <v>74.70280003544025</v>
+        <v>69.60865742247636</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.4497818638882</v>
+        <v>134.9228615686379</v>
       </c>
       <c r="R13" t="n">
-        <v>209.4615981681609</v>
+        <v>207.5677595208579</v>
       </c>
       <c r="S13" t="n">
-        <v>237.7758219951765</v>
+        <v>237.0417967855364</v>
       </c>
       <c r="T13" t="n">
-        <v>224.3347225012506</v>
+        <v>224.154758052356</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6615765379532</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23507,19 +23509,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>419.1372257337943</v>
+        <v>419.0433278923953</v>
       </c>
       <c r="H14" t="n">
-        <v>350.0840728010472</v>
+        <v>349.1224415328191</v>
       </c>
       <c r="I14" t="n">
-        <v>252.5390011750733</v>
+        <v>248.9190046445362</v>
       </c>
       <c r="J14" t="n">
-        <v>102.1633490996273</v>
+        <v>94.19388718318407</v>
       </c>
       <c r="K14" t="n">
-        <v>44.76782608393461</v>
+        <v>32.82366854106931</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -23531,25 +23533,25 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>58.0961346578143</v>
+        <v>44.59350769232816</v>
       </c>
       <c r="Q14" t="n">
-        <v>122.0060719774896</v>
+        <v>111.8661614571072</v>
       </c>
       <c r="R14" t="n">
-        <v>213.6669190178523</v>
+        <v>207.7686087380687</v>
       </c>
       <c r="S14" t="n">
-        <v>234.3316595809324</v>
+        <v>232.1919625200514</v>
       </c>
       <c r="T14" t="n">
-        <v>223.7749849055099</v>
+        <v>223.3639471047855</v>
       </c>
       <c r="U14" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1669538870295</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23586,16 +23588,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.9046118134526</v>
+        <v>148.8543720391606</v>
       </c>
       <c r="H15" t="n">
-        <v>127.2808586212757</v>
+        <v>126.7956481695613</v>
       </c>
       <c r="I15" t="n">
-        <v>112.8724349482959</v>
+        <v>111.1426883334193</v>
       </c>
       <c r="J15" t="n">
-        <v>67.59235497006948</v>
+        <v>62.8457980489157</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23616,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.29425231795664</v>
+        <v>20.88118919956569</v>
       </c>
       <c r="R15" t="n">
-        <v>144.6542915277517</v>
+        <v>141.5350185239054</v>
       </c>
       <c r="S15" t="n">
-        <v>194.5628574600357</v>
+        <v>193.6296756875513</v>
       </c>
       <c r="T15" t="n">
-        <v>215.61586546681</v>
+        <v>215.4133639204314</v>
       </c>
       <c r="U15" t="n">
-        <v>237.2385962954956</v>
+        <v>237.2352910471869</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23665,49 +23667,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.8349197050291</v>
+        <v>168.7928003659262</v>
       </c>
       <c r="H16" t="n">
-        <v>167.0170666797881</v>
+        <v>166.6425874648544</v>
       </c>
       <c r="I16" t="n">
-        <v>168.8870673881104</v>
+        <v>167.6204239903589</v>
       </c>
       <c r="J16" t="n">
-        <v>129.7236433787886</v>
+        <v>126.7458061042081</v>
       </c>
       <c r="K16" t="n">
-        <v>82.61516433249618</v>
+        <v>77.72166293489558</v>
       </c>
       <c r="L16" t="n">
-        <v>52.09548622449577</v>
+        <v>45.8334892091311</v>
       </c>
       <c r="M16" t="n">
-        <v>46.24466908004986</v>
+        <v>39.64227122411658</v>
       </c>
       <c r="N16" t="n">
-        <v>37.04796687835205</v>
+        <v>30.60255928634805</v>
       </c>
       <c r="O16" t="n">
-        <v>56.43963860165199</v>
+        <v>50.48626147098734</v>
       </c>
       <c r="P16" t="n">
-        <v>74.70280003544025</v>
+        <v>69.60865742247636</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.4497818638882</v>
+        <v>134.9228615686379</v>
       </c>
       <c r="R16" t="n">
-        <v>209.4615981681609</v>
+        <v>207.5677595208579</v>
       </c>
       <c r="S16" t="n">
-        <v>237.7758219951765</v>
+        <v>237.0417967855364</v>
       </c>
       <c r="T16" t="n">
-        <v>224.3347225012506</v>
+        <v>224.154758052356</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6615765379532</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23744,19 +23746,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>419.1372257337943</v>
+        <v>419.0433278923953</v>
       </c>
       <c r="H17" t="n">
-        <v>350.0840728010472</v>
+        <v>349.1224415328191</v>
       </c>
       <c r="I17" t="n">
-        <v>252.5390011750733</v>
+        <v>248.9190046445362</v>
       </c>
       <c r="J17" t="n">
-        <v>102.1633490996273</v>
+        <v>94.19388718318407</v>
       </c>
       <c r="K17" t="n">
-        <v>44.76782608393461</v>
+        <v>32.82366854106931</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -23768,25 +23770,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>58.0961346578143</v>
+        <v>44.59350769232816</v>
       </c>
       <c r="Q17" t="n">
-        <v>122.0060719774896</v>
+        <v>111.8661614571072</v>
       </c>
       <c r="R17" t="n">
-        <v>213.6669190178523</v>
+        <v>207.7686087380687</v>
       </c>
       <c r="S17" t="n">
-        <v>234.3316595809324</v>
+        <v>232.1919625200514</v>
       </c>
       <c r="T17" t="n">
-        <v>223.7749849055099</v>
+        <v>223.3639471047855</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1669538870295</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23823,16 +23825,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.9046118134526</v>
+        <v>148.8543720391606</v>
       </c>
       <c r="H18" t="n">
-        <v>127.2808586212757</v>
+        <v>126.7956481695613</v>
       </c>
       <c r="I18" t="n">
-        <v>112.8724349482959</v>
+        <v>111.1426883334193</v>
       </c>
       <c r="J18" t="n">
-        <v>67.59235497006948</v>
+        <v>62.8457980489157</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23853,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.29425231795664</v>
+        <v>20.88118919956569</v>
       </c>
       <c r="R18" t="n">
-        <v>144.6542915277517</v>
+        <v>141.5350185239054</v>
       </c>
       <c r="S18" t="n">
-        <v>194.5628574600357</v>
+        <v>193.6296756875513</v>
       </c>
       <c r="T18" t="n">
-        <v>215.61586546681</v>
+        <v>215.4133639204314</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2385962954956</v>
+        <v>237.2352910471869</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23902,49 +23904,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.8349197050291</v>
+        <v>168.7928003659262</v>
       </c>
       <c r="H19" t="n">
-        <v>167.0170666797881</v>
+        <v>166.6425874648544</v>
       </c>
       <c r="I19" t="n">
-        <v>168.8870673881104</v>
+        <v>167.6204239903589</v>
       </c>
       <c r="J19" t="n">
-        <v>129.7236433787886</v>
+        <v>126.7458061042081</v>
       </c>
       <c r="K19" t="n">
-        <v>82.61516433249618</v>
+        <v>77.72166293489558</v>
       </c>
       <c r="L19" t="n">
-        <v>52.09548622449577</v>
+        <v>45.8334892091311</v>
       </c>
       <c r="M19" t="n">
-        <v>46.24466908004986</v>
+        <v>39.64227122411658</v>
       </c>
       <c r="N19" t="n">
-        <v>37.04796687835205</v>
+        <v>30.60255928634805</v>
       </c>
       <c r="O19" t="n">
-        <v>56.43963860165199</v>
+        <v>50.48626147098734</v>
       </c>
       <c r="P19" t="n">
-        <v>74.70280003544025</v>
+        <v>69.60865742247636</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.4497818638882</v>
+        <v>134.9228615686379</v>
       </c>
       <c r="R19" t="n">
-        <v>209.4615981681609</v>
+        <v>207.5677595208579</v>
       </c>
       <c r="S19" t="n">
-        <v>237.7758219951765</v>
+        <v>237.0417967855364</v>
       </c>
       <c r="T19" t="n">
-        <v>224.3347225012506</v>
+        <v>224.154758052356</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6615765379532</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23981,19 +23983,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>419.1372257337943</v>
+        <v>419.0433278923953</v>
       </c>
       <c r="H20" t="n">
-        <v>350.0840728010472</v>
+        <v>349.1224415328191</v>
       </c>
       <c r="I20" t="n">
-        <v>252.5390011750733</v>
+        <v>248.9190046445362</v>
       </c>
       <c r="J20" t="n">
-        <v>102.1633490996273</v>
+        <v>94.19388718318407</v>
       </c>
       <c r="K20" t="n">
-        <v>44.76782608393461</v>
+        <v>32.82366854106931</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -24005,25 +24007,25 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>58.0961346578143</v>
+        <v>44.59350769232816</v>
       </c>
       <c r="Q20" t="n">
-        <v>122.0060719774896</v>
+        <v>111.8661614571072</v>
       </c>
       <c r="R20" t="n">
-        <v>213.6669190178523</v>
+        <v>207.7686087380687</v>
       </c>
       <c r="S20" t="n">
-        <v>234.3316595809324</v>
+        <v>232.1919625200514</v>
       </c>
       <c r="T20" t="n">
-        <v>223.7749849055099</v>
+        <v>223.3639471047855</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1669538870295</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24060,16 +24062,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.9046118134526</v>
+        <v>148.8543720391606</v>
       </c>
       <c r="H21" t="n">
-        <v>127.2808586212757</v>
+        <v>126.7956481695613</v>
       </c>
       <c r="I21" t="n">
-        <v>112.8724349482959</v>
+        <v>111.1426883334193</v>
       </c>
       <c r="J21" t="n">
-        <v>67.59235497006948</v>
+        <v>62.8457980489157</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24090,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.29425231795664</v>
+        <v>20.88118919956569</v>
       </c>
       <c r="R21" t="n">
-        <v>144.6542915277517</v>
+        <v>141.5350185239054</v>
       </c>
       <c r="S21" t="n">
-        <v>194.5628574600357</v>
+        <v>193.6296756875513</v>
       </c>
       <c r="T21" t="n">
-        <v>215.61586546681</v>
+        <v>215.4133639204314</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2385962954956</v>
+        <v>237.2352910471869</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24139,49 +24141,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.8349197050291</v>
+        <v>168.7928003659262</v>
       </c>
       <c r="H22" t="n">
-        <v>167.0170666797881</v>
+        <v>166.6425874648544</v>
       </c>
       <c r="I22" t="n">
-        <v>168.8870673881104</v>
+        <v>167.6204239903589</v>
       </c>
       <c r="J22" t="n">
-        <v>129.7236433787886</v>
+        <v>126.7458061042081</v>
       </c>
       <c r="K22" t="n">
-        <v>82.61516433249618</v>
+        <v>77.72166293489558</v>
       </c>
       <c r="L22" t="n">
-        <v>52.09548622449577</v>
+        <v>45.8334892091311</v>
       </c>
       <c r="M22" t="n">
-        <v>46.24466908004986</v>
+        <v>39.64227122411658</v>
       </c>
       <c r="N22" t="n">
-        <v>37.04796687835205</v>
+        <v>30.60255928634805</v>
       </c>
       <c r="O22" t="n">
-        <v>56.43963860165199</v>
+        <v>50.48626147098734</v>
       </c>
       <c r="P22" t="n">
-        <v>74.70280003544025</v>
+        <v>69.60865742247636</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.4497818638882</v>
+        <v>134.9228615686379</v>
       </c>
       <c r="R22" t="n">
-        <v>209.4615981681609</v>
+        <v>207.5677595208579</v>
       </c>
       <c r="S22" t="n">
-        <v>237.7758219951765</v>
+        <v>237.0417967855364</v>
       </c>
       <c r="T22" t="n">
-        <v>224.3347225012506</v>
+        <v>224.154758052356</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6615765379532</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24218,19 +24220,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>419.1372257337943</v>
+        <v>419.0433278923953</v>
       </c>
       <c r="H23" t="n">
-        <v>350.0840728010472</v>
+        <v>349.1224415328191</v>
       </c>
       <c r="I23" t="n">
-        <v>252.5390011750733</v>
+        <v>248.9190046445362</v>
       </c>
       <c r="J23" t="n">
-        <v>102.1633490996273</v>
+        <v>94.19388718318407</v>
       </c>
       <c r="K23" t="n">
-        <v>44.76782608393461</v>
+        <v>32.82366854106931</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -24242,25 +24244,25 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>58.0961346578143</v>
+        <v>44.59350769232816</v>
       </c>
       <c r="Q23" t="n">
-        <v>122.0060719774896</v>
+        <v>111.8661614571072</v>
       </c>
       <c r="R23" t="n">
-        <v>213.6669190178523</v>
+        <v>207.7686087380687</v>
       </c>
       <c r="S23" t="n">
-        <v>234.3316595809324</v>
+        <v>232.1919625200514</v>
       </c>
       <c r="T23" t="n">
-        <v>223.7749849055099</v>
+        <v>223.3639471047855</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1669538870295</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24297,16 +24299,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.9046118134526</v>
+        <v>148.8543720391606</v>
       </c>
       <c r="H24" t="n">
-        <v>127.2808586212757</v>
+        <v>126.7956481695613</v>
       </c>
       <c r="I24" t="n">
-        <v>112.8724349482959</v>
+        <v>111.1426883334193</v>
       </c>
       <c r="J24" t="n">
-        <v>67.59235497006948</v>
+        <v>62.8457980489157</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24327,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.29425231795664</v>
+        <v>20.88118919956569</v>
       </c>
       <c r="R24" t="n">
-        <v>144.6542915277517</v>
+        <v>141.5350185239054</v>
       </c>
       <c r="S24" t="n">
-        <v>194.5628574600357</v>
+        <v>193.6296756875513</v>
       </c>
       <c r="T24" t="n">
-        <v>215.61586546681</v>
+        <v>215.4133639204314</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2385962954956</v>
+        <v>237.2352910471869</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24376,49 +24378,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.8349197050291</v>
+        <v>168.7928003659262</v>
       </c>
       <c r="H25" t="n">
-        <v>167.0170666797881</v>
+        <v>166.6425874648544</v>
       </c>
       <c r="I25" t="n">
-        <v>168.8870673881104</v>
+        <v>167.6204239903589</v>
       </c>
       <c r="J25" t="n">
-        <v>129.7236433787886</v>
+        <v>126.7458061042081</v>
       </c>
       <c r="K25" t="n">
-        <v>82.61516433249618</v>
+        <v>77.72166293489558</v>
       </c>
       <c r="L25" t="n">
-        <v>52.09548622449577</v>
+        <v>45.8334892091311</v>
       </c>
       <c r="M25" t="n">
-        <v>46.24466908004986</v>
+        <v>39.64227122411658</v>
       </c>
       <c r="N25" t="n">
-        <v>37.04796687835205</v>
+        <v>30.60255928634805</v>
       </c>
       <c r="O25" t="n">
-        <v>56.43963860165199</v>
+        <v>50.48626147098734</v>
       </c>
       <c r="P25" t="n">
-        <v>74.70280003544025</v>
+        <v>69.60865742247636</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.4497818638882</v>
+        <v>134.9228615686379</v>
       </c>
       <c r="R25" t="n">
-        <v>209.4615981681609</v>
+        <v>207.5677595208579</v>
       </c>
       <c r="S25" t="n">
-        <v>237.7758219951765</v>
+        <v>237.0417967855364</v>
       </c>
       <c r="T25" t="n">
-        <v>224.3347225012506</v>
+        <v>224.154758052356</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6615765379532</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24455,19 +24457,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>419.1372257337943</v>
+        <v>419.0433278923953</v>
       </c>
       <c r="H26" t="n">
-        <v>350.0840728010472</v>
+        <v>349.1224415328191</v>
       </c>
       <c r="I26" t="n">
-        <v>252.5390011750733</v>
+        <v>248.9190046445362</v>
       </c>
       <c r="J26" t="n">
-        <v>102.1633490996273</v>
+        <v>94.19388718318407</v>
       </c>
       <c r="K26" t="n">
-        <v>44.76782608393461</v>
+        <v>32.82366854106931</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -24479,25 +24481,25 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>58.0961346578143</v>
+        <v>44.59350769232816</v>
       </c>
       <c r="Q26" t="n">
-        <v>122.0060719774896</v>
+        <v>111.8661614571072</v>
       </c>
       <c r="R26" t="n">
-        <v>213.6669190178523</v>
+        <v>207.7686087380687</v>
       </c>
       <c r="S26" t="n">
-        <v>234.3316595809324</v>
+        <v>232.1919625200514</v>
       </c>
       <c r="T26" t="n">
-        <v>223.7749849055099</v>
+        <v>223.3639471047855</v>
       </c>
       <c r="U26" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1669538870295</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24534,16 +24536,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.9046118134526</v>
+        <v>148.8543720391606</v>
       </c>
       <c r="H27" t="n">
-        <v>127.2808586212757</v>
+        <v>126.7956481695613</v>
       </c>
       <c r="I27" t="n">
-        <v>112.8724349482959</v>
+        <v>111.1426883334193</v>
       </c>
       <c r="J27" t="n">
-        <v>67.59235497006948</v>
+        <v>62.8457980489157</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24564,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.29425231795664</v>
+        <v>20.88118919956569</v>
       </c>
       <c r="R27" t="n">
-        <v>144.6542915277517</v>
+        <v>141.5350185239054</v>
       </c>
       <c r="S27" t="n">
-        <v>194.5628574600357</v>
+        <v>193.6296756875513</v>
       </c>
       <c r="T27" t="n">
-        <v>215.61586546681</v>
+        <v>215.4133639204314</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2385962954956</v>
+        <v>237.2352910471869</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24613,49 +24615,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.8349197050291</v>
+        <v>168.7928003659262</v>
       </c>
       <c r="H28" t="n">
-        <v>167.0170666797881</v>
+        <v>166.6425874648544</v>
       </c>
       <c r="I28" t="n">
-        <v>168.8870673881104</v>
+        <v>167.6204239903589</v>
       </c>
       <c r="J28" t="n">
-        <v>129.7236433787886</v>
+        <v>126.7458061042081</v>
       </c>
       <c r="K28" t="n">
-        <v>82.61516433249618</v>
+        <v>77.72166293489558</v>
       </c>
       <c r="L28" t="n">
-        <v>52.09548622449577</v>
+        <v>45.8334892091311</v>
       </c>
       <c r="M28" t="n">
-        <v>46.24466908004986</v>
+        <v>39.64227122411658</v>
       </c>
       <c r="N28" t="n">
-        <v>37.04796687835205</v>
+        <v>30.60255928634805</v>
       </c>
       <c r="O28" t="n">
-        <v>56.43963860165199</v>
+        <v>50.48626147098734</v>
       </c>
       <c r="P28" t="n">
-        <v>74.70280003544025</v>
+        <v>69.60865742247636</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.4497818638882</v>
+        <v>134.9228615686379</v>
       </c>
       <c r="R28" t="n">
-        <v>209.4615981681609</v>
+        <v>207.5677595208579</v>
       </c>
       <c r="S28" t="n">
-        <v>237.7758219951765</v>
+        <v>237.0417967855364</v>
       </c>
       <c r="T28" t="n">
-        <v>224.3347225012506</v>
+        <v>224.154758052356</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6615765379532</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24692,19 +24694,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>419.1372257337943</v>
+        <v>419.0433278923953</v>
       </c>
       <c r="H29" t="n">
-        <v>350.0840728010472</v>
+        <v>349.1224415328191</v>
       </c>
       <c r="I29" t="n">
-        <v>252.5390011750733</v>
+        <v>248.9190046445362</v>
       </c>
       <c r="J29" t="n">
-        <v>102.1633490996273</v>
+        <v>94.19388718318407</v>
       </c>
       <c r="K29" t="n">
-        <v>44.76782608393461</v>
+        <v>32.82366854106931</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -24716,25 +24718,25 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>58.0961346578143</v>
+        <v>44.59350769232816</v>
       </c>
       <c r="Q29" t="n">
-        <v>122.0060719774896</v>
+        <v>111.8661614571072</v>
       </c>
       <c r="R29" t="n">
-        <v>213.6669190178523</v>
+        <v>207.7686087380687</v>
       </c>
       <c r="S29" t="n">
-        <v>234.3316595809324</v>
+        <v>232.1919625200514</v>
       </c>
       <c r="T29" t="n">
-        <v>223.7749849055099</v>
+        <v>223.3639471047855</v>
       </c>
       <c r="U29" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1669538870295</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24771,16 +24773,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.9046118134526</v>
+        <v>148.8543720391606</v>
       </c>
       <c r="H30" t="n">
-        <v>127.2808586212757</v>
+        <v>126.7956481695613</v>
       </c>
       <c r="I30" t="n">
-        <v>112.8724349482959</v>
+        <v>111.1426883334193</v>
       </c>
       <c r="J30" t="n">
-        <v>67.59235497006948</v>
+        <v>62.8457980489157</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24801,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.29425231795664</v>
+        <v>20.88118919956569</v>
       </c>
       <c r="R30" t="n">
-        <v>144.6542915277517</v>
+        <v>141.5350185239054</v>
       </c>
       <c r="S30" t="n">
-        <v>194.5628574600357</v>
+        <v>193.6296756875513</v>
       </c>
       <c r="T30" t="n">
-        <v>215.61586546681</v>
+        <v>215.4133639204314</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2385962954956</v>
+        <v>237.2352910471869</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24850,49 +24852,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.8349197050291</v>
+        <v>168.7928003659262</v>
       </c>
       <c r="H31" t="n">
-        <v>167.0170666797881</v>
+        <v>166.6425874648544</v>
       </c>
       <c r="I31" t="n">
-        <v>168.8870673881104</v>
+        <v>167.6204239903589</v>
       </c>
       <c r="J31" t="n">
-        <v>129.7236433787886</v>
+        <v>126.7458061042081</v>
       </c>
       <c r="K31" t="n">
-        <v>82.61516433249618</v>
+        <v>77.72166293489558</v>
       </c>
       <c r="L31" t="n">
-        <v>52.09548622449577</v>
+        <v>45.8334892091311</v>
       </c>
       <c r="M31" t="n">
-        <v>46.24466908004986</v>
+        <v>39.64227122411658</v>
       </c>
       <c r="N31" t="n">
-        <v>37.04796687835205</v>
+        <v>30.60255928634805</v>
       </c>
       <c r="O31" t="n">
-        <v>56.43963860165199</v>
+        <v>50.48626147098734</v>
       </c>
       <c r="P31" t="n">
-        <v>74.70280003544025</v>
+        <v>69.60865742247636</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.4497818638882</v>
+        <v>134.9228615686379</v>
       </c>
       <c r="R31" t="n">
-        <v>209.4615981681609</v>
+        <v>207.5677595208579</v>
       </c>
       <c r="S31" t="n">
-        <v>237.7758219951765</v>
+        <v>237.0417967855364</v>
       </c>
       <c r="T31" t="n">
-        <v>224.3347225012506</v>
+        <v>224.154758052356</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6615765379532</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24929,19 +24931,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>419.1372257337943</v>
+        <v>419.0433278923953</v>
       </c>
       <c r="H32" t="n">
-        <v>350.0840728010472</v>
+        <v>349.1224415328191</v>
       </c>
       <c r="I32" t="n">
-        <v>252.5390011750733</v>
+        <v>248.9190046445362</v>
       </c>
       <c r="J32" t="n">
-        <v>102.1633490996273</v>
+        <v>94.19388718318407</v>
       </c>
       <c r="K32" t="n">
-        <v>44.76782608393461</v>
+        <v>32.82366854106931</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -24953,25 +24955,25 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>58.0961346578143</v>
+        <v>44.59350769232816</v>
       </c>
       <c r="Q32" t="n">
-        <v>122.0060719774896</v>
+        <v>111.8661614571072</v>
       </c>
       <c r="R32" t="n">
-        <v>213.6669190178523</v>
+        <v>207.7686087380687</v>
       </c>
       <c r="S32" t="n">
-        <v>234.3316595809324</v>
+        <v>232.1919625200514</v>
       </c>
       <c r="T32" t="n">
-        <v>223.7749849055099</v>
+        <v>223.3639471047855</v>
       </c>
       <c r="U32" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1669538870295</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -25008,16 +25010,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.9046118134526</v>
+        <v>148.8543720391606</v>
       </c>
       <c r="H33" t="n">
-        <v>127.2808586212757</v>
+        <v>126.7956481695613</v>
       </c>
       <c r="I33" t="n">
-        <v>112.8724349482959</v>
+        <v>111.1426883334193</v>
       </c>
       <c r="J33" t="n">
-        <v>67.59235497006948</v>
+        <v>62.8457980489157</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25038,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.29425231795664</v>
+        <v>20.88118919956569</v>
       </c>
       <c r="R33" t="n">
-        <v>144.6542915277517</v>
+        <v>141.5350185239054</v>
       </c>
       <c r="S33" t="n">
-        <v>194.5628574600357</v>
+        <v>193.6296756875513</v>
       </c>
       <c r="T33" t="n">
-        <v>215.61586546681</v>
+        <v>215.4133639204314</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2385962954956</v>
+        <v>237.2352910471869</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25087,49 +25089,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.8349197050291</v>
+        <v>168.7928003659262</v>
       </c>
       <c r="H34" t="n">
-        <v>167.0170666797881</v>
+        <v>166.6425874648544</v>
       </c>
       <c r="I34" t="n">
-        <v>168.8870673881104</v>
+        <v>167.6204239903589</v>
       </c>
       <c r="J34" t="n">
-        <v>129.7236433787886</v>
+        <v>126.7458061042081</v>
       </c>
       <c r="K34" t="n">
-        <v>82.61516433249618</v>
+        <v>77.72166293489558</v>
       </c>
       <c r="L34" t="n">
-        <v>52.09548622449577</v>
+        <v>45.8334892091311</v>
       </c>
       <c r="M34" t="n">
-        <v>46.24466908004986</v>
+        <v>39.64227122411658</v>
       </c>
       <c r="N34" t="n">
-        <v>37.04796687835205</v>
+        <v>30.60255928634805</v>
       </c>
       <c r="O34" t="n">
-        <v>56.43963860165199</v>
+        <v>50.48626147098734</v>
       </c>
       <c r="P34" t="n">
-        <v>74.70280003544025</v>
+        <v>69.60865742247636</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4497818638882</v>
+        <v>134.9228615686379</v>
       </c>
       <c r="R34" t="n">
-        <v>209.4615981681609</v>
+        <v>207.5677595208579</v>
       </c>
       <c r="S34" t="n">
-        <v>237.7758219951765</v>
+        <v>237.0417967855364</v>
       </c>
       <c r="T34" t="n">
-        <v>224.3347225012506</v>
+        <v>224.154758052356</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6615765379532</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25166,19 +25168,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>419.1372257337943</v>
+        <v>419.0433278923953</v>
       </c>
       <c r="H35" t="n">
-        <v>350.0840728010472</v>
+        <v>349.1224415328191</v>
       </c>
       <c r="I35" t="n">
-        <v>252.5390011750733</v>
+        <v>248.9190046445362</v>
       </c>
       <c r="J35" t="n">
-        <v>102.1633490996273</v>
+        <v>94.19388718318407</v>
       </c>
       <c r="K35" t="n">
-        <v>44.76782608393461</v>
+        <v>32.82366854106931</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -25190,25 +25192,25 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>58.0961346578143</v>
+        <v>44.59350769232816</v>
       </c>
       <c r="Q35" t="n">
-        <v>122.0060719774896</v>
+        <v>111.8661614571072</v>
       </c>
       <c r="R35" t="n">
-        <v>213.6669190178523</v>
+        <v>207.7686087380687</v>
       </c>
       <c r="S35" t="n">
-        <v>234.3316595809324</v>
+        <v>232.1919625200514</v>
       </c>
       <c r="T35" t="n">
-        <v>223.7749849055099</v>
+        <v>223.3639471047855</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1669538870295</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25245,16 +25247,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.9046118134526</v>
+        <v>148.8543720391606</v>
       </c>
       <c r="H36" t="n">
-        <v>127.2808586212757</v>
+        <v>126.7956481695613</v>
       </c>
       <c r="I36" t="n">
-        <v>112.8724349482959</v>
+        <v>111.1426883334193</v>
       </c>
       <c r="J36" t="n">
-        <v>67.59235497006948</v>
+        <v>62.8457980489157</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25275,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.29425231795664</v>
+        <v>20.88118919956569</v>
       </c>
       <c r="R36" t="n">
-        <v>144.6542915277517</v>
+        <v>141.5350185239054</v>
       </c>
       <c r="S36" t="n">
-        <v>194.5628574600357</v>
+        <v>193.6296756875513</v>
       </c>
       <c r="T36" t="n">
-        <v>215.61586546681</v>
+        <v>215.4133639204314</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2385962954956</v>
+        <v>237.2352910471869</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25324,49 +25326,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.8349197050291</v>
+        <v>168.7928003659262</v>
       </c>
       <c r="H37" t="n">
-        <v>167.0170666797881</v>
+        <v>166.6425874648544</v>
       </c>
       <c r="I37" t="n">
-        <v>168.8870673881104</v>
+        <v>167.6204239903589</v>
       </c>
       <c r="J37" t="n">
-        <v>129.7236433787886</v>
+        <v>126.7458061042081</v>
       </c>
       <c r="K37" t="n">
-        <v>82.61516433249618</v>
+        <v>77.72166293489558</v>
       </c>
       <c r="L37" t="n">
-        <v>52.09548622449577</v>
+        <v>45.8334892091311</v>
       </c>
       <c r="M37" t="n">
-        <v>46.24466908004986</v>
+        <v>39.64227122411658</v>
       </c>
       <c r="N37" t="n">
-        <v>37.04796687835205</v>
+        <v>30.60255928634805</v>
       </c>
       <c r="O37" t="n">
-        <v>56.43963860165199</v>
+        <v>50.48626147098734</v>
       </c>
       <c r="P37" t="n">
-        <v>74.70280003544025</v>
+        <v>69.60865742247636</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.4497818638882</v>
+        <v>134.9228615686379</v>
       </c>
       <c r="R37" t="n">
-        <v>209.4615981681609</v>
+        <v>207.5677595208579</v>
       </c>
       <c r="S37" t="n">
-        <v>237.7758219951765</v>
+        <v>237.0417967855364</v>
       </c>
       <c r="T37" t="n">
-        <v>224.3347225012506</v>
+        <v>224.154758052356</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6615765379532</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25403,19 +25405,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>419.1372257337943</v>
+        <v>419.0433278923953</v>
       </c>
       <c r="H38" t="n">
-        <v>350.0840728010472</v>
+        <v>349.1224415328191</v>
       </c>
       <c r="I38" t="n">
-        <v>252.5390011750733</v>
+        <v>248.9190046445362</v>
       </c>
       <c r="J38" t="n">
-        <v>102.1633490996273</v>
+        <v>94.19388718318407</v>
       </c>
       <c r="K38" t="n">
-        <v>44.76782608393461</v>
+        <v>32.82366854106931</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -25427,25 +25429,25 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>58.0961346578143</v>
+        <v>44.59350769232816</v>
       </c>
       <c r="Q38" t="n">
-        <v>122.0060719774896</v>
+        <v>111.8661614571072</v>
       </c>
       <c r="R38" t="n">
-        <v>213.6669190178523</v>
+        <v>207.7686087380687</v>
       </c>
       <c r="S38" t="n">
-        <v>234.3316595809324</v>
+        <v>232.1919625200514</v>
       </c>
       <c r="T38" t="n">
-        <v>223.7749849055099</v>
+        <v>223.3639471047855</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1669538870295</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25482,16 +25484,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.9046118134526</v>
+        <v>148.8543720391606</v>
       </c>
       <c r="H39" t="n">
-        <v>127.2808586212757</v>
+        <v>126.7956481695613</v>
       </c>
       <c r="I39" t="n">
-        <v>112.8724349482959</v>
+        <v>111.1426883334193</v>
       </c>
       <c r="J39" t="n">
-        <v>67.59235497006948</v>
+        <v>62.8457980489157</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25512,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.29425231795664</v>
+        <v>20.88118919956569</v>
       </c>
       <c r="R39" t="n">
-        <v>144.6542915277517</v>
+        <v>141.5350185239054</v>
       </c>
       <c r="S39" t="n">
-        <v>194.5628574600357</v>
+        <v>193.6296756875513</v>
       </c>
       <c r="T39" t="n">
-        <v>215.61586546681</v>
+        <v>215.4133639204314</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2385962954956</v>
+        <v>237.2352910471869</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25561,49 +25563,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.8349197050291</v>
+        <v>168.7928003659262</v>
       </c>
       <c r="H40" t="n">
-        <v>167.0170666797881</v>
+        <v>166.6425874648544</v>
       </c>
       <c r="I40" t="n">
-        <v>168.8870673881104</v>
+        <v>167.6204239903589</v>
       </c>
       <c r="J40" t="n">
-        <v>129.7236433787886</v>
+        <v>126.7458061042081</v>
       </c>
       <c r="K40" t="n">
-        <v>82.61516433249618</v>
+        <v>77.72166293489558</v>
       </c>
       <c r="L40" t="n">
-        <v>52.09548622449577</v>
+        <v>45.8334892091311</v>
       </c>
       <c r="M40" t="n">
-        <v>46.24466908004986</v>
+        <v>39.64227122411658</v>
       </c>
       <c r="N40" t="n">
-        <v>37.04796687835205</v>
+        <v>30.60255928634805</v>
       </c>
       <c r="O40" t="n">
-        <v>56.43963860165199</v>
+        <v>50.48626147098734</v>
       </c>
       <c r="P40" t="n">
-        <v>74.70280003544025</v>
+        <v>69.60865742247636</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.4497818638882</v>
+        <v>134.9228615686379</v>
       </c>
       <c r="R40" t="n">
-        <v>209.4615981681609</v>
+        <v>207.5677595208579</v>
       </c>
       <c r="S40" t="n">
-        <v>237.7758219951765</v>
+        <v>237.0417967855364</v>
       </c>
       <c r="T40" t="n">
-        <v>224.3347225012506</v>
+        <v>224.154758052356</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6615765379532</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25640,19 +25642,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>419.1372257337943</v>
+        <v>419.0433278923953</v>
       </c>
       <c r="H41" t="n">
-        <v>350.0840728010472</v>
+        <v>349.1224415328191</v>
       </c>
       <c r="I41" t="n">
-        <v>252.5390011750733</v>
+        <v>248.9190046445362</v>
       </c>
       <c r="J41" t="n">
-        <v>102.1633490996273</v>
+        <v>94.19388718318407</v>
       </c>
       <c r="K41" t="n">
-        <v>44.76782608393461</v>
+        <v>32.82366854106931</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -25664,25 +25666,25 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>58.0961346578143</v>
+        <v>44.59350769232816</v>
       </c>
       <c r="Q41" t="n">
-        <v>122.0060719774896</v>
+        <v>111.8661614571072</v>
       </c>
       <c r="R41" t="n">
-        <v>213.6669190178523</v>
+        <v>207.7686087380687</v>
       </c>
       <c r="S41" t="n">
-        <v>234.3316595809324</v>
+        <v>232.1919625200514</v>
       </c>
       <c r="T41" t="n">
-        <v>223.7749849055099</v>
+        <v>223.3639471047855</v>
       </c>
       <c r="U41" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1669538870295</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25719,16 +25721,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.9046118134526</v>
+        <v>148.8543720391606</v>
       </c>
       <c r="H42" t="n">
-        <v>127.2808586212757</v>
+        <v>126.7956481695613</v>
       </c>
       <c r="I42" t="n">
-        <v>112.8724349482959</v>
+        <v>111.1426883334193</v>
       </c>
       <c r="J42" t="n">
-        <v>67.59235497006948</v>
+        <v>62.8457980489157</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25749,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.29425231795664</v>
+        <v>20.88118919956569</v>
       </c>
       <c r="R42" t="n">
-        <v>144.6542915277517</v>
+        <v>141.5350185239054</v>
       </c>
       <c r="S42" t="n">
-        <v>194.5628574600357</v>
+        <v>193.6296756875513</v>
       </c>
       <c r="T42" t="n">
-        <v>215.61586546681</v>
+        <v>215.4133639204314</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2385962954956</v>
+        <v>237.2352910471869</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25798,49 +25800,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.8349197050291</v>
+        <v>168.7928003659262</v>
       </c>
       <c r="H43" t="n">
-        <v>167.0170666797881</v>
+        <v>166.6425874648544</v>
       </c>
       <c r="I43" t="n">
-        <v>168.8870673881104</v>
+        <v>167.6204239903589</v>
       </c>
       <c r="J43" t="n">
-        <v>129.7236433787886</v>
+        <v>126.7458061042081</v>
       </c>
       <c r="K43" t="n">
-        <v>82.61516433249618</v>
+        <v>77.72166293489558</v>
       </c>
       <c r="L43" t="n">
-        <v>52.09548622449577</v>
+        <v>45.8334892091311</v>
       </c>
       <c r="M43" t="n">
-        <v>46.24466908004986</v>
+        <v>39.64227122411658</v>
       </c>
       <c r="N43" t="n">
-        <v>37.04796687835205</v>
+        <v>30.60255928634805</v>
       </c>
       <c r="O43" t="n">
-        <v>56.43963860165199</v>
+        <v>50.48626147098734</v>
       </c>
       <c r="P43" t="n">
-        <v>74.70280003544025</v>
+        <v>69.60865742247636</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.4497818638882</v>
+        <v>134.9228615686379</v>
       </c>
       <c r="R43" t="n">
-        <v>209.4615981681609</v>
+        <v>207.5677595208579</v>
       </c>
       <c r="S43" t="n">
-        <v>237.7758219951765</v>
+        <v>237.0417967855364</v>
       </c>
       <c r="T43" t="n">
-        <v>224.3347225012506</v>
+        <v>224.154758052356</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6615765379532</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25877,19 +25879,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>419.1372257337943</v>
+        <v>418.7852877910533</v>
       </c>
       <c r="H44" t="n">
-        <v>350.0840728010472</v>
+        <v>346.4797883449514</v>
       </c>
       <c r="I44" t="n">
-        <v>252.5390011750733</v>
+        <v>238.9709136375527</v>
       </c>
       <c r="J44" t="n">
-        <v>102.1633490996273</v>
+        <v>72.29305613191724</v>
       </c>
       <c r="K44" t="n">
-        <v>44.76782608393461</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -25901,25 +25903,25 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>15.82072992502536</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>58.0961346578143</v>
+        <v>7.487018569236724</v>
       </c>
       <c r="Q44" t="n">
-        <v>122.0060719774896</v>
+        <v>84.00073346332248</v>
       </c>
       <c r="R44" t="n">
-        <v>213.6669190178523</v>
+        <v>191.5594972221508</v>
       </c>
       <c r="S44" t="n">
-        <v>234.3316595809324</v>
+        <v>226.3118737107229</v>
       </c>
       <c r="T44" t="n">
-        <v>223.7749849055099</v>
+        <v>222.2343765611613</v>
       </c>
       <c r="U44" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1463106789221</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25956,16 +25958,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.9046118134526</v>
+        <v>148.7163084132398</v>
       </c>
       <c r="H45" t="n">
-        <v>127.2808586212757</v>
+        <v>125.4622442034314</v>
       </c>
       <c r="I45" t="n">
-        <v>112.8724349482959</v>
+        <v>106.3891819146546</v>
       </c>
       <c r="J45" t="n">
-        <v>67.59235497006948</v>
+        <v>49.80181311049407</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25986,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.29425231795664</v>
+        <v>3.257488459218298</v>
       </c>
       <c r="R45" t="n">
-        <v>144.6542915277517</v>
+        <v>132.9629628724363</v>
       </c>
       <c r="S45" t="n">
-        <v>194.5628574600357</v>
+        <v>191.0652043902942</v>
       </c>
       <c r="T45" t="n">
-        <v>215.61586546681</v>
+        <v>214.8568706212155</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2385962954956</v>
+        <v>237.2262079139026</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26035,49 +26037,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.8349197050291</v>
+        <v>168.6770524598119</v>
       </c>
       <c r="H46" t="n">
-        <v>167.0170666797881</v>
+        <v>165.6134833541297</v>
       </c>
       <c r="I46" t="n">
-        <v>168.8870673881104</v>
+        <v>164.1395687773966</v>
       </c>
       <c r="J46" t="n">
-        <v>129.7236433787886</v>
+        <v>118.5624291419324</v>
       </c>
       <c r="K46" t="n">
-        <v>82.61516433249618</v>
+        <v>64.27386075180667</v>
       </c>
       <c r="L46" t="n">
-        <v>52.09548622449577</v>
+        <v>28.62493233102187</v>
       </c>
       <c r="M46" t="n">
-        <v>46.24466908004986</v>
+        <v>21.49826081386603</v>
       </c>
       <c r="N46" t="n">
-        <v>37.04796687835205</v>
+        <v>12.88997288979596</v>
       </c>
       <c r="O46" t="n">
-        <v>56.43963860165199</v>
+        <v>34.12582106858778</v>
       </c>
       <c r="P46" t="n">
-        <v>74.70280003544025</v>
+        <v>55.60947430480697</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.4497818638882</v>
+        <v>125.2305528121096</v>
       </c>
       <c r="R46" t="n">
-        <v>209.4615981681609</v>
+        <v>202.3633127604856</v>
       </c>
       <c r="S46" t="n">
-        <v>237.7758219951765</v>
+        <v>235.0246264580731</v>
       </c>
       <c r="T46" t="n">
-        <v>224.3347225012506</v>
+        <v>223.6601988171407</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6552630158016</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>336778.3889203434</v>
+        <v>347346.0381285836</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>336778.3889203434</v>
+        <v>347346.0381285836</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>336778.3889203434</v>
+        <v>347346.0381285836</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>336778.3889203434</v>
+        <v>347346.0381285836</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>336778.3889203434</v>
+        <v>347346.0381285836</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>336778.3889203434</v>
+        <v>347346.0381285836</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>336778.3889203434</v>
+        <v>347346.0381285836</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>336778.3889203434</v>
+        <v>347346.0381285836</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>336778.3889203434</v>
+        <v>347346.0381285836</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>336778.3889203434</v>
+        <v>347346.0381285836</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>336778.3889203434</v>
+        <v>347346.0381285836</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>336778.3889203434</v>
+        <v>371109.2769526934</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>63462.03736344008</v>
       </c>
       <c r="E2" t="n">
-        <v>66492.91400965815</v>
+        <v>68782.34939044419</v>
       </c>
       <c r="F2" t="n">
-        <v>66492.91400965815</v>
+        <v>68782.34939044419</v>
       </c>
       <c r="G2" t="n">
-        <v>66492.91400965815</v>
+        <v>68782.34939044419</v>
       </c>
       <c r="H2" t="n">
-        <v>66492.91400965818</v>
+        <v>68782.34939044419</v>
       </c>
       <c r="I2" t="n">
-        <v>66492.91400965818</v>
+        <v>68782.34939044419</v>
       </c>
       <c r="J2" t="n">
-        <v>66492.91400965818</v>
+        <v>68782.3493904442</v>
       </c>
       <c r="K2" t="n">
-        <v>66492.91400965818</v>
+        <v>68782.34939044419</v>
       </c>
       <c r="L2" t="n">
-        <v>66492.9140096582</v>
+        <v>68782.34939044419</v>
       </c>
       <c r="M2" t="n">
-        <v>66492.91400965818</v>
+        <v>68782.34939044419</v>
       </c>
       <c r="N2" t="n">
-        <v>66492.9140096582</v>
+        <v>68782.34939044419</v>
       </c>
       <c r="O2" t="n">
-        <v>66492.9140096582</v>
+        <v>68782.34939044419</v>
       </c>
       <c r="P2" t="n">
-        <v>66492.9140096582</v>
+        <v>74035.70591258175</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>21516.74497334658</v>
+        <v>40281.89958238632</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>42721.64299957015</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26426,40 @@
         <v>15865.50934086002</v>
       </c>
       <c r="E4" t="n">
-        <v>15395.97120699573</v>
+        <v>14898.01607476984</v>
       </c>
       <c r="F4" t="n">
-        <v>15395.97120699573</v>
+        <v>14898.01607476984</v>
       </c>
       <c r="G4" t="n">
-        <v>15395.97120699573</v>
+        <v>14898.01607476984</v>
       </c>
       <c r="H4" t="n">
-        <v>15395.97120699573</v>
+        <v>14898.01607476984</v>
       </c>
       <c r="I4" t="n">
-        <v>15395.97120699573</v>
+        <v>14898.01607476984</v>
       </c>
       <c r="J4" t="n">
-        <v>15395.97120699573</v>
+        <v>14898.01607476984</v>
       </c>
       <c r="K4" t="n">
-        <v>15395.97120699573</v>
+        <v>14898.01607476984</v>
       </c>
       <c r="L4" t="n">
-        <v>15395.97120699573</v>
+        <v>14898.01607476984</v>
       </c>
       <c r="M4" t="n">
-        <v>15395.97120699573</v>
+        <v>14898.01607476984</v>
       </c>
       <c r="N4" t="n">
-        <v>15395.97120699573</v>
+        <v>14898.01607476984</v>
       </c>
       <c r="O4" t="n">
-        <v>15395.97120699573</v>
+        <v>14898.01607476984</v>
       </c>
       <c r="P4" t="n">
-        <v>15395.97120699573</v>
+        <v>13270.03170854814</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>583.8477581225804</v>
+        <v>1093.032277569317</v>
       </c>
       <c r="F5" t="n">
-        <v>583.8477581225804</v>
+        <v>1093.032277569317</v>
       </c>
       <c r="G5" t="n">
-        <v>583.8477581225804</v>
+        <v>1093.032277569317</v>
       </c>
       <c r="H5" t="n">
-        <v>583.8477581225804</v>
+        <v>1093.032277569317</v>
       </c>
       <c r="I5" t="n">
-        <v>583.8477581225804</v>
+        <v>1093.032277569317</v>
       </c>
       <c r="J5" t="n">
-        <v>583.8477581225804</v>
+        <v>1093.032277569317</v>
       </c>
       <c r="K5" t="n">
-        <v>583.8477581225804</v>
+        <v>1093.032277569317</v>
       </c>
       <c r="L5" t="n">
-        <v>583.8477581225804</v>
+        <v>1093.032277569317</v>
       </c>
       <c r="M5" t="n">
-        <v>583.8477581225804</v>
+        <v>1093.032277569317</v>
       </c>
       <c r="N5" t="n">
-        <v>583.8477581225804</v>
+        <v>1093.032277569317</v>
       </c>
       <c r="O5" t="n">
-        <v>583.8477581225804</v>
+        <v>1093.032277569317</v>
       </c>
       <c r="P5" t="n">
-        <v>583.8477581225804</v>
+        <v>2492.319237121088</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13968.92802258007</v>
+        <v>13968.92802258006</v>
       </c>
       <c r="C6" t="n">
-        <v>13968.92802258007</v>
+        <v>13968.92802258006</v>
       </c>
       <c r="D6" t="n">
-        <v>13968.92802258007</v>
+        <v>13968.92802258006</v>
       </c>
       <c r="E6" t="n">
-        <v>28996.35007119325</v>
+        <v>12509.4014557187</v>
       </c>
       <c r="F6" t="n">
-        <v>50513.09504453984</v>
+        <v>52791.30103810503</v>
       </c>
       <c r="G6" t="n">
-        <v>50513.09504453984</v>
+        <v>52791.30103810503</v>
       </c>
       <c r="H6" t="n">
-        <v>50513.09504453987</v>
+        <v>52791.30103810503</v>
       </c>
       <c r="I6" t="n">
-        <v>50513.09504453987</v>
+        <v>52791.30103810503</v>
       </c>
       <c r="J6" t="n">
-        <v>50513.09504453987</v>
+        <v>52791.30103810504</v>
       </c>
       <c r="K6" t="n">
-        <v>50513.09504453987</v>
+        <v>52791.30103810503</v>
       </c>
       <c r="L6" t="n">
-        <v>50513.09504453988</v>
+        <v>52791.30103810503</v>
       </c>
       <c r="M6" t="n">
-        <v>50513.09504453987</v>
+        <v>52791.30103810503</v>
       </c>
       <c r="N6" t="n">
-        <v>50513.09504453988</v>
+        <v>52791.30103810503</v>
       </c>
       <c r="O6" t="n">
-        <v>50513.09504453988</v>
+        <v>52791.30103810503</v>
       </c>
       <c r="P6" t="n">
-        <v>50513.09504453988</v>
+        <v>15551.71196734237</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>26.78200725332938</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="F3" t="n">
-        <v>26.78200725332938</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="G3" t="n">
-        <v>26.78200725332938</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="H3" t="n">
-        <v>26.78200725332938</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="I3" t="n">
-        <v>26.78200725332938</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="J3" t="n">
-        <v>26.78200725332938</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="K3" t="n">
-        <v>26.78200725332938</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="L3" t="n">
-        <v>26.78200725332938</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="M3" t="n">
-        <v>26.78200725332938</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="N3" t="n">
-        <v>26.78200725332938</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="O3" t="n">
-        <v>26.78200725332938</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="P3" t="n">
-        <v>26.78200725332938</v>
+        <v>114.3265705101416</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>26.78200725332938</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>64.18747520879683</v>
       </c>
     </row>
     <row r="4">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.2015642022164614</v>
       </c>
       <c r="H11" t="n">
-        <v>1.102638117721244</v>
+        <v>2.064269385949336</v>
       </c>
       <c r="I11" t="n">
-        <v>4.150807375412989</v>
+        <v>7.770803905950134</v>
       </c>
       <c r="J11" t="n">
-        <v>9.138047791426191</v>
+        <v>17.1075097078694</v>
       </c>
       <c r="K11" t="n">
-        <v>13.69556484482692</v>
+        <v>25.63972238769222</v>
       </c>
       <c r="L11" t="n">
-        <v>16.99055923469257</v>
+        <v>31.80834284127425</v>
       </c>
       <c r="M11" t="n">
-        <v>18.90527087887908</v>
+        <v>35.39291022244124</v>
       </c>
       <c r="N11" t="n">
-        <v>19.21117792655154</v>
+        <v>35.96560451198877</v>
       </c>
       <c r="O11" t="n">
-        <v>18.14057055117347</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P11" t="n">
-        <v>15.48255726849379</v>
+        <v>28.98518423397994</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.62675572172049</v>
+        <v>21.76666624210291</v>
       </c>
       <c r="R11" t="n">
-        <v>6.76319703769629</v>
+        <v>12.6615073174798</v>
       </c>
       <c r="S11" t="n">
-        <v>2.453447197126607</v>
+        <v>4.593144258007618</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4713094944781883</v>
+        <v>0.8823472952025601</v>
       </c>
       <c r="U11" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.01612513617731691</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05760658163923679</v>
+        <v>0.1078463559311945</v>
       </c>
       <c r="H12" t="n">
-        <v>0.55635830162105</v>
+        <v>1.041568753335484</v>
       </c>
       <c r="I12" t="n">
-        <v>1.983384499421091</v>
+        <v>3.713131114297705</v>
       </c>
       <c r="J12" t="n">
-        <v>5.442558662678946</v>
+        <v>10.18911558383272</v>
       </c>
       <c r="K12" t="n">
-        <v>9.30219963250781</v>
+        <v>17.41482143122275</v>
       </c>
       <c r="L12" t="n">
-        <v>12.50795536864218</v>
+        <v>23.41637653672712</v>
       </c>
       <c r="M12" t="n">
-        <v>14.59619395306451</v>
+        <v>27.32580693923292</v>
       </c>
       <c r="N12" t="n">
-        <v>14.9825117746715</v>
+        <v>28.04903973843817</v>
       </c>
       <c r="O12" t="n">
-        <v>13.70607120255999</v>
+        <v>25.65939153596275</v>
       </c>
       <c r="P12" t="n">
-        <v>11.00033048863637</v>
+        <v>20.59392387952783</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.353429614159418</v>
+        <v>13.76649273255037</v>
       </c>
       <c r="R12" t="n">
-        <v>3.576661270548404</v>
+        <v>6.695934274394691</v>
       </c>
       <c r="S12" t="n">
-        <v>1.070016987904244</v>
+        <v>2.003198760388633</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2321949496774499</v>
+        <v>0.4346964960559986</v>
       </c>
       <c r="U12" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.007095154995473324</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.09041476201881848</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4293902146517402</v>
+        <v>0.8038694295854959</v>
       </c>
       <c r="I13" t="n">
-        <v>1.452375081869075</v>
+        <v>2.71901847962047</v>
       </c>
       <c r="J13" t="n">
-        <v>3.414486400149878</v>
+        <v>6.392323674730466</v>
       </c>
       <c r="K13" t="n">
-        <v>5.611050044222121</v>
+        <v>10.50455144182273</v>
       </c>
       <c r="L13" t="n">
-        <v>7.180212239687683</v>
+        <v>13.44220925505234</v>
       </c>
       <c r="M13" t="n">
-        <v>7.570527066707514</v>
+        <v>14.17292492264079</v>
       </c>
       <c r="N13" t="n">
-        <v>7.390516854021208</v>
+        <v>13.83592444602521</v>
       </c>
       <c r="O13" t="n">
-        <v>6.826338504504349</v>
+        <v>12.779715635169</v>
       </c>
       <c r="P13" t="n">
-        <v>5.841111877021211</v>
+        <v>10.9352544899851</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.044083095252736</v>
+        <v>7.571003390503065</v>
       </c>
       <c r="R13" t="n">
-        <v>2.171537834015854</v>
+        <v>4.065376481318874</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8416575066333181</v>
+        <v>1.575682716273409</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.3863176195349516</v>
       </c>
       <c r="U13" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.004931714291935559</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.2015642022164614</v>
       </c>
       <c r="H14" t="n">
-        <v>1.102638117721244</v>
+        <v>2.064269385949336</v>
       </c>
       <c r="I14" t="n">
-        <v>4.150807375412989</v>
+        <v>7.770803905950134</v>
       </c>
       <c r="J14" t="n">
-        <v>9.138047791426191</v>
+        <v>17.1075097078694</v>
       </c>
       <c r="K14" t="n">
-        <v>13.69556484482692</v>
+        <v>25.63972238769222</v>
       </c>
       <c r="L14" t="n">
-        <v>16.99055923469257</v>
+        <v>31.80834284127425</v>
       </c>
       <c r="M14" t="n">
-        <v>18.90527087887908</v>
+        <v>35.39291022244124</v>
       </c>
       <c r="N14" t="n">
-        <v>19.21117792655154</v>
+        <v>35.96560451198877</v>
       </c>
       <c r="O14" t="n">
-        <v>18.14057055117347</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P14" t="n">
-        <v>15.48255726849379</v>
+        <v>28.98518423397994</v>
       </c>
       <c r="Q14" t="n">
-        <v>11.62675572172049</v>
+        <v>21.76666624210291</v>
       </c>
       <c r="R14" t="n">
-        <v>6.763197037696289</v>
+        <v>12.6615073174798</v>
       </c>
       <c r="S14" t="n">
-        <v>2.453447197126606</v>
+        <v>4.593144258007618</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4713094944781883</v>
+        <v>0.8823472952025601</v>
       </c>
       <c r="U14" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.01612513617731691</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.1078463559311945</v>
       </c>
       <c r="H15" t="n">
-        <v>0.55635830162105</v>
+        <v>1.041568753335484</v>
       </c>
       <c r="I15" t="n">
-        <v>1.983384499421091</v>
+        <v>3.713131114297705</v>
       </c>
       <c r="J15" t="n">
-        <v>5.442558662678946</v>
+        <v>10.18911558383272</v>
       </c>
       <c r="K15" t="n">
-        <v>9.30219963250781</v>
+        <v>17.41482143122275</v>
       </c>
       <c r="L15" t="n">
-        <v>12.50795536864218</v>
+        <v>23.41637653672712</v>
       </c>
       <c r="M15" t="n">
-        <v>14.59619395306451</v>
+        <v>27.32580693923292</v>
       </c>
       <c r="N15" t="n">
-        <v>14.9825117746715</v>
+        <v>28.04903973843817</v>
       </c>
       <c r="O15" t="n">
-        <v>13.70607120255999</v>
+        <v>25.65939153596275</v>
       </c>
       <c r="P15" t="n">
-        <v>11.00033048863637</v>
+        <v>20.59392387952783</v>
       </c>
       <c r="Q15" t="n">
-        <v>7.353429614159419</v>
+        <v>13.76649273255037</v>
       </c>
       <c r="R15" t="n">
-        <v>3.576661270548404</v>
+        <v>6.695934274394691</v>
       </c>
       <c r="S15" t="n">
-        <v>1.070016987904244</v>
+        <v>2.003198760388633</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2321949496774499</v>
+        <v>0.4346964960559986</v>
       </c>
       <c r="U15" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.007095154995473324</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.09041476201881848</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4293902146517402</v>
+        <v>0.8038694295854959</v>
       </c>
       <c r="I16" t="n">
-        <v>1.452375081869075</v>
+        <v>2.71901847962047</v>
       </c>
       <c r="J16" t="n">
-        <v>3.414486400149878</v>
+        <v>6.392323674730466</v>
       </c>
       <c r="K16" t="n">
-        <v>5.611050044222121</v>
+        <v>10.50455144182273</v>
       </c>
       <c r="L16" t="n">
-        <v>7.180212239687683</v>
+        <v>13.44220925505234</v>
       </c>
       <c r="M16" t="n">
-        <v>7.570527066707514</v>
+        <v>14.17292492264079</v>
       </c>
       <c r="N16" t="n">
-        <v>7.390516854021208</v>
+        <v>13.83592444602521</v>
       </c>
       <c r="O16" t="n">
-        <v>6.826338504504349</v>
+        <v>12.779715635169</v>
       </c>
       <c r="P16" t="n">
-        <v>5.841111877021211</v>
+        <v>10.9352544899851</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.044083095252736</v>
+        <v>7.571003390503065</v>
       </c>
       <c r="R16" t="n">
-        <v>2.171537834015854</v>
+        <v>4.065376481318874</v>
       </c>
       <c r="S16" t="n">
-        <v>0.841657506633318</v>
+        <v>1.575682716273409</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.3863176195349516</v>
       </c>
       <c r="U16" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.004931714291935559</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.2015642022164614</v>
       </c>
       <c r="H17" t="n">
-        <v>1.102638117721244</v>
+        <v>2.064269385949336</v>
       </c>
       <c r="I17" t="n">
-        <v>4.150807375412989</v>
+        <v>7.770803905950134</v>
       </c>
       <c r="J17" t="n">
-        <v>9.138047791426191</v>
+        <v>17.1075097078694</v>
       </c>
       <c r="K17" t="n">
-        <v>13.69556484482692</v>
+        <v>25.63972238769222</v>
       </c>
       <c r="L17" t="n">
-        <v>16.99055923469257</v>
+        <v>31.80834284127425</v>
       </c>
       <c r="M17" t="n">
-        <v>18.90527087887908</v>
+        <v>35.39291022244124</v>
       </c>
       <c r="N17" t="n">
-        <v>19.21117792655154</v>
+        <v>35.96560451198877</v>
       </c>
       <c r="O17" t="n">
-        <v>18.14057055117347</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P17" t="n">
-        <v>15.48255726849379</v>
+        <v>28.98518423397994</v>
       </c>
       <c r="Q17" t="n">
-        <v>11.62675572172049</v>
+        <v>21.76666624210291</v>
       </c>
       <c r="R17" t="n">
-        <v>6.763197037696289</v>
+        <v>12.6615073174798</v>
       </c>
       <c r="S17" t="n">
-        <v>2.453447197126606</v>
+        <v>4.593144258007618</v>
       </c>
       <c r="T17" t="n">
-        <v>0.4713094944781883</v>
+        <v>0.8823472952025601</v>
       </c>
       <c r="U17" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.01612513617731691</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.1078463559311945</v>
       </c>
       <c r="H18" t="n">
-        <v>0.55635830162105</v>
+        <v>1.041568753335484</v>
       </c>
       <c r="I18" t="n">
-        <v>1.983384499421091</v>
+        <v>3.713131114297705</v>
       </c>
       <c r="J18" t="n">
-        <v>5.442558662678946</v>
+        <v>10.18911558383272</v>
       </c>
       <c r="K18" t="n">
-        <v>9.30219963250781</v>
+        <v>17.41482143122275</v>
       </c>
       <c r="L18" t="n">
-        <v>12.50795536864218</v>
+        <v>23.41637653672712</v>
       </c>
       <c r="M18" t="n">
-        <v>14.59619395306451</v>
+        <v>27.32580693923292</v>
       </c>
       <c r="N18" t="n">
-        <v>14.9825117746715</v>
+        <v>28.04903973843817</v>
       </c>
       <c r="O18" t="n">
-        <v>13.70607120255999</v>
+        <v>25.65939153596275</v>
       </c>
       <c r="P18" t="n">
-        <v>11.00033048863637</v>
+        <v>20.59392387952783</v>
       </c>
       <c r="Q18" t="n">
-        <v>7.353429614159419</v>
+        <v>13.76649273255037</v>
       </c>
       <c r="R18" t="n">
-        <v>3.576661270548404</v>
+        <v>6.695934274394691</v>
       </c>
       <c r="S18" t="n">
-        <v>1.070016987904244</v>
+        <v>2.003198760388633</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2321949496774499</v>
+        <v>0.4346964960559986</v>
       </c>
       <c r="U18" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.007095154995473324</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.09041476201881848</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4293902146517402</v>
+        <v>0.8038694295854959</v>
       </c>
       <c r="I19" t="n">
-        <v>1.452375081869075</v>
+        <v>2.71901847962047</v>
       </c>
       <c r="J19" t="n">
-        <v>3.414486400149878</v>
+        <v>6.392323674730466</v>
       </c>
       <c r="K19" t="n">
-        <v>5.611050044222121</v>
+        <v>10.50455144182273</v>
       </c>
       <c r="L19" t="n">
-        <v>7.180212239687683</v>
+        <v>13.44220925505234</v>
       </c>
       <c r="M19" t="n">
-        <v>7.570527066707514</v>
+        <v>14.17292492264079</v>
       </c>
       <c r="N19" t="n">
-        <v>7.390516854021208</v>
+        <v>13.83592444602521</v>
       </c>
       <c r="O19" t="n">
-        <v>6.826338504504349</v>
+        <v>12.779715635169</v>
       </c>
       <c r="P19" t="n">
-        <v>5.841111877021211</v>
+        <v>10.9352544899851</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.044083095252736</v>
+        <v>7.571003390503065</v>
       </c>
       <c r="R19" t="n">
-        <v>2.171537834015854</v>
+        <v>4.065376481318874</v>
       </c>
       <c r="S19" t="n">
-        <v>0.841657506633318</v>
+        <v>1.575682716273409</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.3863176195349516</v>
       </c>
       <c r="U19" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.004931714291935559</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.2015642022164614</v>
       </c>
       <c r="H20" t="n">
-        <v>1.102638117721244</v>
+        <v>2.064269385949336</v>
       </c>
       <c r="I20" t="n">
-        <v>4.150807375412989</v>
+        <v>7.770803905950134</v>
       </c>
       <c r="J20" t="n">
-        <v>9.138047791426191</v>
+        <v>17.1075097078694</v>
       </c>
       <c r="K20" t="n">
-        <v>13.69556484482692</v>
+        <v>25.63972238769222</v>
       </c>
       <c r="L20" t="n">
-        <v>16.99055923469257</v>
+        <v>31.80834284127425</v>
       </c>
       <c r="M20" t="n">
-        <v>18.90527087887908</v>
+        <v>35.39291022244124</v>
       </c>
       <c r="N20" t="n">
-        <v>19.21117792655154</v>
+        <v>35.96560451198877</v>
       </c>
       <c r="O20" t="n">
-        <v>18.14057055117347</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P20" t="n">
-        <v>15.48255726849379</v>
+        <v>28.98518423397994</v>
       </c>
       <c r="Q20" t="n">
-        <v>11.62675572172049</v>
+        <v>21.76666624210291</v>
       </c>
       <c r="R20" t="n">
-        <v>6.763197037696289</v>
+        <v>12.6615073174798</v>
       </c>
       <c r="S20" t="n">
-        <v>2.453447197126606</v>
+        <v>4.593144258007618</v>
       </c>
       <c r="T20" t="n">
-        <v>0.4713094944781883</v>
+        <v>0.8823472952025601</v>
       </c>
       <c r="U20" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.01612513617731691</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.1078463559311945</v>
       </c>
       <c r="H21" t="n">
-        <v>0.55635830162105</v>
+        <v>1.041568753335484</v>
       </c>
       <c r="I21" t="n">
-        <v>1.983384499421091</v>
+        <v>3.713131114297705</v>
       </c>
       <c r="J21" t="n">
-        <v>5.442558662678946</v>
+        <v>10.18911558383272</v>
       </c>
       <c r="K21" t="n">
-        <v>9.30219963250781</v>
+        <v>17.41482143122275</v>
       </c>
       <c r="L21" t="n">
-        <v>12.50795536864218</v>
+        <v>23.41637653672712</v>
       </c>
       <c r="M21" t="n">
-        <v>14.59619395306451</v>
+        <v>27.32580693923292</v>
       </c>
       <c r="N21" t="n">
-        <v>14.9825117746715</v>
+        <v>28.04903973843817</v>
       </c>
       <c r="O21" t="n">
-        <v>13.70607120255999</v>
+        <v>25.65939153596275</v>
       </c>
       <c r="P21" t="n">
-        <v>11.00033048863637</v>
+        <v>20.59392387952783</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.353429614159419</v>
+        <v>13.76649273255037</v>
       </c>
       <c r="R21" t="n">
-        <v>3.576661270548404</v>
+        <v>6.695934274394691</v>
       </c>
       <c r="S21" t="n">
-        <v>1.070016987904244</v>
+        <v>2.003198760388633</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2321949496774499</v>
+        <v>0.4346964960559986</v>
       </c>
       <c r="U21" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.007095154995473324</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.09041476201881848</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4293902146517402</v>
+        <v>0.8038694295854959</v>
       </c>
       <c r="I22" t="n">
-        <v>1.452375081869075</v>
+        <v>2.71901847962047</v>
       </c>
       <c r="J22" t="n">
-        <v>3.414486400149878</v>
+        <v>6.392323674730466</v>
       </c>
       <c r="K22" t="n">
-        <v>5.611050044222121</v>
+        <v>10.50455144182273</v>
       </c>
       <c r="L22" t="n">
-        <v>7.180212239687683</v>
+        <v>13.44220925505234</v>
       </c>
       <c r="M22" t="n">
-        <v>7.570527066707514</v>
+        <v>14.17292492264079</v>
       </c>
       <c r="N22" t="n">
-        <v>7.390516854021208</v>
+        <v>13.83592444602521</v>
       </c>
       <c r="O22" t="n">
-        <v>6.826338504504349</v>
+        <v>12.779715635169</v>
       </c>
       <c r="P22" t="n">
-        <v>5.841111877021211</v>
+        <v>10.9352544899851</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.044083095252736</v>
+        <v>7.571003390503065</v>
       </c>
       <c r="R22" t="n">
-        <v>2.171537834015854</v>
+        <v>4.065376481318874</v>
       </c>
       <c r="S22" t="n">
-        <v>0.841657506633318</v>
+        <v>1.575682716273409</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.3863176195349516</v>
       </c>
       <c r="U22" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.004931714291935559</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.2015642022164614</v>
       </c>
       <c r="H23" t="n">
-        <v>1.102638117721244</v>
+        <v>2.064269385949336</v>
       </c>
       <c r="I23" t="n">
-        <v>4.150807375412989</v>
+        <v>7.770803905950134</v>
       </c>
       <c r="J23" t="n">
-        <v>9.138047791426191</v>
+        <v>17.1075097078694</v>
       </c>
       <c r="K23" t="n">
-        <v>13.69556484482692</v>
+        <v>25.63972238769222</v>
       </c>
       <c r="L23" t="n">
-        <v>16.99055923469257</v>
+        <v>31.80834284127425</v>
       </c>
       <c r="M23" t="n">
-        <v>18.90527087887908</v>
+        <v>35.39291022244124</v>
       </c>
       <c r="N23" t="n">
-        <v>19.21117792655154</v>
+        <v>35.96560451198877</v>
       </c>
       <c r="O23" t="n">
-        <v>18.14057055117347</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P23" t="n">
-        <v>15.48255726849379</v>
+        <v>28.98518423397994</v>
       </c>
       <c r="Q23" t="n">
-        <v>11.62675572172049</v>
+        <v>21.76666624210291</v>
       </c>
       <c r="R23" t="n">
-        <v>6.763197037696289</v>
+        <v>12.6615073174798</v>
       </c>
       <c r="S23" t="n">
-        <v>2.453447197126606</v>
+        <v>4.593144258007618</v>
       </c>
       <c r="T23" t="n">
-        <v>0.4713094944781883</v>
+        <v>0.8823472952025601</v>
       </c>
       <c r="U23" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.01612513617731691</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.1078463559311945</v>
       </c>
       <c r="H24" t="n">
-        <v>0.55635830162105</v>
+        <v>1.041568753335484</v>
       </c>
       <c r="I24" t="n">
-        <v>1.983384499421091</v>
+        <v>3.713131114297705</v>
       </c>
       <c r="J24" t="n">
-        <v>5.442558662678946</v>
+        <v>10.18911558383272</v>
       </c>
       <c r="K24" t="n">
-        <v>9.30219963250781</v>
+        <v>17.41482143122275</v>
       </c>
       <c r="L24" t="n">
-        <v>12.50795536864218</v>
+        <v>23.41637653672712</v>
       </c>
       <c r="M24" t="n">
-        <v>14.59619395306451</v>
+        <v>27.32580693923292</v>
       </c>
       <c r="N24" t="n">
-        <v>14.9825117746715</v>
+        <v>28.04903973843817</v>
       </c>
       <c r="O24" t="n">
-        <v>13.70607120255999</v>
+        <v>25.65939153596275</v>
       </c>
       <c r="P24" t="n">
-        <v>11.00033048863637</v>
+        <v>20.59392387952783</v>
       </c>
       <c r="Q24" t="n">
-        <v>7.353429614159419</v>
+        <v>13.76649273255037</v>
       </c>
       <c r="R24" t="n">
-        <v>3.576661270548404</v>
+        <v>6.695934274394691</v>
       </c>
       <c r="S24" t="n">
-        <v>1.070016987904244</v>
+        <v>2.003198760388633</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2321949496774499</v>
+        <v>0.4346964960559986</v>
       </c>
       <c r="U24" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.007095154995473324</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.09041476201881848</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4293902146517402</v>
+        <v>0.8038694295854959</v>
       </c>
       <c r="I25" t="n">
-        <v>1.452375081869075</v>
+        <v>2.71901847962047</v>
       </c>
       <c r="J25" t="n">
-        <v>3.414486400149878</v>
+        <v>6.392323674730466</v>
       </c>
       <c r="K25" t="n">
-        <v>5.611050044222121</v>
+        <v>10.50455144182273</v>
       </c>
       <c r="L25" t="n">
-        <v>7.180212239687683</v>
+        <v>13.44220925505234</v>
       </c>
       <c r="M25" t="n">
-        <v>7.570527066707514</v>
+        <v>14.17292492264079</v>
       </c>
       <c r="N25" t="n">
-        <v>7.390516854021208</v>
+        <v>13.83592444602521</v>
       </c>
       <c r="O25" t="n">
-        <v>6.826338504504349</v>
+        <v>12.779715635169</v>
       </c>
       <c r="P25" t="n">
-        <v>5.841111877021211</v>
+        <v>10.9352544899851</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.044083095252736</v>
+        <v>7.571003390503065</v>
       </c>
       <c r="R25" t="n">
-        <v>2.171537834015854</v>
+        <v>4.065376481318874</v>
       </c>
       <c r="S25" t="n">
-        <v>0.841657506633318</v>
+        <v>1.575682716273409</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.3863176195349516</v>
       </c>
       <c r="U25" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.004931714291935559</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.2015642022164614</v>
       </c>
       <c r="H26" t="n">
-        <v>1.102638117721244</v>
+        <v>2.064269385949336</v>
       </c>
       <c r="I26" t="n">
-        <v>4.150807375412989</v>
+        <v>7.770803905950134</v>
       </c>
       <c r="J26" t="n">
-        <v>9.138047791426191</v>
+        <v>17.1075097078694</v>
       </c>
       <c r="K26" t="n">
-        <v>13.69556484482692</v>
+        <v>25.63972238769222</v>
       </c>
       <c r="L26" t="n">
-        <v>16.99055923469257</v>
+        <v>31.80834284127425</v>
       </c>
       <c r="M26" t="n">
-        <v>18.90527087887908</v>
+        <v>35.39291022244124</v>
       </c>
       <c r="N26" t="n">
-        <v>19.21117792655154</v>
+        <v>35.96560451198877</v>
       </c>
       <c r="O26" t="n">
-        <v>18.14057055117347</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P26" t="n">
-        <v>15.48255726849379</v>
+        <v>28.98518423397994</v>
       </c>
       <c r="Q26" t="n">
-        <v>11.62675572172049</v>
+        <v>21.76666624210291</v>
       </c>
       <c r="R26" t="n">
-        <v>6.763197037696289</v>
+        <v>12.6615073174798</v>
       </c>
       <c r="S26" t="n">
-        <v>2.453447197126606</v>
+        <v>4.593144258007618</v>
       </c>
       <c r="T26" t="n">
-        <v>0.4713094944781883</v>
+        <v>0.8823472952025601</v>
       </c>
       <c r="U26" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.01612513617731691</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.1078463559311945</v>
       </c>
       <c r="H27" t="n">
-        <v>0.55635830162105</v>
+        <v>1.041568753335484</v>
       </c>
       <c r="I27" t="n">
-        <v>1.983384499421091</v>
+        <v>3.713131114297705</v>
       </c>
       <c r="J27" t="n">
-        <v>5.442558662678946</v>
+        <v>10.18911558383272</v>
       </c>
       <c r="K27" t="n">
-        <v>9.30219963250781</v>
+        <v>17.41482143122275</v>
       </c>
       <c r="L27" t="n">
-        <v>12.50795536864218</v>
+        <v>23.41637653672712</v>
       </c>
       <c r="M27" t="n">
-        <v>14.59619395306451</v>
+        <v>27.32580693923292</v>
       </c>
       <c r="N27" t="n">
-        <v>14.9825117746715</v>
+        <v>28.04903973843817</v>
       </c>
       <c r="O27" t="n">
-        <v>13.70607120255999</v>
+        <v>25.65939153596275</v>
       </c>
       <c r="P27" t="n">
-        <v>11.00033048863637</v>
+        <v>20.59392387952783</v>
       </c>
       <c r="Q27" t="n">
-        <v>7.353429614159419</v>
+        <v>13.76649273255037</v>
       </c>
       <c r="R27" t="n">
-        <v>3.576661270548404</v>
+        <v>6.695934274394691</v>
       </c>
       <c r="S27" t="n">
-        <v>1.070016987904244</v>
+        <v>2.003198760388633</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2321949496774499</v>
+        <v>0.4346964960559986</v>
       </c>
       <c r="U27" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.007095154995473324</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.09041476201881848</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4293902146517402</v>
+        <v>0.8038694295854959</v>
       </c>
       <c r="I28" t="n">
-        <v>1.452375081869075</v>
+        <v>2.71901847962047</v>
       </c>
       <c r="J28" t="n">
-        <v>3.414486400149878</v>
+        <v>6.392323674730466</v>
       </c>
       <c r="K28" t="n">
-        <v>5.611050044222121</v>
+        <v>10.50455144182273</v>
       </c>
       <c r="L28" t="n">
-        <v>7.180212239687683</v>
+        <v>13.44220925505234</v>
       </c>
       <c r="M28" t="n">
-        <v>7.570527066707514</v>
+        <v>14.17292492264079</v>
       </c>
       <c r="N28" t="n">
-        <v>7.390516854021208</v>
+        <v>13.83592444602521</v>
       </c>
       <c r="O28" t="n">
-        <v>6.826338504504349</v>
+        <v>12.779715635169</v>
       </c>
       <c r="P28" t="n">
-        <v>5.841111877021211</v>
+        <v>10.9352544899851</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.044083095252736</v>
+        <v>7.571003390503065</v>
       </c>
       <c r="R28" t="n">
-        <v>2.171537834015854</v>
+        <v>4.065376481318874</v>
       </c>
       <c r="S28" t="n">
-        <v>0.841657506633318</v>
+        <v>1.575682716273409</v>
       </c>
       <c r="T28" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.3863176195349516</v>
       </c>
       <c r="U28" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.004931714291935559</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.2015642022164614</v>
       </c>
       <c r="H29" t="n">
-        <v>1.102638117721244</v>
+        <v>2.064269385949336</v>
       </c>
       <c r="I29" t="n">
-        <v>4.150807375412989</v>
+        <v>7.770803905950134</v>
       </c>
       <c r="J29" t="n">
-        <v>9.138047791426191</v>
+        <v>17.1075097078694</v>
       </c>
       <c r="K29" t="n">
-        <v>13.69556484482692</v>
+        <v>25.63972238769222</v>
       </c>
       <c r="L29" t="n">
-        <v>16.99055923469257</v>
+        <v>31.80834284127425</v>
       </c>
       <c r="M29" t="n">
-        <v>18.90527087887908</v>
+        <v>35.39291022244124</v>
       </c>
       <c r="N29" t="n">
-        <v>19.21117792655154</v>
+        <v>35.96560451198877</v>
       </c>
       <c r="O29" t="n">
-        <v>18.14057055117347</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P29" t="n">
-        <v>15.48255726849379</v>
+        <v>28.98518423397994</v>
       </c>
       <c r="Q29" t="n">
-        <v>11.62675572172049</v>
+        <v>21.76666624210291</v>
       </c>
       <c r="R29" t="n">
-        <v>6.763197037696289</v>
+        <v>12.6615073174798</v>
       </c>
       <c r="S29" t="n">
-        <v>2.453447197126606</v>
+        <v>4.593144258007618</v>
       </c>
       <c r="T29" t="n">
-        <v>0.4713094944781883</v>
+        <v>0.8823472952025601</v>
       </c>
       <c r="U29" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.01612513617731691</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.1078463559311945</v>
       </c>
       <c r="H30" t="n">
-        <v>0.55635830162105</v>
+        <v>1.041568753335484</v>
       </c>
       <c r="I30" t="n">
-        <v>1.983384499421091</v>
+        <v>3.713131114297705</v>
       </c>
       <c r="J30" t="n">
-        <v>5.442558662678946</v>
+        <v>10.18911558383272</v>
       </c>
       <c r="K30" t="n">
-        <v>9.30219963250781</v>
+        <v>17.41482143122275</v>
       </c>
       <c r="L30" t="n">
-        <v>12.50795536864218</v>
+        <v>23.41637653672712</v>
       </c>
       <c r="M30" t="n">
-        <v>14.59619395306451</v>
+        <v>27.32580693923292</v>
       </c>
       <c r="N30" t="n">
-        <v>14.9825117746715</v>
+        <v>28.04903973843817</v>
       </c>
       <c r="O30" t="n">
-        <v>13.70607120255999</v>
+        <v>25.65939153596275</v>
       </c>
       <c r="P30" t="n">
-        <v>11.00033048863637</v>
+        <v>20.59392387952783</v>
       </c>
       <c r="Q30" t="n">
-        <v>7.353429614159419</v>
+        <v>13.76649273255037</v>
       </c>
       <c r="R30" t="n">
-        <v>3.576661270548404</v>
+        <v>6.695934274394691</v>
       </c>
       <c r="S30" t="n">
-        <v>1.070016987904244</v>
+        <v>2.003198760388633</v>
       </c>
       <c r="T30" t="n">
-        <v>0.2321949496774499</v>
+        <v>0.4346964960559986</v>
       </c>
       <c r="U30" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.007095154995473324</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.09041476201881848</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4293902146517402</v>
+        <v>0.8038694295854959</v>
       </c>
       <c r="I31" t="n">
-        <v>1.452375081869075</v>
+        <v>2.71901847962047</v>
       </c>
       <c r="J31" t="n">
-        <v>3.414486400149878</v>
+        <v>6.392323674730466</v>
       </c>
       <c r="K31" t="n">
-        <v>5.611050044222121</v>
+        <v>10.50455144182273</v>
       </c>
       <c r="L31" t="n">
-        <v>7.180212239687683</v>
+        <v>13.44220925505234</v>
       </c>
       <c r="M31" t="n">
-        <v>7.570527066707514</v>
+        <v>14.17292492264079</v>
       </c>
       <c r="N31" t="n">
-        <v>7.390516854021208</v>
+        <v>13.83592444602521</v>
       </c>
       <c r="O31" t="n">
-        <v>6.826338504504349</v>
+        <v>12.779715635169</v>
       </c>
       <c r="P31" t="n">
-        <v>5.841111877021211</v>
+        <v>10.9352544899851</v>
       </c>
       <c r="Q31" t="n">
-        <v>4.044083095252736</v>
+        <v>7.571003390503065</v>
       </c>
       <c r="R31" t="n">
-        <v>2.171537834015854</v>
+        <v>4.065376481318874</v>
       </c>
       <c r="S31" t="n">
-        <v>0.841657506633318</v>
+        <v>1.575682716273409</v>
       </c>
       <c r="T31" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.3863176195349516</v>
       </c>
       <c r="U31" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.004931714291935559</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.2015642022164614</v>
       </c>
       <c r="H32" t="n">
-        <v>1.102638117721244</v>
+        <v>2.064269385949336</v>
       </c>
       <c r="I32" t="n">
-        <v>4.150807375412989</v>
+        <v>7.770803905950134</v>
       </c>
       <c r="J32" t="n">
-        <v>9.138047791426191</v>
+        <v>17.1075097078694</v>
       </c>
       <c r="K32" t="n">
-        <v>13.69556484482692</v>
+        <v>25.63972238769222</v>
       </c>
       <c r="L32" t="n">
-        <v>16.99055923469257</v>
+        <v>31.80834284127425</v>
       </c>
       <c r="M32" t="n">
-        <v>18.90527087887908</v>
+        <v>35.39291022244124</v>
       </c>
       <c r="N32" t="n">
-        <v>19.21117792655154</v>
+        <v>35.96560451198877</v>
       </c>
       <c r="O32" t="n">
-        <v>18.14057055117347</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P32" t="n">
-        <v>15.48255726849379</v>
+        <v>28.98518423397994</v>
       </c>
       <c r="Q32" t="n">
-        <v>11.62675572172049</v>
+        <v>21.76666624210291</v>
       </c>
       <c r="R32" t="n">
-        <v>6.763197037696289</v>
+        <v>12.6615073174798</v>
       </c>
       <c r="S32" t="n">
-        <v>2.453447197126606</v>
+        <v>4.593144258007618</v>
       </c>
       <c r="T32" t="n">
-        <v>0.4713094944781883</v>
+        <v>0.8823472952025601</v>
       </c>
       <c r="U32" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.01612513617731691</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.1078463559311945</v>
       </c>
       <c r="H33" t="n">
-        <v>0.55635830162105</v>
+        <v>1.041568753335484</v>
       </c>
       <c r="I33" t="n">
-        <v>1.983384499421091</v>
+        <v>3.713131114297705</v>
       </c>
       <c r="J33" t="n">
-        <v>5.442558662678946</v>
+        <v>10.18911558383272</v>
       </c>
       <c r="K33" t="n">
-        <v>9.30219963250781</v>
+        <v>17.41482143122275</v>
       </c>
       <c r="L33" t="n">
-        <v>12.50795536864218</v>
+        <v>23.41637653672712</v>
       </c>
       <c r="M33" t="n">
-        <v>14.59619395306451</v>
+        <v>27.32580693923292</v>
       </c>
       <c r="N33" t="n">
-        <v>14.9825117746715</v>
+        <v>28.04903973843817</v>
       </c>
       <c r="O33" t="n">
-        <v>13.70607120255999</v>
+        <v>25.65939153596275</v>
       </c>
       <c r="P33" t="n">
-        <v>11.00033048863637</v>
+        <v>20.59392387952783</v>
       </c>
       <c r="Q33" t="n">
-        <v>7.353429614159419</v>
+        <v>13.76649273255037</v>
       </c>
       <c r="R33" t="n">
-        <v>3.576661270548404</v>
+        <v>6.695934274394691</v>
       </c>
       <c r="S33" t="n">
-        <v>1.070016987904244</v>
+        <v>2.003198760388633</v>
       </c>
       <c r="T33" t="n">
-        <v>0.2321949496774499</v>
+        <v>0.4346964960559986</v>
       </c>
       <c r="U33" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.007095154995473324</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.09041476201881848</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4293902146517402</v>
+        <v>0.8038694295854959</v>
       </c>
       <c r="I34" t="n">
-        <v>1.452375081869075</v>
+        <v>2.71901847962047</v>
       </c>
       <c r="J34" t="n">
-        <v>3.414486400149878</v>
+        <v>6.392323674730466</v>
       </c>
       <c r="K34" t="n">
-        <v>5.611050044222121</v>
+        <v>10.50455144182273</v>
       </c>
       <c r="L34" t="n">
-        <v>7.180212239687683</v>
+        <v>13.44220925505234</v>
       </c>
       <c r="M34" t="n">
-        <v>7.570527066707514</v>
+        <v>14.17292492264079</v>
       </c>
       <c r="N34" t="n">
-        <v>7.390516854021208</v>
+        <v>13.83592444602521</v>
       </c>
       <c r="O34" t="n">
-        <v>6.826338504504349</v>
+        <v>12.779715635169</v>
       </c>
       <c r="P34" t="n">
-        <v>5.841111877021211</v>
+        <v>10.9352544899851</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.044083095252736</v>
+        <v>7.571003390503065</v>
       </c>
       <c r="R34" t="n">
-        <v>2.171537834015854</v>
+        <v>4.065376481318874</v>
       </c>
       <c r="S34" t="n">
-        <v>0.841657506633318</v>
+        <v>1.575682716273409</v>
       </c>
       <c r="T34" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.3863176195349516</v>
       </c>
       <c r="U34" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.004931714291935559</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.2015642022164614</v>
       </c>
       <c r="H35" t="n">
-        <v>1.102638117721244</v>
+        <v>2.064269385949336</v>
       </c>
       <c r="I35" t="n">
-        <v>4.150807375412989</v>
+        <v>7.770803905950134</v>
       </c>
       <c r="J35" t="n">
-        <v>9.138047791426191</v>
+        <v>17.1075097078694</v>
       </c>
       <c r="K35" t="n">
-        <v>13.69556484482692</v>
+        <v>25.63972238769222</v>
       </c>
       <c r="L35" t="n">
-        <v>16.99055923469257</v>
+        <v>31.80834284127425</v>
       </c>
       <c r="M35" t="n">
-        <v>18.90527087887908</v>
+        <v>35.39291022244124</v>
       </c>
       <c r="N35" t="n">
-        <v>19.21117792655154</v>
+        <v>35.96560451198877</v>
       </c>
       <c r="O35" t="n">
-        <v>18.14057055117347</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P35" t="n">
-        <v>15.48255726849379</v>
+        <v>28.98518423397994</v>
       </c>
       <c r="Q35" t="n">
-        <v>11.62675572172049</v>
+        <v>21.76666624210291</v>
       </c>
       <c r="R35" t="n">
-        <v>6.763197037696289</v>
+        <v>12.6615073174798</v>
       </c>
       <c r="S35" t="n">
-        <v>2.453447197126606</v>
+        <v>4.593144258007618</v>
       </c>
       <c r="T35" t="n">
-        <v>0.4713094944781883</v>
+        <v>0.8823472952025601</v>
       </c>
       <c r="U35" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.01612513617731691</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.1078463559311945</v>
       </c>
       <c r="H36" t="n">
-        <v>0.55635830162105</v>
+        <v>1.041568753335484</v>
       </c>
       <c r="I36" t="n">
-        <v>1.983384499421091</v>
+        <v>3.713131114297705</v>
       </c>
       <c r="J36" t="n">
-        <v>5.442558662678946</v>
+        <v>10.18911558383272</v>
       </c>
       <c r="K36" t="n">
-        <v>9.30219963250781</v>
+        <v>17.41482143122275</v>
       </c>
       <c r="L36" t="n">
-        <v>12.50795536864218</v>
+        <v>23.41637653672712</v>
       </c>
       <c r="M36" t="n">
-        <v>14.59619395306451</v>
+        <v>27.32580693923292</v>
       </c>
       <c r="N36" t="n">
-        <v>14.9825117746715</v>
+        <v>28.04903973843817</v>
       </c>
       <c r="O36" t="n">
-        <v>13.70607120255999</v>
+        <v>25.65939153596275</v>
       </c>
       <c r="P36" t="n">
-        <v>11.00033048863637</v>
+        <v>20.59392387952783</v>
       </c>
       <c r="Q36" t="n">
-        <v>7.353429614159419</v>
+        <v>13.76649273255037</v>
       </c>
       <c r="R36" t="n">
-        <v>3.576661270548404</v>
+        <v>6.695934274394691</v>
       </c>
       <c r="S36" t="n">
-        <v>1.070016987904244</v>
+        <v>2.003198760388633</v>
       </c>
       <c r="T36" t="n">
-        <v>0.2321949496774499</v>
+        <v>0.4346964960559986</v>
       </c>
       <c r="U36" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.007095154995473324</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.09041476201881848</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4293902146517402</v>
+        <v>0.8038694295854959</v>
       </c>
       <c r="I37" t="n">
-        <v>1.452375081869075</v>
+        <v>2.71901847962047</v>
       </c>
       <c r="J37" t="n">
-        <v>3.414486400149878</v>
+        <v>6.392323674730466</v>
       </c>
       <c r="K37" t="n">
-        <v>5.611050044222121</v>
+        <v>10.50455144182273</v>
       </c>
       <c r="L37" t="n">
-        <v>7.180212239687683</v>
+        <v>13.44220925505234</v>
       </c>
       <c r="M37" t="n">
-        <v>7.570527066707514</v>
+        <v>14.17292492264079</v>
       </c>
       <c r="N37" t="n">
-        <v>7.390516854021208</v>
+        <v>13.83592444602521</v>
       </c>
       <c r="O37" t="n">
-        <v>6.826338504504349</v>
+        <v>12.779715635169</v>
       </c>
       <c r="P37" t="n">
-        <v>5.841111877021211</v>
+        <v>10.9352544899851</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.044083095252736</v>
+        <v>7.571003390503065</v>
       </c>
       <c r="R37" t="n">
-        <v>2.171537834015854</v>
+        <v>4.065376481318874</v>
       </c>
       <c r="S37" t="n">
-        <v>0.841657506633318</v>
+        <v>1.575682716273409</v>
       </c>
       <c r="T37" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.3863176195349516</v>
       </c>
       <c r="U37" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.004931714291935559</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.2015642022164614</v>
       </c>
       <c r="H38" t="n">
-        <v>1.102638117721244</v>
+        <v>2.064269385949336</v>
       </c>
       <c r="I38" t="n">
-        <v>4.150807375412989</v>
+        <v>7.770803905950134</v>
       </c>
       <c r="J38" t="n">
-        <v>9.138047791426191</v>
+        <v>17.1075097078694</v>
       </c>
       <c r="K38" t="n">
-        <v>13.69556484482692</v>
+        <v>25.63972238769222</v>
       </c>
       <c r="L38" t="n">
-        <v>16.99055923469257</v>
+        <v>31.80834284127425</v>
       </c>
       <c r="M38" t="n">
-        <v>18.90527087887908</v>
+        <v>35.39291022244124</v>
       </c>
       <c r="N38" t="n">
-        <v>19.21117792655154</v>
+        <v>35.96560451198877</v>
       </c>
       <c r="O38" t="n">
-        <v>18.14057055117347</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P38" t="n">
-        <v>15.48255726849379</v>
+        <v>28.98518423397994</v>
       </c>
       <c r="Q38" t="n">
-        <v>11.62675572172049</v>
+        <v>21.76666624210291</v>
       </c>
       <c r="R38" t="n">
-        <v>6.763197037696289</v>
+        <v>12.6615073174798</v>
       </c>
       <c r="S38" t="n">
-        <v>2.453447197126606</v>
+        <v>4.593144258007618</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4713094944781883</v>
+        <v>0.8823472952025601</v>
       </c>
       <c r="U38" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.01612513617731691</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.1078463559311945</v>
       </c>
       <c r="H39" t="n">
-        <v>0.55635830162105</v>
+        <v>1.041568753335484</v>
       </c>
       <c r="I39" t="n">
-        <v>1.983384499421091</v>
+        <v>3.713131114297705</v>
       </c>
       <c r="J39" t="n">
-        <v>5.442558662678946</v>
+        <v>10.18911558383272</v>
       </c>
       <c r="K39" t="n">
-        <v>9.30219963250781</v>
+        <v>17.41482143122275</v>
       </c>
       <c r="L39" t="n">
-        <v>12.50795536864218</v>
+        <v>23.41637653672712</v>
       </c>
       <c r="M39" t="n">
-        <v>14.59619395306451</v>
+        <v>27.32580693923292</v>
       </c>
       <c r="N39" t="n">
-        <v>14.9825117746715</v>
+        <v>28.04903973843817</v>
       </c>
       <c r="O39" t="n">
-        <v>13.70607120255999</v>
+        <v>25.65939153596275</v>
       </c>
       <c r="P39" t="n">
-        <v>11.00033048863637</v>
+        <v>20.59392387952783</v>
       </c>
       <c r="Q39" t="n">
-        <v>7.353429614159419</v>
+        <v>13.76649273255037</v>
       </c>
       <c r="R39" t="n">
-        <v>3.576661270548404</v>
+        <v>6.695934274394691</v>
       </c>
       <c r="S39" t="n">
-        <v>1.070016987904244</v>
+        <v>2.003198760388633</v>
       </c>
       <c r="T39" t="n">
-        <v>0.2321949496774499</v>
+        <v>0.4346964960559986</v>
       </c>
       <c r="U39" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.007095154995473324</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.09041476201881848</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4293902146517402</v>
+        <v>0.8038694295854959</v>
       </c>
       <c r="I40" t="n">
-        <v>1.452375081869075</v>
+        <v>2.71901847962047</v>
       </c>
       <c r="J40" t="n">
-        <v>3.414486400149878</v>
+        <v>6.392323674730466</v>
       </c>
       <c r="K40" t="n">
-        <v>5.611050044222121</v>
+        <v>10.50455144182273</v>
       </c>
       <c r="L40" t="n">
-        <v>7.180212239687683</v>
+        <v>13.44220925505234</v>
       </c>
       <c r="M40" t="n">
-        <v>7.570527066707514</v>
+        <v>14.17292492264079</v>
       </c>
       <c r="N40" t="n">
-        <v>7.390516854021208</v>
+        <v>13.83592444602521</v>
       </c>
       <c r="O40" t="n">
-        <v>6.826338504504349</v>
+        <v>12.779715635169</v>
       </c>
       <c r="P40" t="n">
-        <v>5.841111877021211</v>
+        <v>10.9352544899851</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.044083095252736</v>
+        <v>7.571003390503065</v>
       </c>
       <c r="R40" t="n">
-        <v>2.171537834015854</v>
+        <v>4.065376481318874</v>
       </c>
       <c r="S40" t="n">
-        <v>0.841657506633318</v>
+        <v>1.575682716273409</v>
       </c>
       <c r="T40" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.3863176195349516</v>
       </c>
       <c r="U40" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.004931714291935559</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.2015642022164614</v>
       </c>
       <c r="H41" t="n">
-        <v>1.102638117721244</v>
+        <v>2.064269385949336</v>
       </c>
       <c r="I41" t="n">
-        <v>4.150807375412989</v>
+        <v>7.770803905950134</v>
       </c>
       <c r="J41" t="n">
-        <v>9.138047791426191</v>
+        <v>17.1075097078694</v>
       </c>
       <c r="K41" t="n">
-        <v>13.69556484482692</v>
+        <v>25.63972238769222</v>
       </c>
       <c r="L41" t="n">
-        <v>16.99055923469257</v>
+        <v>31.80834284127425</v>
       </c>
       <c r="M41" t="n">
-        <v>18.90527087887908</v>
+        <v>35.39291022244124</v>
       </c>
       <c r="N41" t="n">
-        <v>19.21117792655154</v>
+        <v>35.96560451198877</v>
       </c>
       <c r="O41" t="n">
-        <v>18.14057055117347</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P41" t="n">
-        <v>15.48255726849379</v>
+        <v>28.98518423397994</v>
       </c>
       <c r="Q41" t="n">
-        <v>11.62675572172049</v>
+        <v>21.76666624210291</v>
       </c>
       <c r="R41" t="n">
-        <v>6.763197037696289</v>
+        <v>12.6615073174798</v>
       </c>
       <c r="S41" t="n">
-        <v>2.453447197126606</v>
+        <v>4.593144258007618</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4713094944781883</v>
+        <v>0.8823472952025601</v>
       </c>
       <c r="U41" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.01612513617731691</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.1078463559311945</v>
       </c>
       <c r="H42" t="n">
-        <v>0.55635830162105</v>
+        <v>1.041568753335484</v>
       </c>
       <c r="I42" t="n">
-        <v>1.983384499421091</v>
+        <v>3.713131114297705</v>
       </c>
       <c r="J42" t="n">
-        <v>5.442558662678946</v>
+        <v>10.18911558383272</v>
       </c>
       <c r="K42" t="n">
-        <v>9.30219963250781</v>
+        <v>17.41482143122275</v>
       </c>
       <c r="L42" t="n">
-        <v>12.50795536864218</v>
+        <v>23.41637653672712</v>
       </c>
       <c r="M42" t="n">
-        <v>14.59619395306451</v>
+        <v>27.32580693923292</v>
       </c>
       <c r="N42" t="n">
-        <v>14.9825117746715</v>
+        <v>28.04903973843817</v>
       </c>
       <c r="O42" t="n">
-        <v>13.70607120255999</v>
+        <v>25.65939153596275</v>
       </c>
       <c r="P42" t="n">
-        <v>11.00033048863637</v>
+        <v>20.59392387952783</v>
       </c>
       <c r="Q42" t="n">
-        <v>7.353429614159419</v>
+        <v>13.76649273255037</v>
       </c>
       <c r="R42" t="n">
-        <v>3.576661270548404</v>
+        <v>6.695934274394691</v>
       </c>
       <c r="S42" t="n">
-        <v>1.070016987904244</v>
+        <v>2.003198760388633</v>
       </c>
       <c r="T42" t="n">
-        <v>0.2321949496774499</v>
+        <v>0.4346964960559986</v>
       </c>
       <c r="U42" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.007095154995473324</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.09041476201881848</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4293902146517402</v>
+        <v>0.8038694295854959</v>
       </c>
       <c r="I43" t="n">
-        <v>1.452375081869075</v>
+        <v>2.71901847962047</v>
       </c>
       <c r="J43" t="n">
-        <v>3.414486400149878</v>
+        <v>6.392323674730466</v>
       </c>
       <c r="K43" t="n">
-        <v>5.611050044222121</v>
+        <v>10.50455144182273</v>
       </c>
       <c r="L43" t="n">
-        <v>7.180212239687683</v>
+        <v>13.44220925505234</v>
       </c>
       <c r="M43" t="n">
-        <v>7.570527066707514</v>
+        <v>14.17292492264079</v>
       </c>
       <c r="N43" t="n">
-        <v>7.390516854021208</v>
+        <v>13.83592444602521</v>
       </c>
       <c r="O43" t="n">
-        <v>6.826338504504349</v>
+        <v>12.779715635169</v>
       </c>
       <c r="P43" t="n">
-        <v>5.841111877021211</v>
+        <v>10.9352544899851</v>
       </c>
       <c r="Q43" t="n">
-        <v>4.044083095252736</v>
+        <v>7.571003390503065</v>
       </c>
       <c r="R43" t="n">
-        <v>2.171537834015854</v>
+        <v>4.065376481318874</v>
       </c>
       <c r="S43" t="n">
-        <v>0.841657506633318</v>
+        <v>1.575682716273409</v>
       </c>
       <c r="T43" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.3863176195349516</v>
       </c>
       <c r="U43" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.004931714291935559</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1076663608174045</v>
+        <v>0.459604303558358</v>
       </c>
       <c r="H44" t="n">
-        <v>1.102638117721244</v>
+        <v>4.706922573817035</v>
       </c>
       <c r="I44" t="n">
-        <v>4.150807375412989</v>
+        <v>17.71889491293361</v>
       </c>
       <c r="J44" t="n">
-        <v>9.138047791426191</v>
+        <v>39.00834075913622</v>
       </c>
       <c r="K44" t="n">
-        <v>13.69556484482692</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L44" t="n">
-        <v>16.99055923469257</v>
+        <v>72.52900613378564</v>
       </c>
       <c r="M44" t="n">
-        <v>18.90527087887908</v>
+        <v>80.70249416719157</v>
       </c>
       <c r="N44" t="n">
-        <v>19.21117792655154</v>
+        <v>82.00834489467677</v>
       </c>
       <c r="O44" t="n">
-        <v>18.14057055117347</v>
+        <v>77.43815460116835</v>
       </c>
       <c r="P44" t="n">
-        <v>15.48255726849379</v>
+        <v>66.09167335707137</v>
       </c>
       <c r="Q44" t="n">
-        <v>11.62675572172049</v>
+        <v>49.63209423588766</v>
       </c>
       <c r="R44" t="n">
-        <v>6.763197037696289</v>
+        <v>28.87061883339773</v>
       </c>
       <c r="S44" t="n">
-        <v>2.453447197126606</v>
+        <v>10.47323306733609</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4713094944781883</v>
+        <v>2.011917838826713</v>
       </c>
       <c r="U44" t="n">
-        <v>0.008613308865392355</v>
+        <v>0.03676834428466863</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05760658163923678</v>
+        <v>0.2459099818520028</v>
       </c>
       <c r="H45" t="n">
-        <v>0.55635830162105</v>
+        <v>2.374972719465396</v>
       </c>
       <c r="I45" t="n">
-        <v>1.983384499421091</v>
+        <v>8.466637533062377</v>
       </c>
       <c r="J45" t="n">
-        <v>5.442558662678946</v>
+        <v>23.23310052225435</v>
       </c>
       <c r="K45" t="n">
-        <v>9.30219963250781</v>
+        <v>39.70906930633854</v>
       </c>
       <c r="L45" t="n">
-        <v>12.50795536864218</v>
+        <v>53.3937440858921</v>
       </c>
       <c r="M45" t="n">
-        <v>14.59619395306451</v>
+        <v>62.30798092802719</v>
       </c>
       <c r="N45" t="n">
-        <v>14.9825117746715</v>
+        <v>63.95708778000839</v>
       </c>
       <c r="O45" t="n">
-        <v>13.70607120255999</v>
+        <v>58.50824028739296</v>
       </c>
       <c r="P45" t="n">
-        <v>11.00033048863637</v>
+        <v>46.9580210082127</v>
       </c>
       <c r="Q45" t="n">
-        <v>7.353429614159419</v>
+        <v>31.39019347289776</v>
       </c>
       <c r="R45" t="n">
-        <v>3.576661270548404</v>
+        <v>15.26798992586383</v>
       </c>
       <c r="S45" t="n">
-        <v>1.070016987904244</v>
+        <v>4.56767005764575</v>
       </c>
       <c r="T45" t="n">
-        <v>0.2321949496774499</v>
+        <v>0.9911897952718879</v>
       </c>
       <c r="U45" t="n">
-        <v>0.003789906686791895</v>
+        <v>0.01617828827973703</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04829542291583986</v>
+        <v>0.2061626681330423</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4293902146517402</v>
+        <v>1.832973540310141</v>
       </c>
       <c r="I46" t="n">
-        <v>1.452375081869075</v>
+        <v>6.199873692582764</v>
       </c>
       <c r="J46" t="n">
-        <v>3.414486400149878</v>
+        <v>14.57570063700609</v>
       </c>
       <c r="K46" t="n">
-        <v>5.611050044222121</v>
+        <v>23.95235362491163</v>
       </c>
       <c r="L46" t="n">
-        <v>7.180212239687683</v>
+        <v>30.65076613316158</v>
       </c>
       <c r="M46" t="n">
-        <v>7.570527066707514</v>
+        <v>32.31693533289134</v>
       </c>
       <c r="N46" t="n">
-        <v>7.390516854021208</v>
+        <v>31.5485108425773</v>
       </c>
       <c r="O46" t="n">
-        <v>6.826338504504349</v>
+        <v>29.14015603756857</v>
       </c>
       <c r="P46" t="n">
-        <v>5.841111877021211</v>
+        <v>24.93443760765448</v>
       </c>
       <c r="Q46" t="n">
-        <v>4.044083095252736</v>
+        <v>17.26331214703139</v>
       </c>
       <c r="R46" t="n">
-        <v>2.171537834015854</v>
+        <v>9.269823241691153</v>
       </c>
       <c r="S46" t="n">
-        <v>0.841657506633318</v>
+        <v>3.592853043736745</v>
       </c>
       <c r="T46" t="n">
-        <v>0.2063531706404066</v>
+        <v>0.8808768547502713</v>
       </c>
       <c r="U46" t="n">
-        <v>0.00263429579540945</v>
+        <v>0.0112452364436205</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_3_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_3_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>309389.8669763129</v>
+        <v>172850.8448213099</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1241453.964023875</v>
+        <v>1130590.260045148</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24630881.73804684</v>
+        <v>23506358.87669907</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3958704.426405036</v>
+        <v>4412743.472511587</v>
       </c>
     </row>
     <row r="11">
@@ -1885,13 +1885,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>7.487018569236739</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>45.30745850917874</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>45.30745850917874</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>45.30745850917874</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>32.41979088564786</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.30745850917874</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>39.9068094548846</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1985,13 +1985,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>45.30745850917874</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>45.30745850917874</v>
       </c>
     </row>
     <row r="19">
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>39.90680945488462</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>45.30745850917873</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>45.30745850917873</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>45.30745850917873</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>45.30745850917873</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2204,13 +2204,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>3.257488459218298</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>45.30745850917873</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>45.30745850917873</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>36.64932099566629</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>52.85181331539131</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>60.00432937714729</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>60.00432937714729</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>60.00432937714729</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>60.00432937714729</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>47.39081947044386</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>60.00432937714729</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>60.00432937714729</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>5.460993844947449</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2560,13 +2560,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>52.85181331539134</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2645,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>52.85181331539134</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
     </row>
     <row r="28">
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>52.85181331539133</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2879,13 +2879,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2933,10 +2933,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>52.85181331539134</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>52.22339736665036</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>0.6284159487409511</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>5.46099384494747</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>47.39081947044386</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3173,10 +3173,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
     </row>
     <row r="34">
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>52.85181331539133</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3347,10 +3347,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>52.85181331539134</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>52.85181331539134</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3587,13 +3587,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>52.85181331539134</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
     </row>
     <row r="40">
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3781,16 +3781,16 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>0.6284159487409511</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>52.22339736665037</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3875,16 +3875,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>52.85181331539133</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>52.22339736665037</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -4018,13 +4018,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>0.6284159487409511</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>60.00432937714729</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>60.00432937714729</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>60.00432937714729</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4067,19 +4067,19 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>60.00432937714729</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>60.00432937714729</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>60.00432937714729</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>47.39081947044386</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>5.460993844947462</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>3.624596680734301</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>48.47898060482125</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>93.33336452890819</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>138.1877484529952</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>181.2298340367149</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>173.6671890172839</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>127.9020794120528</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>82.13696980682178</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.13696980682178</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>82.13696980682178</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>82.13696980682178</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>36.37186020159073</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>36.37186020159073</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>46.11142414908811</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>46.11142414908811</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>46.66668226445412</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>91.52106618854107</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>136.375450112628</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>181.2298340367149</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>181.2298340367149</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>135.4647244314839</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>135.4647244314839</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>95.15481589119641</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>95.15481589119641</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>95.15481589119641</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>49.38970628596535</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>49.38970628596535</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>43.93450522102179</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>43.93450522102179</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>43.93450522102179</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>43.93450522102179</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>3.624596680734285</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>48.47898060482122</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>93.33336452890813</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>138.1877484529951</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>181.2298340367149</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>181.2298340367149</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>181.2298340367149</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>135.4647244314839</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>135.4647244314839</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>89.69961482625284</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>43.93450522102179</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>43.93450522102179</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>43.93450522102179</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>43.93450522102179</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>43.93450522102179</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>49.38970628596535</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>49.38970628596535</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>49.38970628596535</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>49.38970628596535</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>49.38970628596535</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>49.38970628596535</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>49.38970628596535</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>46.11142414908812</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>90.96580807317505</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>135.820191997262</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>180.6745759213489</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>181.2298340367149</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>181.2298340367149</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>177.9394416536661</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>132.1743320484351</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>86.40922244320403</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>86.40922244320403</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>86.40922244320403</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>86.40922244320403</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>86.40922244320403</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>49.38970628596535</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>49.38970628596535</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>3.624596680734299</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>58.18601636571857</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>58.18601636571857</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>58.18601636571857</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>58.18601636571857</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>10.80666113085706</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>70.21094721423287</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>129.6152332976087</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>189.0195193809845</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>240.0173175085891</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>240.0173175085891</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>240.0173175085891</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>240.0173175085891</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>240.0173175085891</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>179.4068837942989</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>179.4068837942989</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>118.7964500800088</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>118.7964500800088</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>58.18601636571857</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>58.18601636571857</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>113.2802946810719</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>113.2802946810719</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>113.2802946810719</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>113.2802946810719</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>52.66986096678175</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>52.66986096678175</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>52.66986096678175</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>52.66986096678175</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>51.36673824530577</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>110.7710243286816</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>121.2087453418375</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>121.2087453418375</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>180.6130314252133</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>240.0173175085891</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>240.0173175085891</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>179.4068837942989</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>118.7964500800088</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>118.7964500800088</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>113.2802946810719</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>113.2802946810719</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>113.2802946810719</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>113.2802946810719</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>113.2802946810719</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>65.41078006446199</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>65.41078006446199</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>10.80666113085707</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>70.2109472142329</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>129.6152332976087</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>189.0195193809846</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>118.7964500800088</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>118.7964500800088</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>118.7964500800088</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>118.7964500800088</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>65.41078006446199</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>64.20463243354762</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>123.6089185169234</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>183.0132046002993</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>118.7964500800088</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>10.80666113085707</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>70.2109472142329</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>129.6152332976087</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>189.0195193809846</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>118.7964500800088</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>58.18601636571859</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>65.41078006446199</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>65.41078006446199</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>51.36673824530577</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>51.36673824530577</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>110.7710243286816</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>170.1753104120574</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>180.6130314252134</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>178.7721202097122</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>178.7721202097122</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>118.161686495422</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>57.55125278113175</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>57.55125278113175</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>10.80666113085707</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>70.2109472142329</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>129.6152332976087</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>189.0195193809846</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>118.7964500800088</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>58.18601636571859</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>58.18601636571859</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>58.18601636571859</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>52.66986096678175</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>52.66986096678175</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>52.66986096678175</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>52.66986096678175</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>51.36673824530577</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>110.7710243286816</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>121.2087453418375</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>121.2087453418375</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>180.6130314252134</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>118.7964500800088</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>58.18601636571859</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>58.18601636571859</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>10.80666113085707</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>70.2109472142329</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>129.6152332976087</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>189.0195193809846</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>118.7964500800088</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>58.18601636571859</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>58.18601636571859</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>58.18601636571859</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>58.18601636571859</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>118.7964500800088</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>65.41078006446199</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>51.36673824530577</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>110.7710243286816</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>170.1753104120574</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>229.5795964954333</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>118.7964500800088</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>118.7964500800088</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>118.7964500800088</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>65.41078006446199</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>65.41078006446199</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>65.41078006446199</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>10.80666113085707</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>70.2109472142329</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>129.6152332976087</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>189.0195193809846</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>118.7964500800088</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>118.7964500800088</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>118.7964500800088</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>65.41078006446199</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>65.41078006446199</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>118.7964500800088</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>118.7964500800088</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>65.41078006446199</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>65.41078006446199</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>51.36673824530577</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>110.7710243286816</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>170.1753104120574</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>229.5795964954333</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>179.406883794299</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>118.7964500800088</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>65.41078006446199</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>10.80666113085707</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>70.2109472142329</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>129.6152332976087</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>189.0195193809846</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>239.3825539240024</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>178.7721202097122</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>64.20463243354762</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>123.6089185169234</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>180.6130314252134</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>240.0173175085892</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>186.6316474930424</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>126.0212137787522</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>65.41078006446199</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>65.41078006446199</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>4.800346350171784</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>10.80666113085706</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>70.21094721423287</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>129.6152332976087</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>189.0195193809845</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>240.0173175085891</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>239.3825539240023</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>178.7721202097121</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.1616864954219</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>118.1616864954219</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>118.1616864954219</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>118.1616864954219</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>57.55125278113176</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>57.55125278113176</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>57.55125278113176</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>57.55125278113176</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>234.5011621096523</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>234.5011621096523</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>234.5011621096523</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>234.5011621096523</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>173.8907283953621</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>113.2802946810719</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>113.2802946810719</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>52.66986096678175</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>64.2046324335476</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>123.6089185169234</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>183.0132046002992</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>240.0173175085891</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>240.0173175085891</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>240.0173175085891</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>240.0173175085891</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>240.0173175085891</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>240.0173175085891</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>234.5011621096523</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>234.5011621096523</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>234.5011621096523</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>234.5011621096523</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>4.800346350171783</v>
       </c>
     </row>
   </sheetData>
@@ -9169,13 +9169,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L17" t="n">
-        <v>255.8266834221102</v>
+        <v>260.4134786387775</v>
       </c>
       <c r="M17" t="n">
-        <v>245.6294943148315</v>
+        <v>245.6273688792599</v>
       </c>
       <c r="N17" t="n">
-        <v>243.9183330758522</v>
+        <v>243.1830512023429</v>
       </c>
       <c r="O17" t="n">
         <v>246.758517458259</v>
@@ -9245,22 +9245,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>150.7517341174952</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
-        <v>145.6199667947194</v>
+        <v>115.6425992455544</v>
       </c>
       <c r="M18" t="n">
-        <v>146.0777144456295</v>
+        <v>111.6564072400332</v>
       </c>
       <c r="N18" t="n">
-        <v>132.1878490032285</v>
+        <v>141.587259470837</v>
       </c>
       <c r="O18" t="n">
-        <v>148.3080266862594</v>
+        <v>160.766636444008</v>
       </c>
       <c r="P18" t="n">
-        <v>142.8548531659551</v>
+        <v>161.7982145464489</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9406,13 +9406,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L20" t="n">
-        <v>255.8266834221102</v>
+        <v>260.4134786387775</v>
       </c>
       <c r="M20" t="n">
-        <v>245.6294943148315</v>
+        <v>245.6273688792599</v>
       </c>
       <c r="N20" t="n">
-        <v>243.9183330758522</v>
+        <v>243.1830512023429</v>
       </c>
       <c r="O20" t="n">
         <v>246.758517458259</v>
@@ -9482,22 +9482,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>150.7517341174952</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>145.6199667947194</v>
+        <v>160.9500577547332</v>
       </c>
       <c r="M21" t="n">
-        <v>146.0777144456295</v>
+        <v>156.4029989660139</v>
       </c>
       <c r="N21" t="n">
-        <v>132.1878490032285</v>
+        <v>141.587259470837</v>
       </c>
       <c r="O21" t="n">
-        <v>148.3080266862594</v>
+        <v>116.0200447180272</v>
       </c>
       <c r="P21" t="n">
-        <v>142.8548531659551</v>
+        <v>116.4907560372702</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9643,13 +9643,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L23" t="n">
-        <v>255.8266834221102</v>
+        <v>267.5837185975302</v>
       </c>
       <c r="M23" t="n">
-        <v>245.6294943148315</v>
+        <v>251.9494126342087</v>
       </c>
       <c r="N23" t="n">
-        <v>243.9183330758522</v>
+        <v>249.3695814989909</v>
       </c>
       <c r="O23" t="n">
         <v>246.758517458259</v>
@@ -9719,22 +9719,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>150.7517341174952</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>145.6199667947194</v>
+        <v>170.1060419344938</v>
       </c>
       <c r="M24" t="n">
-        <v>146.0777144456295</v>
+        <v>115.172739576979</v>
       </c>
       <c r="N24" t="n">
-        <v>132.1878490032285</v>
+        <v>89.64271299632065</v>
       </c>
       <c r="O24" t="n">
-        <v>148.3080266862594</v>
+        <v>169.391868484076</v>
       </c>
       <c r="P24" t="n">
-        <v>142.8548531659551</v>
+        <v>171.6220599698928</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -9880,13 +9880,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L26" t="n">
-        <v>255.8266834221102</v>
+        <v>267.5837185975302</v>
       </c>
       <c r="M26" t="n">
-        <v>245.6294943148315</v>
+        <v>251.9494126342087</v>
       </c>
       <c r="N26" t="n">
-        <v>243.9183330758522</v>
+        <v>249.3695814989909</v>
       </c>
       <c r="O26" t="n">
         <v>246.758517458259</v>
@@ -9956,22 +9956,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>150.7517341174952</v>
+        <v>124.3367140941166</v>
       </c>
       <c r="L27" t="n">
-        <v>145.6199667947194</v>
+        <v>110.1017125573465</v>
       </c>
       <c r="M27" t="n">
-        <v>146.0777144456295</v>
+        <v>164.633916415585</v>
       </c>
       <c r="N27" t="n">
-        <v>132.1878490032285</v>
+        <v>149.647042373468</v>
       </c>
       <c r="O27" t="n">
-        <v>148.3080266862594</v>
+        <v>169.3918684840761</v>
       </c>
       <c r="P27" t="n">
-        <v>142.8548531659551</v>
+        <v>169.1976426213212</v>
       </c>
       <c r="Q27" t="n">
         <v>136.1300824528302</v>
@@ -10117,13 +10117,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L29" t="n">
-        <v>255.8266834221102</v>
+        <v>267.5837185975302</v>
       </c>
       <c r="M29" t="n">
-        <v>245.6294943148315</v>
+        <v>251.9494126342087</v>
       </c>
       <c r="N29" t="n">
-        <v>243.9183330758522</v>
+        <v>249.3695814989909</v>
       </c>
       <c r="O29" t="n">
         <v>246.758517458259</v>
@@ -10193,22 +10193,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>150.7517341174952</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L30" t="n">
-        <v>145.6199667947194</v>
+        <v>110.1017125573465</v>
       </c>
       <c r="M30" t="n">
-        <v>146.0777144456295</v>
+        <v>164.633916415585</v>
       </c>
       <c r="N30" t="n">
-        <v>132.1878490032285</v>
+        <v>149.647042373468</v>
       </c>
       <c r="O30" t="n">
-        <v>148.3080266862594</v>
+        <v>119.9306916454701</v>
       </c>
       <c r="P30" t="n">
-        <v>142.8548531659551</v>
+        <v>171.6220599698928</v>
       </c>
       <c r="Q30" t="n">
         <v>136.1300824528302</v>
@@ -10354,13 +10354,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L32" t="n">
-        <v>255.8266834221102</v>
+        <v>267.5837185975302</v>
       </c>
       <c r="M32" t="n">
-        <v>245.6294943148315</v>
+        <v>251.9494126342087</v>
       </c>
       <c r="N32" t="n">
-        <v>243.9183330758522</v>
+        <v>249.3695814989909</v>
       </c>
       <c r="O32" t="n">
         <v>246.758517458259</v>
@@ -10430,22 +10430,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>150.7517341174952</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L33" t="n">
-        <v>145.6199667947194</v>
+        <v>170.1060419344938</v>
       </c>
       <c r="M33" t="n">
-        <v>146.0777144456295</v>
+        <v>115.172739576979</v>
       </c>
       <c r="N33" t="n">
-        <v>132.1878490032285</v>
+        <v>89.64271299632065</v>
       </c>
       <c r="O33" t="n">
-        <v>148.3080266862594</v>
+        <v>169.3918684840761</v>
       </c>
       <c r="P33" t="n">
-        <v>142.8548531659551</v>
+        <v>171.6220599698928</v>
       </c>
       <c r="Q33" t="n">
         <v>136.1300824528302</v>
@@ -10591,13 +10591,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L35" t="n">
-        <v>255.8266834221102</v>
+        <v>267.5837185975302</v>
       </c>
       <c r="M35" t="n">
-        <v>245.6294943148315</v>
+        <v>251.9494126342087</v>
       </c>
       <c r="N35" t="n">
-        <v>243.9183330758522</v>
+        <v>249.3695814989909</v>
       </c>
       <c r="O35" t="n">
         <v>246.758517458259</v>
@@ -10667,22 +10667,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>150.7517341174952</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L36" t="n">
-        <v>145.6199667947194</v>
+        <v>170.1060419344938</v>
       </c>
       <c r="M36" t="n">
-        <v>146.0777144456295</v>
+        <v>164.633916415585</v>
       </c>
       <c r="N36" t="n">
-        <v>132.1878490032285</v>
+        <v>149.647042373468</v>
       </c>
       <c r="O36" t="n">
-        <v>148.3080266862594</v>
+        <v>119.9306916454701</v>
       </c>
       <c r="P36" t="n">
-        <v>142.8548531659551</v>
+        <v>111.6177305927455</v>
       </c>
       <c r="Q36" t="n">
         <v>136.1300824528302</v>
@@ -10828,13 +10828,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L38" t="n">
-        <v>255.8266834221102</v>
+        <v>267.5837185975302</v>
       </c>
       <c r="M38" t="n">
-        <v>245.6294943148315</v>
+        <v>251.9494126342087</v>
       </c>
       <c r="N38" t="n">
-        <v>243.9183330758522</v>
+        <v>249.3695814989909</v>
       </c>
       <c r="O38" t="n">
         <v>246.758517458259</v>
@@ -10904,22 +10904,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>150.7517341174952</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L39" t="n">
-        <v>145.6199667947194</v>
+        <v>170.1060419344938</v>
       </c>
       <c r="M39" t="n">
-        <v>146.0777144456295</v>
+        <v>164.633916415585</v>
       </c>
       <c r="N39" t="n">
-        <v>132.1878490032285</v>
+        <v>149.647042373468</v>
       </c>
       <c r="O39" t="n">
-        <v>148.3080266862594</v>
+        <v>119.9306916454701</v>
       </c>
       <c r="P39" t="n">
-        <v>142.8548531659551</v>
+        <v>111.6177305927455</v>
       </c>
       <c r="Q39" t="n">
         <v>136.1300824528302</v>
@@ -11065,13 +11065,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L41" t="n">
-        <v>255.8266834221102</v>
+        <v>267.5837185975302</v>
       </c>
       <c r="M41" t="n">
-        <v>245.6294943148315</v>
+        <v>251.9494126342087</v>
       </c>
       <c r="N41" t="n">
-        <v>243.9183330758522</v>
+        <v>249.3695814989909</v>
       </c>
       <c r="O41" t="n">
         <v>246.758517458259</v>
@@ -11141,22 +11141,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>150.7517341174952</v>
+        <v>124.3367140941166</v>
       </c>
       <c r="L42" t="n">
-        <v>145.6199667947194</v>
+        <v>170.1060419344938</v>
       </c>
       <c r="M42" t="n">
-        <v>146.0777144456295</v>
+        <v>164.633916415585</v>
       </c>
       <c r="N42" t="n">
-        <v>132.1878490032285</v>
+        <v>147.2226250248963</v>
       </c>
       <c r="O42" t="n">
-        <v>148.3080266862594</v>
+        <v>169.3918684840761</v>
       </c>
       <c r="P42" t="n">
-        <v>142.8548531659551</v>
+        <v>111.6177305927455</v>
       </c>
       <c r="Q42" t="n">
         <v>136.1300824528302</v>
@@ -11302,16 +11302,16 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L44" t="n">
-        <v>215.1060201295988</v>
+        <v>267.5837185975302</v>
       </c>
       <c r="M44" t="n">
-        <v>200.3199103700812</v>
+        <v>251.9494126342087</v>
       </c>
       <c r="N44" t="n">
-        <v>197.8755926931642</v>
+        <v>249.3695814989909</v>
       </c>
       <c r="O44" t="n">
-        <v>203.2816633332895</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P44" t="n">
         <v>208.5255628951208</v>
@@ -11378,22 +11378,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>128.4574862423794</v>
+        <v>124.3367140941166</v>
       </c>
       <c r="L45" t="n">
-        <v>115.6425992455544</v>
+        <v>110.1017125573465</v>
       </c>
       <c r="M45" t="n">
-        <v>111.0955404568352</v>
+        <v>164.633916415585</v>
       </c>
       <c r="N45" t="n">
-        <v>96.27980096165827</v>
+        <v>149.6470423734679</v>
       </c>
       <c r="O45" t="n">
-        <v>115.4591779348292</v>
+        <v>169.391868484076</v>
       </c>
       <c r="P45" t="n">
-        <v>116.4907560372702</v>
+        <v>169.1976426213212</v>
       </c>
       <c r="Q45" t="n">
         <v>136.1300824528302</v>
@@ -23445,7 +23445,7 @@
         <v>77.72166293489558</v>
       </c>
       <c r="L13" t="n">
-        <v>45.8334892091311</v>
+        <v>45.83348920913111</v>
       </c>
       <c r="M13" t="n">
         <v>39.64227122411658</v>
@@ -23746,19 +23746,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>419.0433278923953</v>
+        <v>418.7852877910533</v>
       </c>
       <c r="H17" t="n">
-        <v>349.1224415328191</v>
+        <v>346.4797883449514</v>
       </c>
       <c r="I17" t="n">
-        <v>248.9190046445362</v>
+        <v>238.9709136375527</v>
       </c>
       <c r="J17" t="n">
-        <v>94.19388718318407</v>
+        <v>72.29305613191727</v>
       </c>
       <c r="K17" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -23773,31 +23773,31 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>44.59350769232816</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>111.8661614571072</v>
+        <v>38.69327495414375</v>
       </c>
       <c r="R17" t="n">
-        <v>207.7686087380687</v>
+        <v>146.2520387129721</v>
       </c>
       <c r="S17" t="n">
-        <v>232.1919625200514</v>
+        <v>226.3118737107229</v>
       </c>
       <c r="T17" t="n">
-        <v>223.3639471047855</v>
+        <v>222.2343765611613</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1669538870295</v>
+        <v>250.1463106789221</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>275.5723250999733</v>
       </c>
       <c r="W17" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
-        <v>359.7827142947061</v>
+        <v>327.3629234090583</v>
       </c>
       <c r="Y17" t="n">
         <v>382.2855674184499</v>
@@ -23825,16 +23825,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.8543720391606</v>
+        <v>148.7163084132398</v>
       </c>
       <c r="H18" t="n">
-        <v>126.7956481695613</v>
+        <v>125.4622442034314</v>
       </c>
       <c r="I18" t="n">
-        <v>111.1426883334193</v>
+        <v>106.3891819146546</v>
       </c>
       <c r="J18" t="n">
-        <v>62.8457980489157</v>
+        <v>49.80181311049408</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,31 +23855,31 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>20.88118919956569</v>
+        <v>3.257488459218308</v>
       </c>
       <c r="R18" t="n">
-        <v>141.5350185239054</v>
+        <v>87.65550436325759</v>
       </c>
       <c r="S18" t="n">
-        <v>193.6296756875513</v>
+        <v>191.0652043902942</v>
       </c>
       <c r="T18" t="n">
-        <v>215.4133639204314</v>
+        <v>174.9500611663309</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2352910471869</v>
+        <v>237.2262079139026</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>221.3971250678329</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>178.0768276248469</v>
       </c>
     </row>
     <row r="19">
@@ -23904,49 +23904,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.7928003659262</v>
+        <v>168.6770524598119</v>
       </c>
       <c r="H19" t="n">
-        <v>166.6425874648544</v>
+        <v>165.6134833541297</v>
       </c>
       <c r="I19" t="n">
-        <v>167.6204239903589</v>
+        <v>164.1395687773966</v>
       </c>
       <c r="J19" t="n">
-        <v>126.7458061042081</v>
+        <v>118.5624291419324</v>
       </c>
       <c r="K19" t="n">
-        <v>77.72166293489558</v>
+        <v>64.27386075180668</v>
       </c>
       <c r="L19" t="n">
-        <v>45.8334892091311</v>
+        <v>28.62493233102188</v>
       </c>
       <c r="M19" t="n">
-        <v>39.64227122411658</v>
+        <v>21.49826081386605</v>
       </c>
       <c r="N19" t="n">
-        <v>30.60255928634805</v>
+        <v>12.88997288979597</v>
       </c>
       <c r="O19" t="n">
-        <v>50.48626147098734</v>
+        <v>34.12582106858778</v>
       </c>
       <c r="P19" t="n">
-        <v>69.60865742247636</v>
+        <v>55.60947430480698</v>
       </c>
       <c r="Q19" t="n">
-        <v>134.9228615686379</v>
+        <v>125.2305528121096</v>
       </c>
       <c r="R19" t="n">
-        <v>207.5677595208579</v>
+        <v>202.3633127604856</v>
       </c>
       <c r="S19" t="n">
-        <v>237.0417967855364</v>
+        <v>235.0246264580731</v>
       </c>
       <c r="T19" t="n">
-        <v>224.154758052356</v>
+        <v>223.6601988171407</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6552630158016</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23980,22 +23980,22 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
-        <v>403.1992496400135</v>
+        <v>363.2924401851288</v>
       </c>
       <c r="G20" t="n">
-        <v>419.0433278923953</v>
+        <v>418.7852877910533</v>
       </c>
       <c r="H20" t="n">
-        <v>349.1224415328191</v>
+        <v>346.4797883449514</v>
       </c>
       <c r="I20" t="n">
-        <v>248.9190046445362</v>
+        <v>238.9709136375527</v>
       </c>
       <c r="J20" t="n">
-        <v>94.19388718318407</v>
+        <v>72.29305613191724</v>
       </c>
       <c r="K20" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -24010,22 +24010,22 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>44.59350769232816</v>
+        <v>7.487018569236724</v>
       </c>
       <c r="Q20" t="n">
-        <v>111.8661614571072</v>
+        <v>84.00073346332248</v>
       </c>
       <c r="R20" t="n">
-        <v>207.7686087380687</v>
+        <v>146.2520387129721</v>
       </c>
       <c r="S20" t="n">
-        <v>232.1919625200514</v>
+        <v>226.3118737107229</v>
       </c>
       <c r="T20" t="n">
-        <v>223.3639471047855</v>
+        <v>176.9269180519826</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1669538870295</v>
+        <v>204.8388521697434</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24062,16 +24062,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.8543720391606</v>
+        <v>148.7163084132398</v>
       </c>
       <c r="H21" t="n">
-        <v>126.7956481695613</v>
+        <v>125.4622442034314</v>
       </c>
       <c r="I21" t="n">
-        <v>111.1426883334193</v>
+        <v>61.08172340547586</v>
       </c>
       <c r="J21" t="n">
-        <v>62.8457980489157</v>
+        <v>49.80181311049407</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>20.88118919956569</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>141.5350185239054</v>
+        <v>87.65550436325759</v>
       </c>
       <c r="S21" t="n">
-        <v>193.6296756875513</v>
+        <v>145.7577458811155</v>
       </c>
       <c r="T21" t="n">
-        <v>215.4133639204314</v>
+        <v>214.8568706212155</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2352910471869</v>
+        <v>237.2262079139026</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24113,7 +24113,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>180.6635934438043</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -24141,49 +24141,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.7928003659262</v>
+        <v>168.6770524598119</v>
       </c>
       <c r="H22" t="n">
-        <v>166.6425874648544</v>
+        <v>165.6134833541297</v>
       </c>
       <c r="I22" t="n">
-        <v>167.6204239903589</v>
+        <v>164.1395687773966</v>
       </c>
       <c r="J22" t="n">
-        <v>126.7458061042081</v>
+        <v>118.5624291419324</v>
       </c>
       <c r="K22" t="n">
-        <v>77.72166293489558</v>
+        <v>64.27386075180667</v>
       </c>
       <c r="L22" t="n">
-        <v>45.8334892091311</v>
+        <v>28.62493233102187</v>
       </c>
       <c r="M22" t="n">
-        <v>39.64227122411658</v>
+        <v>21.49826081386603</v>
       </c>
       <c r="N22" t="n">
-        <v>30.60255928634805</v>
+        <v>12.88997288979596</v>
       </c>
       <c r="O22" t="n">
-        <v>50.48626147098734</v>
+        <v>34.12582106858778</v>
       </c>
       <c r="P22" t="n">
-        <v>69.60865742247636</v>
+        <v>55.60947430480697</v>
       </c>
       <c r="Q22" t="n">
-        <v>134.9228615686379</v>
+        <v>125.2305528121096</v>
       </c>
       <c r="R22" t="n">
-        <v>207.5677595208579</v>
+        <v>202.3633127604856</v>
       </c>
       <c r="S22" t="n">
-        <v>237.0417967855364</v>
+        <v>235.0246264580731</v>
       </c>
       <c r="T22" t="n">
-        <v>224.154758052356</v>
+        <v>223.6601988171407</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6552630158016</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24217,22 +24217,22 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>350.3474363246222</v>
       </c>
       <c r="G23" t="n">
-        <v>419.0433278923953</v>
+        <v>418.7375927771332</v>
       </c>
       <c r="H23" t="n">
-        <v>349.1224415328191</v>
+        <v>345.9913317836409</v>
       </c>
       <c r="I23" t="n">
-        <v>248.9190046445362</v>
+        <v>237.1321516133932</v>
       </c>
       <c r="J23" t="n">
-        <v>94.19388718318407</v>
+        <v>68.24500144420554</v>
       </c>
       <c r="K23" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -24247,31 +24247,31 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>44.59350769232816</v>
+        <v>0.6284159487409511</v>
       </c>
       <c r="Q23" t="n">
-        <v>111.8661614571072</v>
+        <v>78.85020852884477</v>
       </c>
       <c r="R23" t="n">
-        <v>207.7686087380687</v>
+        <v>188.5634753039845</v>
       </c>
       <c r="S23" t="n">
-        <v>232.1919625200514</v>
+        <v>225.2250235810158</v>
       </c>
       <c r="T23" t="n">
-        <v>223.3639471047855</v>
+        <v>162.0212622605783</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1669538870295</v>
+        <v>250.1424950778085</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>260.8754542320047</v>
       </c>
       <c r="W23" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>359.7827142947061</v>
+        <v>299.7783849175588</v>
       </c>
       <c r="Y23" t="n">
         <v>382.2855674184499</v>
@@ -24296,19 +24296,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>98.81910974278105</v>
       </c>
       <c r="G24" t="n">
-        <v>148.8543720391606</v>
+        <v>148.6907893310277</v>
       </c>
       <c r="H24" t="n">
-        <v>126.7956481695613</v>
+        <v>125.2157835936458</v>
       </c>
       <c r="I24" t="n">
-        <v>111.1426883334193</v>
+        <v>105.510564391123</v>
       </c>
       <c r="J24" t="n">
-        <v>62.8457980489157</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>20.88118919956569</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>141.5350185239054</v>
+        <v>71.37421188215356</v>
       </c>
       <c r="S24" t="n">
-        <v>193.6296756875513</v>
+        <v>130.5868692536366</v>
       </c>
       <c r="T24" t="n">
-        <v>215.4133639204314</v>
+        <v>214.7540108117728</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2352910471869</v>
+        <v>231.7635351819675</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24378,49 +24378,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.7928003659262</v>
+        <v>168.6556581185268</v>
       </c>
       <c r="H25" t="n">
-        <v>166.6425874648544</v>
+        <v>165.4232682107039</v>
       </c>
       <c r="I25" t="n">
-        <v>167.6204239903589</v>
+        <v>163.4961825867497</v>
       </c>
       <c r="J25" t="n">
-        <v>126.7458061042081</v>
+        <v>117.0498492130746</v>
       </c>
       <c r="K25" t="n">
-        <v>77.72166293489558</v>
+        <v>61.78822728249941</v>
       </c>
       <c r="L25" t="n">
-        <v>45.8334892091311</v>
+        <v>25.44417726395996</v>
       </c>
       <c r="M25" t="n">
-        <v>39.64227122411658</v>
+        <v>18.14460057041805</v>
       </c>
       <c r="N25" t="n">
-        <v>30.60255928634805</v>
+        <v>9.616055191137953</v>
       </c>
       <c r="O25" t="n">
-        <v>50.48626147098734</v>
+        <v>31.10182817494228</v>
       </c>
       <c r="P25" t="n">
-        <v>69.60865742247636</v>
+        <v>53.02192597337787</v>
       </c>
       <c r="Q25" t="n">
-        <v>134.9228615686379</v>
+        <v>123.4390684704985</v>
       </c>
       <c r="R25" t="n">
-        <v>207.5677595208579</v>
+        <v>201.4013453787021</v>
       </c>
       <c r="S25" t="n">
-        <v>237.0417967855364</v>
+        <v>234.651781437677</v>
       </c>
       <c r="T25" t="n">
-        <v>224.154758052356</v>
+        <v>223.5687866316497</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6540960517315</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24448,28 +24448,28 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
-        <v>337.7721596422273</v>
+        <v>277.76783026508</v>
       </c>
       <c r="E26" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
-        <v>403.1992496400135</v>
+        <v>343.1949202628662</v>
       </c>
       <c r="G26" t="n">
-        <v>419.0433278923953</v>
+        <v>418.7375927771332</v>
       </c>
       <c r="H26" t="n">
-        <v>349.1224415328191</v>
+        <v>345.9913317836409</v>
       </c>
       <c r="I26" t="n">
-        <v>248.9190046445362</v>
+        <v>237.1321516133932</v>
       </c>
       <c r="J26" t="n">
-        <v>94.19388718318407</v>
+        <v>68.24500144420554</v>
       </c>
       <c r="K26" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -24484,22 +24484,22 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>44.59350769232816</v>
+        <v>0.6284159487409511</v>
       </c>
       <c r="Q26" t="n">
-        <v>111.8661614571072</v>
+        <v>78.85020852884477</v>
       </c>
       <c r="R26" t="n">
-        <v>207.7686087380687</v>
+        <v>188.5634753039845</v>
       </c>
       <c r="S26" t="n">
-        <v>232.1919625200514</v>
+        <v>225.2250235810158</v>
       </c>
       <c r="T26" t="n">
-        <v>223.3639471047855</v>
+        <v>162.0212622605782</v>
       </c>
       <c r="U26" t="n">
-        <v>250.1669538870295</v>
+        <v>197.2906817624172</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24533,19 +24533,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>105.971625804537</v>
       </c>
       <c r="G27" t="n">
-        <v>148.8543720391606</v>
+        <v>88.6864599538804</v>
       </c>
       <c r="H27" t="n">
-        <v>126.7956481695613</v>
+        <v>125.2157835936458</v>
       </c>
       <c r="I27" t="n">
-        <v>111.1426883334193</v>
+        <v>105.510564391123</v>
       </c>
       <c r="J27" t="n">
-        <v>62.8457980489157</v>
+        <v>47.39081947044386</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>20.88118919956569</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>141.5350185239054</v>
+        <v>131.3785412593008</v>
       </c>
       <c r="S27" t="n">
-        <v>193.6296756875513</v>
+        <v>190.5911986307839</v>
       </c>
       <c r="T27" t="n">
-        <v>215.4133639204314</v>
+        <v>214.7540108117728</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2352910471869</v>
+        <v>177.2201996497677</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24590,7 +24590,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>163.3799567568783</v>
       </c>
     </row>
     <row r="28">
@@ -24615,49 +24615,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.7928003659262</v>
+        <v>168.6556581185268</v>
       </c>
       <c r="H28" t="n">
-        <v>166.6425874648544</v>
+        <v>165.4232682107039</v>
       </c>
       <c r="I28" t="n">
-        <v>167.6204239903589</v>
+        <v>163.4961825867497</v>
       </c>
       <c r="J28" t="n">
-        <v>126.7458061042081</v>
+        <v>117.0498492130746</v>
       </c>
       <c r="K28" t="n">
-        <v>77.72166293489558</v>
+        <v>61.78822728249941</v>
       </c>
       <c r="L28" t="n">
-        <v>45.8334892091311</v>
+        <v>25.44417726395996</v>
       </c>
       <c r="M28" t="n">
-        <v>39.64227122411658</v>
+        <v>18.14460057041805</v>
       </c>
       <c r="N28" t="n">
-        <v>30.60255928634805</v>
+        <v>9.616055191137953</v>
       </c>
       <c r="O28" t="n">
-        <v>50.48626147098734</v>
+        <v>31.10182817494228</v>
       </c>
       <c r="P28" t="n">
-        <v>69.60865742247636</v>
+        <v>53.02192597337787</v>
       </c>
       <c r="Q28" t="n">
-        <v>134.9228615686379</v>
+        <v>123.4390684704985</v>
       </c>
       <c r="R28" t="n">
-        <v>207.5677595208579</v>
+        <v>201.4013453787021</v>
       </c>
       <c r="S28" t="n">
-        <v>237.0417967855364</v>
+        <v>234.651781437677</v>
       </c>
       <c r="T28" t="n">
-        <v>224.154758052356</v>
+        <v>223.5687866316497</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6540960517315</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24694,19 +24694,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>419.0433278923953</v>
+        <v>418.7375927771332</v>
       </c>
       <c r="H29" t="n">
-        <v>349.1224415328191</v>
+        <v>345.9913317836409</v>
       </c>
       <c r="I29" t="n">
-        <v>248.9190046445362</v>
+        <v>237.1321516133932</v>
       </c>
       <c r="J29" t="n">
-        <v>94.19388718318407</v>
+        <v>68.24500144420554</v>
       </c>
       <c r="K29" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -24721,28 +24721,28 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>44.59350769232816</v>
+        <v>0.6284159487409511</v>
       </c>
       <c r="Q29" t="n">
-        <v>111.8661614571072</v>
+        <v>78.85020852884477</v>
       </c>
       <c r="R29" t="n">
-        <v>207.7686087380687</v>
+        <v>188.5634753039845</v>
       </c>
       <c r="S29" t="n">
-        <v>232.1919625200514</v>
+        <v>225.2250235810158</v>
       </c>
       <c r="T29" t="n">
-        <v>223.3639471047855</v>
+        <v>162.0212622605782</v>
       </c>
       <c r="U29" t="n">
-        <v>250.1669538870295</v>
+        <v>190.1381657006612</v>
       </c>
       <c r="V29" t="n">
-        <v>320.879783609152</v>
+        <v>260.8754542320047</v>
       </c>
       <c r="W29" t="n">
-        <v>337.8964638257669</v>
+        <v>285.0446505103756</v>
       </c>
       <c r="X29" t="n">
         <v>359.7827142947061</v>
@@ -24767,22 +24767,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>111.8232424626524</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.8543720391606</v>
+        <v>88.6864599538804</v>
       </c>
       <c r="H30" t="n">
-        <v>126.7956481695613</v>
+        <v>125.2157835936458</v>
       </c>
       <c r="I30" t="n">
-        <v>111.1426883334193</v>
+        <v>105.510564391123</v>
       </c>
       <c r="J30" t="n">
-        <v>62.8457980489157</v>
+        <v>47.39081947044386</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,28 +24803,28 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>20.88118919956569</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>141.5350185239054</v>
+        <v>131.3785412593008</v>
       </c>
       <c r="S30" t="n">
-        <v>193.6296756875513</v>
+        <v>190.5911986307839</v>
       </c>
       <c r="T30" t="n">
-        <v>215.4133639204314</v>
+        <v>214.7540108117728</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2352910471869</v>
+        <v>237.224529026915</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>206.7002541998643</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>164.4611011240793</v>
       </c>
       <c r="Y30" t="n">
         <v>223.3842861340256</v>
@@ -24852,49 +24852,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.7928003659262</v>
+        <v>168.6556581185268</v>
       </c>
       <c r="H31" t="n">
-        <v>166.6425874648544</v>
+        <v>165.4232682107039</v>
       </c>
       <c r="I31" t="n">
-        <v>167.6204239903589</v>
+        <v>163.4961825867497</v>
       </c>
       <c r="J31" t="n">
-        <v>126.7458061042081</v>
+        <v>117.0498492130746</v>
       </c>
       <c r="K31" t="n">
-        <v>77.72166293489558</v>
+        <v>61.78822728249941</v>
       </c>
       <c r="L31" t="n">
-        <v>45.8334892091311</v>
+        <v>25.44417726395996</v>
       </c>
       <c r="M31" t="n">
-        <v>39.64227122411658</v>
+        <v>18.14460057041805</v>
       </c>
       <c r="N31" t="n">
-        <v>30.60255928634805</v>
+        <v>9.616055191137953</v>
       </c>
       <c r="O31" t="n">
-        <v>50.48626147098734</v>
+        <v>31.10182817494228</v>
       </c>
       <c r="P31" t="n">
-        <v>69.60865742247636</v>
+        <v>53.02192597337787</v>
       </c>
       <c r="Q31" t="n">
-        <v>134.9228615686379</v>
+        <v>123.4390684704985</v>
       </c>
       <c r="R31" t="n">
-        <v>207.5677595208579</v>
+        <v>201.4013453787021</v>
       </c>
       <c r="S31" t="n">
-        <v>237.0417967855364</v>
+        <v>234.651781437677</v>
       </c>
       <c r="T31" t="n">
-        <v>224.154758052356</v>
+        <v>223.5687866316497</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6540960517315</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24916,34 +24916,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>374.0872403778333</v>
+        <v>314.082911000686</v>
       </c>
       <c r="C32" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
-        <v>337.7721596422273</v>
+        <v>277.76783026508</v>
       </c>
       <c r="E32" t="n">
-        <v>371.4789120616362</v>
+        <v>311.4745826844888</v>
       </c>
       <c r="F32" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>419.0433278923953</v>
+        <v>366.5141954104828</v>
       </c>
       <c r="H32" t="n">
-        <v>349.1224415328191</v>
+        <v>345.9913317836409</v>
       </c>
       <c r="I32" t="n">
-        <v>248.9190046445362</v>
+        <v>237.1321516133932</v>
       </c>
       <c r="J32" t="n">
-        <v>94.19388718318407</v>
+        <v>68.24500144420554</v>
       </c>
       <c r="K32" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -24958,22 +24958,22 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>44.59350769232816</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>111.8661614571072</v>
+        <v>78.85020852884477</v>
       </c>
       <c r="R32" t="n">
-        <v>207.7686087380687</v>
+        <v>188.5634753039845</v>
       </c>
       <c r="S32" t="n">
-        <v>232.1919625200514</v>
+        <v>225.2250235810158</v>
       </c>
       <c r="T32" t="n">
-        <v>223.3639471047855</v>
+        <v>222.0255916377255</v>
       </c>
       <c r="U32" t="n">
-        <v>250.1669538870295</v>
+        <v>250.1424950778085</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -24998,7 +24998,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>127.5138221472186</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -25007,19 +25007,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>153.3624452749809</v>
       </c>
       <c r="G33" t="n">
-        <v>148.8543720391606</v>
+        <v>148.6907893310277</v>
       </c>
       <c r="H33" t="n">
-        <v>126.7956481695613</v>
+        <v>125.2157835936458</v>
       </c>
       <c r="I33" t="n">
-        <v>111.1426883334193</v>
+        <v>105.510564391123</v>
       </c>
       <c r="J33" t="n">
-        <v>62.8457980489157</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>20.88118919956569</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>141.5350185239054</v>
+        <v>131.3785412593008</v>
       </c>
       <c r="S33" t="n">
-        <v>193.6296756875513</v>
+        <v>190.5911986307839</v>
       </c>
       <c r="T33" t="n">
-        <v>215.4133639204314</v>
+        <v>214.7540108117728</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2352910471869</v>
+        <v>237.224529026915</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25061,10 +25061,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>217.3129144394706</v>
+        <v>157.3085850623233</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>163.3799567568783</v>
       </c>
     </row>
     <row r="34">
@@ -25089,49 +25089,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.7928003659262</v>
+        <v>168.6556581185268</v>
       </c>
       <c r="H34" t="n">
-        <v>166.6425874648544</v>
+        <v>165.4232682107039</v>
       </c>
       <c r="I34" t="n">
-        <v>167.6204239903589</v>
+        <v>163.4961825867497</v>
       </c>
       <c r="J34" t="n">
-        <v>126.7458061042081</v>
+        <v>117.0498492130746</v>
       </c>
       <c r="K34" t="n">
-        <v>77.72166293489558</v>
+        <v>61.78822728249941</v>
       </c>
       <c r="L34" t="n">
-        <v>45.8334892091311</v>
+        <v>25.44417726395996</v>
       </c>
       <c r="M34" t="n">
-        <v>39.64227122411658</v>
+        <v>18.14460057041805</v>
       </c>
       <c r="N34" t="n">
-        <v>30.60255928634805</v>
+        <v>9.616055191137953</v>
       </c>
       <c r="O34" t="n">
-        <v>50.48626147098734</v>
+        <v>31.10182817494228</v>
       </c>
       <c r="P34" t="n">
-        <v>69.60865742247636</v>
+        <v>53.02192597337787</v>
       </c>
       <c r="Q34" t="n">
-        <v>134.9228615686379</v>
+        <v>123.4390684704985</v>
       </c>
       <c r="R34" t="n">
-        <v>207.5677595208579</v>
+        <v>201.4013453787021</v>
       </c>
       <c r="S34" t="n">
-        <v>237.0417967855364</v>
+        <v>234.651781437677</v>
       </c>
       <c r="T34" t="n">
-        <v>224.154758052356</v>
+        <v>223.5687866316497</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6540960517315</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25159,7 +25159,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
-        <v>337.7721596422273</v>
+        <v>284.920346326836</v>
       </c>
       <c r="E35" t="n">
         <v>371.4789120616362</v>
@@ -25168,19 +25168,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>419.0433278923953</v>
+        <v>418.7375927771332</v>
       </c>
       <c r="H35" t="n">
-        <v>349.1224415328191</v>
+        <v>345.9913317836409</v>
       </c>
       <c r="I35" t="n">
-        <v>248.9190046445362</v>
+        <v>237.1321516133932</v>
       </c>
       <c r="J35" t="n">
-        <v>94.19388718318407</v>
+        <v>68.24500144420554</v>
       </c>
       <c r="K35" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -25195,25 +25195,25 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>44.59350769232816</v>
+        <v>0.6284159487409511</v>
       </c>
       <c r="Q35" t="n">
-        <v>111.8661614571072</v>
+        <v>78.85020852884477</v>
       </c>
       <c r="R35" t="n">
-        <v>207.7686087380687</v>
+        <v>188.5634753039845</v>
       </c>
       <c r="S35" t="n">
-        <v>232.1919625200514</v>
+        <v>225.2250235810158</v>
       </c>
       <c r="T35" t="n">
-        <v>223.3639471047855</v>
+        <v>162.0212622605782</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1669538870295</v>
+        <v>190.1381657006612</v>
       </c>
       <c r="V35" t="n">
-        <v>320.879783609152</v>
+        <v>260.8754542320047</v>
       </c>
       <c r="W35" t="n">
         <v>337.8964638257669</v>
@@ -25235,10 +25235,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>134.6663382089746</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>99.16798569943124</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
@@ -25247,16 +25247,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.8543720391606</v>
+        <v>148.6907893310277</v>
       </c>
       <c r="H36" t="n">
-        <v>126.7956481695613</v>
+        <v>125.2157835936458</v>
       </c>
       <c r="I36" t="n">
-        <v>111.1426883334193</v>
+        <v>105.510564391123</v>
       </c>
       <c r="J36" t="n">
-        <v>62.8457980489157</v>
+        <v>47.39081947044386</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,25 +25277,25 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>20.88118919956569</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>141.5350185239054</v>
+        <v>131.3785412593008</v>
       </c>
       <c r="S36" t="n">
-        <v>193.6296756875513</v>
+        <v>190.5911986307839</v>
       </c>
       <c r="T36" t="n">
-        <v>215.4133639204314</v>
+        <v>154.7496814346255</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2352910471869</v>
+        <v>237.224529026915</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>206.7002541998643</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -25326,49 +25326,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.7928003659262</v>
+        <v>168.6556581185268</v>
       </c>
       <c r="H37" t="n">
-        <v>166.6425874648544</v>
+        <v>165.4232682107039</v>
       </c>
       <c r="I37" t="n">
-        <v>167.6204239903589</v>
+        <v>163.4961825867497</v>
       </c>
       <c r="J37" t="n">
-        <v>126.7458061042081</v>
+        <v>117.0498492130746</v>
       </c>
       <c r="K37" t="n">
-        <v>77.72166293489558</v>
+        <v>61.78822728249941</v>
       </c>
       <c r="L37" t="n">
-        <v>45.8334892091311</v>
+        <v>25.44417726395996</v>
       </c>
       <c r="M37" t="n">
-        <v>39.64227122411658</v>
+        <v>18.14460057041805</v>
       </c>
       <c r="N37" t="n">
-        <v>30.60255928634805</v>
+        <v>9.616055191137953</v>
       </c>
       <c r="O37" t="n">
-        <v>50.48626147098734</v>
+        <v>31.10182817494228</v>
       </c>
       <c r="P37" t="n">
-        <v>69.60865742247636</v>
+        <v>53.02192597337787</v>
       </c>
       <c r="Q37" t="n">
-        <v>134.9228615686379</v>
+        <v>123.4390684704985</v>
       </c>
       <c r="R37" t="n">
-        <v>207.5677595208579</v>
+        <v>201.4013453787021</v>
       </c>
       <c r="S37" t="n">
-        <v>237.0417967855364</v>
+        <v>234.651781437677</v>
       </c>
       <c r="T37" t="n">
-        <v>224.154758052356</v>
+        <v>223.5687866316497</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6540960517315</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25399,25 +25399,25 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
-        <v>371.4789120616362</v>
+        <v>311.4745826844888</v>
       </c>
       <c r="F38" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>419.0433278923953</v>
+        <v>418.7375927771332</v>
       </c>
       <c r="H38" t="n">
-        <v>349.1224415328191</v>
+        <v>345.9913317836409</v>
       </c>
       <c r="I38" t="n">
-        <v>248.9190046445362</v>
+        <v>237.1321516133932</v>
       </c>
       <c r="J38" t="n">
-        <v>94.19388718318407</v>
+        <v>68.24500144420554</v>
       </c>
       <c r="K38" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -25432,22 +25432,22 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>44.59350769232816</v>
+        <v>0.6284159487409511</v>
       </c>
       <c r="Q38" t="n">
-        <v>111.8661614571072</v>
+        <v>78.85020852884477</v>
       </c>
       <c r="R38" t="n">
-        <v>207.7686087380687</v>
+        <v>188.5634753039845</v>
       </c>
       <c r="S38" t="n">
-        <v>232.1919625200514</v>
+        <v>225.2250235810158</v>
       </c>
       <c r="T38" t="n">
-        <v>223.3639471047855</v>
+        <v>162.0212622605782</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1669538870295</v>
+        <v>190.1381657006612</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25456,7 +25456,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>359.7827142947061</v>
+        <v>306.9309009793148</v>
       </c>
       <c r="Y38" t="n">
         <v>382.2855674184499</v>
@@ -25475,25 +25475,25 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>106.3205017611872</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>98.81910974278104</v>
       </c>
       <c r="G39" t="n">
-        <v>148.8543720391606</v>
+        <v>148.6907893310277</v>
       </c>
       <c r="H39" t="n">
-        <v>126.7956481695613</v>
+        <v>125.2157835936458</v>
       </c>
       <c r="I39" t="n">
-        <v>111.1426883334193</v>
+        <v>105.510564391123</v>
       </c>
       <c r="J39" t="n">
-        <v>62.8457980489157</v>
+        <v>47.39081947044386</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>20.88118919956569</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>141.5350185239054</v>
+        <v>131.3785412593008</v>
       </c>
       <c r="S39" t="n">
-        <v>193.6296756875513</v>
+        <v>190.5911986307839</v>
       </c>
       <c r="T39" t="n">
-        <v>215.4133639204314</v>
+        <v>214.7540108117728</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2352910471869</v>
+        <v>177.2201996497677</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25538,7 +25538,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>163.3799567568783</v>
       </c>
     </row>
     <row r="40">
@@ -25563,49 +25563,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.7928003659262</v>
+        <v>168.6556581185268</v>
       </c>
       <c r="H40" t="n">
-        <v>166.6425874648544</v>
+        <v>165.4232682107039</v>
       </c>
       <c r="I40" t="n">
-        <v>167.6204239903589</v>
+        <v>163.4961825867497</v>
       </c>
       <c r="J40" t="n">
-        <v>126.7458061042081</v>
+        <v>117.0498492130746</v>
       </c>
       <c r="K40" t="n">
-        <v>77.72166293489558</v>
+        <v>61.78822728249941</v>
       </c>
       <c r="L40" t="n">
-        <v>45.8334892091311</v>
+        <v>25.44417726395996</v>
       </c>
       <c r="M40" t="n">
-        <v>39.64227122411658</v>
+        <v>18.14460057041805</v>
       </c>
       <c r="N40" t="n">
-        <v>30.60255928634805</v>
+        <v>9.616055191137953</v>
       </c>
       <c r="O40" t="n">
-        <v>50.48626147098734</v>
+        <v>31.10182817494228</v>
       </c>
       <c r="P40" t="n">
-        <v>69.60865742247636</v>
+        <v>53.02192597337787</v>
       </c>
       <c r="Q40" t="n">
-        <v>134.9228615686379</v>
+        <v>123.4390684704985</v>
       </c>
       <c r="R40" t="n">
-        <v>207.5677595208579</v>
+        <v>201.4013453787021</v>
       </c>
       <c r="S40" t="n">
-        <v>237.0417967855364</v>
+        <v>234.651781437677</v>
       </c>
       <c r="T40" t="n">
-        <v>224.154758052356</v>
+        <v>223.5687866316497</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6540960517315</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25639,22 +25639,22 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
-        <v>403.1992496400135</v>
+        <v>343.1949202628662</v>
       </c>
       <c r="G41" t="n">
-        <v>419.0433278923953</v>
+        <v>358.7332633999858</v>
       </c>
       <c r="H41" t="n">
-        <v>349.1224415328191</v>
+        <v>345.9913317836409</v>
       </c>
       <c r="I41" t="n">
-        <v>248.9190046445362</v>
+        <v>237.1321516133932</v>
       </c>
       <c r="J41" t="n">
-        <v>94.19388718318407</v>
+        <v>68.24500144420554</v>
       </c>
       <c r="K41" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -25669,22 +25669,22 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>44.59350769232816</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>111.8661614571072</v>
+        <v>78.85020852884477</v>
       </c>
       <c r="R41" t="n">
-        <v>207.7686087380687</v>
+        <v>128.5591459268372</v>
       </c>
       <c r="S41" t="n">
-        <v>232.1919625200514</v>
+        <v>173.0016262143654</v>
       </c>
       <c r="T41" t="n">
-        <v>223.3639471047855</v>
+        <v>222.0255916377255</v>
       </c>
       <c r="U41" t="n">
-        <v>250.1669538870295</v>
+        <v>250.1424950778085</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>116.7461650205184</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -25721,16 +25721,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.8543720391606</v>
+        <v>148.6907893310277</v>
       </c>
       <c r="H42" t="n">
-        <v>126.7956481695613</v>
+        <v>125.2157835936458</v>
       </c>
       <c r="I42" t="n">
-        <v>111.1426883334193</v>
+        <v>105.510564391123</v>
       </c>
       <c r="J42" t="n">
-        <v>62.8457980489157</v>
+        <v>47.39081947044386</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,28 +25751,28 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>20.88118919956569</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>141.5350185239054</v>
+        <v>131.3785412593008</v>
       </c>
       <c r="S42" t="n">
-        <v>193.6296756875513</v>
+        <v>190.5911986307839</v>
       </c>
       <c r="T42" t="n">
-        <v>215.4133639204314</v>
+        <v>214.7540108117728</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2352910471869</v>
+        <v>184.3727157115237</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>180.6445915382549</v>
       </c>
       <c r="W42" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>157.3085850623233</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -25800,49 +25800,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.7928003659262</v>
+        <v>168.6556581185268</v>
       </c>
       <c r="H43" t="n">
-        <v>166.6425874648544</v>
+        <v>165.4232682107039</v>
       </c>
       <c r="I43" t="n">
-        <v>167.6204239903589</v>
+        <v>163.4961825867497</v>
       </c>
       <c r="J43" t="n">
-        <v>126.7458061042081</v>
+        <v>117.0498492130746</v>
       </c>
       <c r="K43" t="n">
-        <v>77.72166293489558</v>
+        <v>61.78822728249941</v>
       </c>
       <c r="L43" t="n">
-        <v>45.8334892091311</v>
+        <v>25.44417726395996</v>
       </c>
       <c r="M43" t="n">
-        <v>39.64227122411658</v>
+        <v>18.14460057041805</v>
       </c>
       <c r="N43" t="n">
-        <v>30.60255928634805</v>
+        <v>9.616055191137953</v>
       </c>
       <c r="O43" t="n">
-        <v>50.48626147098734</v>
+        <v>31.10182817494228</v>
       </c>
       <c r="P43" t="n">
-        <v>69.60865742247636</v>
+        <v>53.02192597337787</v>
       </c>
       <c r="Q43" t="n">
-        <v>134.9228615686379</v>
+        <v>123.4390684704985</v>
       </c>
       <c r="R43" t="n">
-        <v>207.5677595208579</v>
+        <v>201.4013453787021</v>
       </c>
       <c r="S43" t="n">
-        <v>237.0417967855364</v>
+        <v>234.651781437677</v>
       </c>
       <c r="T43" t="n">
-        <v>224.154758052356</v>
+        <v>223.5687866316497</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6540960517315</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>374.0872403778333</v>
+        <v>321.863843011183</v>
       </c>
       <c r="C44" t="n">
         <v>350.2054973811788</v>
@@ -25879,16 +25879,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>418.7852877910533</v>
+        <v>418.7375927771332</v>
       </c>
       <c r="H44" t="n">
-        <v>346.4797883449514</v>
+        <v>345.9913317836409</v>
       </c>
       <c r="I44" t="n">
-        <v>238.9709136375527</v>
+        <v>237.1321516133932</v>
       </c>
       <c r="J44" t="n">
-        <v>72.29305613191724</v>
+        <v>68.24500144420554</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25906,25 +25906,25 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>84.00073346332248</v>
+        <v>18.84587915169749</v>
       </c>
       <c r="R44" t="n">
-        <v>191.5594972221508</v>
+        <v>128.5591459268372</v>
       </c>
       <c r="S44" t="n">
-        <v>226.3118737107229</v>
+        <v>225.2250235810158</v>
       </c>
       <c r="T44" t="n">
-        <v>222.2343765611613</v>
+        <v>222.0255916377255</v>
       </c>
       <c r="U44" t="n">
-        <v>250.1463106789221</v>
+        <v>250.1424950778085</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>260.8754542320047</v>
       </c>
       <c r="W44" t="n">
         <v>337.8964638257669</v>
@@ -25955,19 +25955,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>98.81910974278105</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7163084132398</v>
+        <v>88.68645995388042</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4622442034314</v>
+        <v>125.2157835936458</v>
       </c>
       <c r="I45" t="n">
-        <v>106.3891819146546</v>
+        <v>45.50623501397571</v>
       </c>
       <c r="J45" t="n">
-        <v>49.80181311049407</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,22 +25988,22 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>132.9629628724363</v>
+        <v>131.3785412593008</v>
       </c>
       <c r="S45" t="n">
-        <v>191.0652043902942</v>
+        <v>190.5911986307839</v>
       </c>
       <c r="T45" t="n">
-        <v>214.8568706212155</v>
+        <v>214.7540108117728</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2262079139026</v>
+        <v>237.224529026915</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>235.1879270704548</v>
       </c>
       <c r="W45" t="n">
         <v>266.7045835770116</v>
@@ -26037,49 +26037,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.6770524598119</v>
+        <v>168.6556581185268</v>
       </c>
       <c r="H46" t="n">
-        <v>165.6134833541297</v>
+        <v>165.4232682107039</v>
       </c>
       <c r="I46" t="n">
-        <v>164.1395687773966</v>
+        <v>163.4961825867497</v>
       </c>
       <c r="J46" t="n">
-        <v>118.5624291419324</v>
+        <v>117.0498492130746</v>
       </c>
       <c r="K46" t="n">
-        <v>64.27386075180667</v>
+        <v>61.78822728249941</v>
       </c>
       <c r="L46" t="n">
-        <v>28.62493233102187</v>
+        <v>25.44417726395996</v>
       </c>
       <c r="M46" t="n">
-        <v>21.49826081386603</v>
+        <v>18.14460057041805</v>
       </c>
       <c r="N46" t="n">
-        <v>12.88997288979596</v>
+        <v>9.616055191137953</v>
       </c>
       <c r="O46" t="n">
-        <v>34.12582106858778</v>
+        <v>31.10182817494228</v>
       </c>
       <c r="P46" t="n">
-        <v>55.60947430480697</v>
+        <v>53.02192597337787</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.2305528121096</v>
+        <v>123.4390684704985</v>
       </c>
       <c r="R46" t="n">
-        <v>202.3633127604856</v>
+        <v>201.4013453787021</v>
       </c>
       <c r="S46" t="n">
-        <v>235.0246264580731</v>
+        <v>234.651781437677</v>
       </c>
       <c r="T46" t="n">
-        <v>223.6601988171407</v>
+        <v>223.5687866316497</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6540960517315</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>347346.0381285836</v>
+        <v>403854.962727404</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>347346.0381285836</v>
+        <v>403854.962727404</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>347346.0381285836</v>
+        <v>418132.8581695283</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>347346.0381285836</v>
+        <v>418132.8581695283</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>347346.0381285836</v>
+        <v>418132.8581695283</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>347346.0381285836</v>
+        <v>418132.8581695283</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>347346.0381285836</v>
+        <v>418132.8581695284</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>347346.0381285836</v>
+        <v>418132.8581695284</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>347346.0381285836</v>
+        <v>418132.8581695283</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>371109.2769526934</v>
+        <v>418132.8581695283</v>
       </c>
     </row>
   </sheetData>
@@ -26325,37 +26325,37 @@
         <v>68782.34939044419</v>
       </c>
       <c r="F2" t="n">
-        <v>68782.34939044419</v>
+        <v>68782.3493904442</v>
       </c>
       <c r="G2" t="n">
-        <v>68782.34939044419</v>
+        <v>80471.05408293828</v>
       </c>
       <c r="H2" t="n">
-        <v>68782.34939044419</v>
+        <v>80471.05408293831</v>
       </c>
       <c r="I2" t="n">
-        <v>68782.34939044419</v>
+        <v>83384.68570280499</v>
       </c>
       <c r="J2" t="n">
-        <v>68782.3493904442</v>
+        <v>83384.68570280499</v>
       </c>
       <c r="K2" t="n">
-        <v>68782.34939044419</v>
+        <v>83384.68570280499</v>
       </c>
       <c r="L2" t="n">
-        <v>68782.34939044419</v>
+        <v>83384.68570280499</v>
       </c>
       <c r="M2" t="n">
-        <v>68782.34939044419</v>
+        <v>83384.68570280499</v>
       </c>
       <c r="N2" t="n">
-        <v>68782.34939044419</v>
+        <v>83384.68570280499</v>
       </c>
       <c r="O2" t="n">
-        <v>68782.34939044419</v>
+        <v>83384.685702805</v>
       </c>
       <c r="P2" t="n">
-        <v>74035.70591258175</v>
+        <v>83384.68570280496</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>62323.02230315006</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>12838.92213889814</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>10903.28519769237</v>
       </c>
       <c r="P3" t="n">
-        <v>42721.64299957015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26432,34 +26432,34 @@
         <v>14898.01607476984</v>
       </c>
       <c r="G4" t="n">
-        <v>14898.01607476984</v>
+        <v>14944.36471889497</v>
       </c>
       <c r="H4" t="n">
-        <v>14898.01607476984</v>
+        <v>14944.36471889497</v>
       </c>
       <c r="I4" t="n">
-        <v>14898.01607476984</v>
+        <v>15150.35677336696</v>
       </c>
       <c r="J4" t="n">
-        <v>14898.01607476984</v>
+        <v>15150.35677336696</v>
       </c>
       <c r="K4" t="n">
-        <v>14898.01607476984</v>
+        <v>15150.35677336696</v>
       </c>
       <c r="L4" t="n">
-        <v>14898.01607476984</v>
+        <v>15150.35677336696</v>
       </c>
       <c r="M4" t="n">
-        <v>14898.01607476984</v>
+        <v>15150.35677336696</v>
       </c>
       <c r="N4" t="n">
-        <v>14898.01607476984</v>
+        <v>15150.35677336696</v>
       </c>
       <c r="O4" t="n">
-        <v>14898.01607476984</v>
+        <v>15150.35677336696</v>
       </c>
       <c r="P4" t="n">
-        <v>13270.03170854814</v>
+        <v>15150.35677336696</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>1093.032277569317</v>
       </c>
       <c r="G5" t="n">
-        <v>1093.032277569317</v>
+        <v>5247.012714479153</v>
       </c>
       <c r="H5" t="n">
-        <v>1093.032277569317</v>
+        <v>5247.012714479154</v>
       </c>
       <c r="I5" t="n">
-        <v>1093.032277569317</v>
+        <v>6399.220599987542</v>
       </c>
       <c r="J5" t="n">
-        <v>1093.032277569317</v>
+        <v>6399.220599987544</v>
       </c>
       <c r="K5" t="n">
-        <v>1093.032277569317</v>
+        <v>6399.220599987544</v>
       </c>
       <c r="L5" t="n">
-        <v>1093.032277569317</v>
+        <v>6399.220599987544</v>
       </c>
       <c r="M5" t="n">
-        <v>1093.032277569317</v>
+        <v>6399.220599987544</v>
       </c>
       <c r="N5" t="n">
-        <v>1093.032277569317</v>
+        <v>6399.220599987544</v>
       </c>
       <c r="O5" t="n">
-        <v>1093.032277569317</v>
+        <v>6399.220599987544</v>
       </c>
       <c r="P5" t="n">
-        <v>2492.319237121088</v>
+        <v>6399.220599987542</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13968.92802258006</v>
+        <v>-2835.532585263321</v>
       </c>
       <c r="C6" t="n">
-        <v>13968.92802258006</v>
+        <v>-2835.532585263321</v>
       </c>
       <c r="D6" t="n">
-        <v>13968.92802258006</v>
+        <v>-2835.532585263321</v>
       </c>
       <c r="E6" t="n">
-        <v>12509.4014557187</v>
+        <v>-3851.699816541011</v>
       </c>
       <c r="F6" t="n">
-        <v>52791.30103810503</v>
+        <v>36430.19976584533</v>
       </c>
       <c r="G6" t="n">
-        <v>52791.30103810503</v>
+        <v>-17430.38820147111</v>
       </c>
       <c r="H6" t="n">
-        <v>52791.30103810503</v>
+        <v>44892.63410167898</v>
       </c>
       <c r="I6" t="n">
-        <v>52791.30103810503</v>
+        <v>33851.94627765603</v>
       </c>
       <c r="J6" t="n">
-        <v>52791.30103810504</v>
+        <v>46690.86841655416</v>
       </c>
       <c r="K6" t="n">
-        <v>52791.30103810503</v>
+        <v>46690.86841655416</v>
       </c>
       <c r="L6" t="n">
-        <v>52791.30103810503</v>
+        <v>46690.86841655416</v>
       </c>
       <c r="M6" t="n">
-        <v>52791.30103810503</v>
+        <v>46690.86841655416</v>
       </c>
       <c r="N6" t="n">
-        <v>52791.30103810503</v>
+        <v>46690.86841655416</v>
       </c>
       <c r="O6" t="n">
-        <v>52791.30103810503</v>
+        <v>35787.58321886182</v>
       </c>
       <c r="P6" t="n">
-        <v>15551.71196734237</v>
+        <v>46690.86841655413</v>
       </c>
     </row>
   </sheetData>
@@ -26752,34 +26752,34 @@
         <v>50.1390953013448</v>
       </c>
       <c r="G3" t="n">
-        <v>50.1390953013448</v>
+        <v>114.3265705101416</v>
       </c>
       <c r="H3" t="n">
-        <v>50.1390953013448</v>
+        <v>114.3265705101416</v>
       </c>
       <c r="I3" t="n">
-        <v>50.1390953013448</v>
+        <v>126.1907052227976</v>
       </c>
       <c r="J3" t="n">
-        <v>50.1390953013448</v>
+        <v>126.1907052227976</v>
       </c>
       <c r="K3" t="n">
-        <v>50.1390953013448</v>
+        <v>126.1907052227976</v>
       </c>
       <c r="L3" t="n">
-        <v>50.1390953013448</v>
+        <v>126.1907052227976</v>
       </c>
       <c r="M3" t="n">
-        <v>50.1390953013448</v>
+        <v>126.1907052227976</v>
       </c>
       <c r="N3" t="n">
-        <v>50.1390953013448</v>
+        <v>126.1907052227976</v>
       </c>
       <c r="O3" t="n">
-        <v>50.1390953013448</v>
+        <v>126.1907052227976</v>
       </c>
       <c r="P3" t="n">
-        <v>114.3265705101416</v>
+        <v>126.1907052227976</v>
       </c>
     </row>
     <row r="4">
@@ -26804,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>45.30745850917874</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>45.30745850917873</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>60.00432937714729</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>60.00432937714729</v>
       </c>
     </row>
   </sheetData>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>64.1874752087968</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>11.86413471265598</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>64.18747520879683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>45.30745850917874</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>14.69687086796856</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>45.30745850917874</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>45.30745850917874</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2015642022164614</v>
+        <v>0.2015642022164613</v>
       </c>
       <c r="H11" t="n">
         <v>2.064269385949336</v>
@@ -31849,10 +31849,10 @@
         <v>23.41637653672712</v>
       </c>
       <c r="M12" t="n">
-        <v>27.32580693923292</v>
+        <v>27.32580693923291</v>
       </c>
       <c r="N12" t="n">
-        <v>28.04903973843817</v>
+        <v>28.04903973843816</v>
       </c>
       <c r="O12" t="n">
         <v>25.65939153596275</v>
@@ -31913,10 +31913,10 @@
         <v>0.09041476201881848</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8038694295854959</v>
+        <v>0.8038694295854958</v>
       </c>
       <c r="I13" t="n">
-        <v>2.71901847962047</v>
+        <v>2.719018479620469</v>
       </c>
       <c r="J13" t="n">
         <v>6.392323674730466</v>
@@ -31931,7 +31931,7 @@
         <v>14.17292492264079</v>
       </c>
       <c r="N13" t="n">
-        <v>13.83592444602521</v>
+        <v>13.8359244460252</v>
       </c>
       <c r="O13" t="n">
         <v>12.779715635169</v>
@@ -31940,10 +31940,10 @@
         <v>10.9352544899851</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.571003390503065</v>
+        <v>7.571003390503064</v>
       </c>
       <c r="R13" t="n">
-        <v>4.065376481318874</v>
+        <v>4.065376481318873</v>
       </c>
       <c r="S13" t="n">
         <v>1.575682716273409</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2015642022164614</v>
+        <v>0.4596043035583578</v>
       </c>
       <c r="H17" t="n">
-        <v>2.064269385949336</v>
+        <v>4.706922573817033</v>
       </c>
       <c r="I17" t="n">
-        <v>7.770803905950134</v>
+        <v>17.71889491293361</v>
       </c>
       <c r="J17" t="n">
-        <v>17.1075097078694</v>
+        <v>39.00834075913621</v>
       </c>
       <c r="K17" t="n">
-        <v>25.63972238769222</v>
+        <v>58.46339092876151</v>
       </c>
       <c r="L17" t="n">
-        <v>31.80834284127425</v>
+        <v>72.52900613378561</v>
       </c>
       <c r="M17" t="n">
-        <v>35.39291022244124</v>
+        <v>80.70249416719156</v>
       </c>
       <c r="N17" t="n">
-        <v>35.96560451198877</v>
+        <v>82.00834489467675</v>
       </c>
       <c r="O17" t="n">
-        <v>33.96130047619883</v>
+        <v>77.43815460116832</v>
       </c>
       <c r="P17" t="n">
-        <v>28.98518423397994</v>
+        <v>66.09167335707136</v>
       </c>
       <c r="Q17" t="n">
-        <v>21.76666624210291</v>
+        <v>49.63209423588765</v>
       </c>
       <c r="R17" t="n">
-        <v>12.6615073174798</v>
+        <v>28.87061883339772</v>
       </c>
       <c r="S17" t="n">
-        <v>4.593144258007618</v>
+        <v>10.47323306733609</v>
       </c>
       <c r="T17" t="n">
-        <v>0.8823472952025601</v>
+        <v>2.011917838826712</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.03676834428466862</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.2459099818520027</v>
       </c>
       <c r="H18" t="n">
-        <v>1.041568753335484</v>
+        <v>2.374972719465394</v>
       </c>
       <c r="I18" t="n">
-        <v>3.713131114297705</v>
+        <v>8.466637533062373</v>
       </c>
       <c r="J18" t="n">
-        <v>10.18911558383272</v>
+        <v>23.23310052225434</v>
       </c>
       <c r="K18" t="n">
-        <v>17.41482143122275</v>
+        <v>39.70906930633852</v>
       </c>
       <c r="L18" t="n">
-        <v>23.41637653672712</v>
+        <v>53.39374408589208</v>
       </c>
       <c r="M18" t="n">
-        <v>27.32580693923292</v>
+        <v>62.30798092802716</v>
       </c>
       <c r="N18" t="n">
-        <v>28.04903973843817</v>
+        <v>63.95708778000837</v>
       </c>
       <c r="O18" t="n">
-        <v>25.65939153596275</v>
+        <v>58.50824028739294</v>
       </c>
       <c r="P18" t="n">
-        <v>20.59392387952783</v>
+        <v>46.95802100821269</v>
       </c>
       <c r="Q18" t="n">
-        <v>13.76649273255037</v>
+        <v>31.39019347289775</v>
       </c>
       <c r="R18" t="n">
-        <v>6.695934274394691</v>
+        <v>15.26798992586382</v>
       </c>
       <c r="S18" t="n">
-        <v>2.003198760388633</v>
+        <v>4.567670057645748</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4346964960559986</v>
+        <v>0.9911897952718877</v>
       </c>
       <c r="U18" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.01617828827973702</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.2061626681330422</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8038694295854959</v>
+        <v>1.83297354031014</v>
       </c>
       <c r="I19" t="n">
-        <v>2.71901847962047</v>
+        <v>6.199873692582762</v>
       </c>
       <c r="J19" t="n">
-        <v>6.392323674730466</v>
+        <v>14.57570063700608</v>
       </c>
       <c r="K19" t="n">
-        <v>10.50455144182273</v>
+        <v>23.95235362491162</v>
       </c>
       <c r="L19" t="n">
-        <v>13.44220925505234</v>
+        <v>30.65076613316157</v>
       </c>
       <c r="M19" t="n">
-        <v>14.17292492264079</v>
+        <v>32.31693533289133</v>
       </c>
       <c r="N19" t="n">
-        <v>13.83592444602521</v>
+        <v>31.54851084257729</v>
       </c>
       <c r="O19" t="n">
-        <v>12.779715635169</v>
+        <v>29.14015603756856</v>
       </c>
       <c r="P19" t="n">
-        <v>10.9352544899851</v>
+        <v>24.93443760765448</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.571003390503065</v>
+        <v>17.26331214703138</v>
       </c>
       <c r="R19" t="n">
-        <v>4.065376481318874</v>
+        <v>9.269823241691149</v>
       </c>
       <c r="S19" t="n">
-        <v>1.575682716273409</v>
+        <v>3.592853043736743</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3863176195349516</v>
+        <v>0.880876854750271</v>
       </c>
       <c r="U19" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.0112452364436205</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2015642022164614</v>
+        <v>0.459604303558358</v>
       </c>
       <c r="H20" t="n">
-        <v>2.064269385949336</v>
+        <v>4.706922573817035</v>
       </c>
       <c r="I20" t="n">
-        <v>7.770803905950134</v>
+        <v>17.71889491293361</v>
       </c>
       <c r="J20" t="n">
-        <v>17.1075097078694</v>
+        <v>39.00834075913622</v>
       </c>
       <c r="K20" t="n">
-        <v>25.63972238769222</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L20" t="n">
-        <v>31.80834284127425</v>
+        <v>72.52900613378564</v>
       </c>
       <c r="M20" t="n">
-        <v>35.39291022244124</v>
+        <v>80.70249416719159</v>
       </c>
       <c r="N20" t="n">
-        <v>35.96560451198877</v>
+        <v>82.00834489467678</v>
       </c>
       <c r="O20" t="n">
-        <v>33.96130047619883</v>
+        <v>77.43815460116835</v>
       </c>
       <c r="P20" t="n">
-        <v>28.98518423397994</v>
+        <v>66.09167335707137</v>
       </c>
       <c r="Q20" t="n">
-        <v>21.76666624210291</v>
+        <v>49.63209423588766</v>
       </c>
       <c r="R20" t="n">
-        <v>12.6615073174798</v>
+        <v>28.87061883339773</v>
       </c>
       <c r="S20" t="n">
-        <v>4.593144258007618</v>
+        <v>10.47323306733609</v>
       </c>
       <c r="T20" t="n">
-        <v>0.8823472952025601</v>
+        <v>2.011917838826713</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.03676834428466863</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.2459099818520028</v>
       </c>
       <c r="H21" t="n">
-        <v>1.041568753335484</v>
+        <v>2.374972719465395</v>
       </c>
       <c r="I21" t="n">
-        <v>3.713131114297705</v>
+        <v>8.466637533062377</v>
       </c>
       <c r="J21" t="n">
-        <v>10.18911558383272</v>
+        <v>23.23310052225435</v>
       </c>
       <c r="K21" t="n">
-        <v>17.41482143122275</v>
+        <v>39.70906930633853</v>
       </c>
       <c r="L21" t="n">
-        <v>23.41637653672712</v>
+        <v>53.3937440858921</v>
       </c>
       <c r="M21" t="n">
-        <v>27.32580693923292</v>
+        <v>62.30798092802718</v>
       </c>
       <c r="N21" t="n">
-        <v>28.04903973843817</v>
+        <v>63.95708778000839</v>
       </c>
       <c r="O21" t="n">
-        <v>25.65939153596275</v>
+        <v>58.50824028739296</v>
       </c>
       <c r="P21" t="n">
-        <v>20.59392387952783</v>
+        <v>46.95802100821271</v>
       </c>
       <c r="Q21" t="n">
-        <v>13.76649273255037</v>
+        <v>31.39019347289776</v>
       </c>
       <c r="R21" t="n">
-        <v>6.695934274394691</v>
+        <v>15.26798992586383</v>
       </c>
       <c r="S21" t="n">
-        <v>2.003198760388633</v>
+        <v>4.56767005764575</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4346964960559986</v>
+        <v>0.991189795271888</v>
       </c>
       <c r="U21" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.01617828827973703</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.2061626681330423</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8038694295854959</v>
+        <v>1.832973540310141</v>
       </c>
       <c r="I22" t="n">
-        <v>2.71901847962047</v>
+        <v>6.199873692582764</v>
       </c>
       <c r="J22" t="n">
-        <v>6.392323674730466</v>
+        <v>14.57570063700609</v>
       </c>
       <c r="K22" t="n">
-        <v>10.50455144182273</v>
+        <v>23.95235362491163</v>
       </c>
       <c r="L22" t="n">
-        <v>13.44220925505234</v>
+        <v>30.65076613316158</v>
       </c>
       <c r="M22" t="n">
-        <v>14.17292492264079</v>
+        <v>32.31693533289134</v>
       </c>
       <c r="N22" t="n">
-        <v>13.83592444602521</v>
+        <v>31.5485108425773</v>
       </c>
       <c r="O22" t="n">
-        <v>12.779715635169</v>
+        <v>29.14015603756857</v>
       </c>
       <c r="P22" t="n">
-        <v>10.9352544899851</v>
+        <v>24.93443760765448</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.571003390503065</v>
+        <v>17.26331214703139</v>
       </c>
       <c r="R22" t="n">
-        <v>4.065376481318874</v>
+        <v>9.269823241691153</v>
       </c>
       <c r="S22" t="n">
-        <v>1.575682716273409</v>
+        <v>3.592853043736744</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3863176195349516</v>
+        <v>0.8808768547502713</v>
       </c>
       <c r="U22" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.0112452364436205</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2015642022164614</v>
+        <v>0.507299317478583</v>
       </c>
       <c r="H23" t="n">
-        <v>2.064269385949336</v>
+        <v>5.195379135127539</v>
       </c>
       <c r="I23" t="n">
-        <v>7.770803905950134</v>
+        <v>19.55765693709309</v>
       </c>
       <c r="J23" t="n">
-        <v>17.1075097078694</v>
+        <v>43.05639544684792</v>
       </c>
       <c r="K23" t="n">
-        <v>25.63972238769222</v>
+        <v>64.53037555571635</v>
       </c>
       <c r="L23" t="n">
-        <v>31.80834284127425</v>
+        <v>80.05563704300155</v>
       </c>
       <c r="M23" t="n">
-        <v>35.39291022244124</v>
+        <v>89.07732128021131</v>
       </c>
       <c r="N23" t="n">
-        <v>35.96560451198877</v>
+        <v>90.51868546599734</v>
       </c>
       <c r="O23" t="n">
-        <v>33.96130047619883</v>
+        <v>85.47422787781967</v>
       </c>
       <c r="P23" t="n">
-        <v>28.98518423397994</v>
+        <v>72.95027597756714</v>
       </c>
       <c r="Q23" t="n">
-        <v>21.76666624210291</v>
+        <v>54.78261917036537</v>
       </c>
       <c r="R23" t="n">
-        <v>12.6615073174798</v>
+        <v>31.86664075156407</v>
       </c>
       <c r="S23" t="n">
-        <v>4.593144258007618</v>
+        <v>11.56008319704322</v>
       </c>
       <c r="T23" t="n">
-        <v>0.8823472952025601</v>
+        <v>2.220702762262498</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.04058394539828663</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.2714290640641308</v>
       </c>
       <c r="H24" t="n">
-        <v>1.041568753335484</v>
+        <v>2.621433329250947</v>
       </c>
       <c r="I24" t="n">
-        <v>3.713131114297705</v>
+        <v>9.345255056593976</v>
       </c>
       <c r="J24" t="n">
-        <v>10.18911558383272</v>
+        <v>25.64409416230457</v>
       </c>
       <c r="K24" t="n">
-        <v>17.41482143122275</v>
+        <v>43.82984145460132</v>
       </c>
       <c r="L24" t="n">
-        <v>23.41637653672712</v>
+        <v>58.93463077409997</v>
       </c>
       <c r="M24" t="n">
-        <v>27.32580693923292</v>
+        <v>68.7739343464247</v>
       </c>
       <c r="N24" t="n">
-        <v>28.04903973843817</v>
+        <v>70.59417574534601</v>
       </c>
       <c r="O24" t="n">
-        <v>25.65939153596275</v>
+        <v>64.57987911529342</v>
       </c>
       <c r="P24" t="n">
-        <v>20.59392387952783</v>
+        <v>51.83104645273739</v>
       </c>
       <c r="Q24" t="n">
-        <v>13.76649273255037</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R24" t="n">
-        <v>6.695934274394691</v>
+        <v>16.85241153899928</v>
       </c>
       <c r="S24" t="n">
-        <v>2.003198760388633</v>
+        <v>5.04167581715611</v>
       </c>
       <c r="T24" t="n">
-        <v>0.4346964960559986</v>
+        <v>1.094049604714632</v>
       </c>
       <c r="U24" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.01785717526737703</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.2275570094181596</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8038694295854959</v>
+        <v>2.023188683736002</v>
       </c>
       <c r="I25" t="n">
-        <v>2.71901847962047</v>
+        <v>6.843259883229748</v>
       </c>
       <c r="J25" t="n">
-        <v>6.392323674730466</v>
+        <v>16.08828056586388</v>
       </c>
       <c r="K25" t="n">
-        <v>10.50455144182273</v>
+        <v>26.4379870942189</v>
       </c>
       <c r="L25" t="n">
-        <v>13.44220925505234</v>
+        <v>33.83152120022348</v>
       </c>
       <c r="M25" t="n">
-        <v>14.17292492264079</v>
+        <v>35.67059557633932</v>
       </c>
       <c r="N25" t="n">
-        <v>13.83592444602521</v>
+        <v>34.8224285412353</v>
       </c>
       <c r="O25" t="n">
-        <v>12.779715635169</v>
+        <v>32.16414893121406</v>
       </c>
       <c r="P25" t="n">
-        <v>10.9352544899851</v>
+        <v>27.52198593908359</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.571003390503065</v>
+        <v>19.05479648864244</v>
       </c>
       <c r="R25" t="n">
-        <v>4.065376481318874</v>
+        <v>10.2317906234747</v>
       </c>
       <c r="S25" t="n">
-        <v>1.575682716273409</v>
+        <v>3.965698064132835</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3863176195349516</v>
+        <v>0.9722890402412272</v>
       </c>
       <c r="U25" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.01241220051371781</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2015642022164614</v>
+        <v>0.507299317478583</v>
       </c>
       <c r="H26" t="n">
-        <v>2.064269385949336</v>
+        <v>5.195379135127539</v>
       </c>
       <c r="I26" t="n">
-        <v>7.770803905950134</v>
+        <v>19.55765693709309</v>
       </c>
       <c r="J26" t="n">
-        <v>17.1075097078694</v>
+        <v>43.05639544684792</v>
       </c>
       <c r="K26" t="n">
-        <v>25.63972238769222</v>
+        <v>64.53037555571636</v>
       </c>
       <c r="L26" t="n">
-        <v>31.80834284127425</v>
+        <v>80.05563704300155</v>
       </c>
       <c r="M26" t="n">
-        <v>35.39291022244124</v>
+        <v>89.07732128021131</v>
       </c>
       <c r="N26" t="n">
-        <v>35.96560451198877</v>
+        <v>90.51868546599734</v>
       </c>
       <c r="O26" t="n">
-        <v>33.96130047619883</v>
+        <v>85.47422787781967</v>
       </c>
       <c r="P26" t="n">
-        <v>28.98518423397994</v>
+        <v>72.95027597756714</v>
       </c>
       <c r="Q26" t="n">
-        <v>21.76666624210291</v>
+        <v>54.78261917036537</v>
       </c>
       <c r="R26" t="n">
-        <v>12.6615073174798</v>
+        <v>31.86664075156407</v>
       </c>
       <c r="S26" t="n">
-        <v>4.593144258007618</v>
+        <v>11.56008319704322</v>
       </c>
       <c r="T26" t="n">
-        <v>0.8823472952025601</v>
+        <v>2.220702762262498</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.04058394539828663</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.2714290640641308</v>
       </c>
       <c r="H27" t="n">
-        <v>1.041568753335484</v>
+        <v>2.621433329250947</v>
       </c>
       <c r="I27" t="n">
-        <v>3.713131114297705</v>
+        <v>9.345255056593976</v>
       </c>
       <c r="J27" t="n">
-        <v>10.18911558383272</v>
+        <v>25.64409416230457</v>
       </c>
       <c r="K27" t="n">
-        <v>17.41482143122275</v>
+        <v>43.82984145460132</v>
       </c>
       <c r="L27" t="n">
-        <v>23.41637653672712</v>
+        <v>58.93463077409997</v>
       </c>
       <c r="M27" t="n">
-        <v>27.32580693923292</v>
+        <v>68.7739343464247</v>
       </c>
       <c r="N27" t="n">
-        <v>28.04903973843817</v>
+        <v>70.59417574534601</v>
       </c>
       <c r="O27" t="n">
-        <v>25.65939153596275</v>
+        <v>64.57987911529342</v>
       </c>
       <c r="P27" t="n">
-        <v>20.59392387952783</v>
+        <v>51.83104645273739</v>
       </c>
       <c r="Q27" t="n">
-        <v>13.76649273255037</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R27" t="n">
-        <v>6.695934274394691</v>
+        <v>16.85241153899928</v>
       </c>
       <c r="S27" t="n">
-        <v>2.003198760388633</v>
+        <v>5.04167581715611</v>
       </c>
       <c r="T27" t="n">
-        <v>0.4346964960559986</v>
+        <v>1.094049604714632</v>
       </c>
       <c r="U27" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.01785717526737703</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.2275570094181596</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8038694295854959</v>
+        <v>2.023188683736002</v>
       </c>
       <c r="I28" t="n">
-        <v>2.71901847962047</v>
+        <v>6.843259883229748</v>
       </c>
       <c r="J28" t="n">
-        <v>6.392323674730466</v>
+        <v>16.08828056586388</v>
       </c>
       <c r="K28" t="n">
-        <v>10.50455144182273</v>
+        <v>26.4379870942189</v>
       </c>
       <c r="L28" t="n">
-        <v>13.44220925505234</v>
+        <v>33.83152120022348</v>
       </c>
       <c r="M28" t="n">
-        <v>14.17292492264079</v>
+        <v>35.67059557633932</v>
       </c>
       <c r="N28" t="n">
-        <v>13.83592444602521</v>
+        <v>34.8224285412353</v>
       </c>
       <c r="O28" t="n">
-        <v>12.779715635169</v>
+        <v>32.16414893121406</v>
       </c>
       <c r="P28" t="n">
-        <v>10.9352544899851</v>
+        <v>27.52198593908359</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.571003390503065</v>
+        <v>19.05479648864244</v>
       </c>
       <c r="R28" t="n">
-        <v>4.065376481318874</v>
+        <v>10.2317906234747</v>
       </c>
       <c r="S28" t="n">
-        <v>1.575682716273409</v>
+        <v>3.965698064132835</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3863176195349516</v>
+        <v>0.9722890402412272</v>
       </c>
       <c r="U28" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.01241220051371781</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2015642022164614</v>
+        <v>0.507299317478583</v>
       </c>
       <c r="H29" t="n">
-        <v>2.064269385949336</v>
+        <v>5.195379135127539</v>
       </c>
       <c r="I29" t="n">
-        <v>7.770803905950134</v>
+        <v>19.55765693709309</v>
       </c>
       <c r="J29" t="n">
-        <v>17.1075097078694</v>
+        <v>43.05639544684792</v>
       </c>
       <c r="K29" t="n">
-        <v>25.63972238769222</v>
+        <v>64.53037555571636</v>
       </c>
       <c r="L29" t="n">
-        <v>31.80834284127425</v>
+        <v>80.05563704300155</v>
       </c>
       <c r="M29" t="n">
-        <v>35.39291022244124</v>
+        <v>89.07732128021131</v>
       </c>
       <c r="N29" t="n">
-        <v>35.96560451198877</v>
+        <v>90.51868546599734</v>
       </c>
       <c r="O29" t="n">
-        <v>33.96130047619883</v>
+        <v>85.47422787781967</v>
       </c>
       <c r="P29" t="n">
-        <v>28.98518423397994</v>
+        <v>72.95027597756714</v>
       </c>
       <c r="Q29" t="n">
-        <v>21.76666624210291</v>
+        <v>54.78261917036537</v>
       </c>
       <c r="R29" t="n">
-        <v>12.6615073174798</v>
+        <v>31.86664075156407</v>
       </c>
       <c r="S29" t="n">
-        <v>4.593144258007618</v>
+        <v>11.56008319704322</v>
       </c>
       <c r="T29" t="n">
-        <v>0.8823472952025601</v>
+        <v>2.220702762262498</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.04058394539828663</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.2714290640641308</v>
       </c>
       <c r="H30" t="n">
-        <v>1.041568753335484</v>
+        <v>2.621433329250947</v>
       </c>
       <c r="I30" t="n">
-        <v>3.713131114297705</v>
+        <v>9.345255056593976</v>
       </c>
       <c r="J30" t="n">
-        <v>10.18911558383272</v>
+        <v>25.64409416230457</v>
       </c>
       <c r="K30" t="n">
-        <v>17.41482143122275</v>
+        <v>43.82984145460132</v>
       </c>
       <c r="L30" t="n">
-        <v>23.41637653672712</v>
+        <v>58.93463077409997</v>
       </c>
       <c r="M30" t="n">
-        <v>27.32580693923292</v>
+        <v>68.7739343464247</v>
       </c>
       <c r="N30" t="n">
-        <v>28.04903973843817</v>
+        <v>70.59417574534601</v>
       </c>
       <c r="O30" t="n">
-        <v>25.65939153596275</v>
+        <v>64.57987911529342</v>
       </c>
       <c r="P30" t="n">
-        <v>20.59392387952783</v>
+        <v>51.83104645273739</v>
       </c>
       <c r="Q30" t="n">
-        <v>13.76649273255037</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R30" t="n">
-        <v>6.695934274394691</v>
+        <v>16.85241153899928</v>
       </c>
       <c r="S30" t="n">
-        <v>2.003198760388633</v>
+        <v>5.04167581715611</v>
       </c>
       <c r="T30" t="n">
-        <v>0.4346964960559986</v>
+        <v>1.094049604714632</v>
       </c>
       <c r="U30" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.01785717526737703</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.2275570094181596</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8038694295854959</v>
+        <v>2.023188683736002</v>
       </c>
       <c r="I31" t="n">
-        <v>2.71901847962047</v>
+        <v>6.843259883229748</v>
       </c>
       <c r="J31" t="n">
-        <v>6.392323674730466</v>
+        <v>16.08828056586388</v>
       </c>
       <c r="K31" t="n">
-        <v>10.50455144182273</v>
+        <v>26.4379870942189</v>
       </c>
       <c r="L31" t="n">
-        <v>13.44220925505234</v>
+        <v>33.83152120022348</v>
       </c>
       <c r="M31" t="n">
-        <v>14.17292492264079</v>
+        <v>35.67059557633932</v>
       </c>
       <c r="N31" t="n">
-        <v>13.83592444602521</v>
+        <v>34.8224285412353</v>
       </c>
       <c r="O31" t="n">
-        <v>12.779715635169</v>
+        <v>32.16414893121406</v>
       </c>
       <c r="P31" t="n">
-        <v>10.9352544899851</v>
+        <v>27.52198593908359</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.571003390503065</v>
+        <v>19.05479648864244</v>
       </c>
       <c r="R31" t="n">
-        <v>4.065376481318874</v>
+        <v>10.2317906234747</v>
       </c>
       <c r="S31" t="n">
-        <v>1.575682716273409</v>
+        <v>3.965698064132835</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3863176195349516</v>
+        <v>0.9722890402412272</v>
       </c>
       <c r="U31" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.01241220051371781</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2015642022164614</v>
+        <v>0.507299317478583</v>
       </c>
       <c r="H32" t="n">
-        <v>2.064269385949336</v>
+        <v>5.195379135127539</v>
       </c>
       <c r="I32" t="n">
-        <v>7.770803905950134</v>
+        <v>19.55765693709309</v>
       </c>
       <c r="J32" t="n">
-        <v>17.1075097078694</v>
+        <v>43.05639544684792</v>
       </c>
       <c r="K32" t="n">
-        <v>25.63972238769222</v>
+        <v>64.53037555571636</v>
       </c>
       <c r="L32" t="n">
-        <v>31.80834284127425</v>
+        <v>80.05563704300155</v>
       </c>
       <c r="M32" t="n">
-        <v>35.39291022244124</v>
+        <v>89.07732128021131</v>
       </c>
       <c r="N32" t="n">
-        <v>35.96560451198877</v>
+        <v>90.51868546599734</v>
       </c>
       <c r="O32" t="n">
-        <v>33.96130047619883</v>
+        <v>85.47422787781967</v>
       </c>
       <c r="P32" t="n">
-        <v>28.98518423397994</v>
+        <v>72.95027597756714</v>
       </c>
       <c r="Q32" t="n">
-        <v>21.76666624210291</v>
+        <v>54.78261917036537</v>
       </c>
       <c r="R32" t="n">
-        <v>12.6615073174798</v>
+        <v>31.86664075156407</v>
       </c>
       <c r="S32" t="n">
-        <v>4.593144258007618</v>
+        <v>11.56008319704322</v>
       </c>
       <c r="T32" t="n">
-        <v>0.8823472952025601</v>
+        <v>2.220702762262498</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.04058394539828663</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.2714290640641308</v>
       </c>
       <c r="H33" t="n">
-        <v>1.041568753335484</v>
+        <v>2.621433329250947</v>
       </c>
       <c r="I33" t="n">
-        <v>3.713131114297705</v>
+        <v>9.345255056593976</v>
       </c>
       <c r="J33" t="n">
-        <v>10.18911558383272</v>
+        <v>25.64409416230457</v>
       </c>
       <c r="K33" t="n">
-        <v>17.41482143122275</v>
+        <v>43.82984145460132</v>
       </c>
       <c r="L33" t="n">
-        <v>23.41637653672712</v>
+        <v>58.93463077409997</v>
       </c>
       <c r="M33" t="n">
-        <v>27.32580693923292</v>
+        <v>68.7739343464247</v>
       </c>
       <c r="N33" t="n">
-        <v>28.04903973843817</v>
+        <v>70.59417574534601</v>
       </c>
       <c r="O33" t="n">
-        <v>25.65939153596275</v>
+        <v>64.57987911529342</v>
       </c>
       <c r="P33" t="n">
-        <v>20.59392387952783</v>
+        <v>51.83104645273739</v>
       </c>
       <c r="Q33" t="n">
-        <v>13.76649273255037</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R33" t="n">
-        <v>6.695934274394691</v>
+        <v>16.85241153899928</v>
       </c>
       <c r="S33" t="n">
-        <v>2.003198760388633</v>
+        <v>5.04167581715611</v>
       </c>
       <c r="T33" t="n">
-        <v>0.4346964960559986</v>
+        <v>1.094049604714632</v>
       </c>
       <c r="U33" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.01785717526737703</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.2275570094181596</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8038694295854959</v>
+        <v>2.023188683736002</v>
       </c>
       <c r="I34" t="n">
-        <v>2.71901847962047</v>
+        <v>6.843259883229748</v>
       </c>
       <c r="J34" t="n">
-        <v>6.392323674730466</v>
+        <v>16.08828056586388</v>
       </c>
       <c r="K34" t="n">
-        <v>10.50455144182273</v>
+        <v>26.4379870942189</v>
       </c>
       <c r="L34" t="n">
-        <v>13.44220925505234</v>
+        <v>33.83152120022348</v>
       </c>
       <c r="M34" t="n">
-        <v>14.17292492264079</v>
+        <v>35.67059557633932</v>
       </c>
       <c r="N34" t="n">
-        <v>13.83592444602521</v>
+        <v>34.8224285412353</v>
       </c>
       <c r="O34" t="n">
-        <v>12.779715635169</v>
+        <v>32.16414893121406</v>
       </c>
       <c r="P34" t="n">
-        <v>10.9352544899851</v>
+        <v>27.52198593908359</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.571003390503065</v>
+        <v>19.05479648864244</v>
       </c>
       <c r="R34" t="n">
-        <v>4.065376481318874</v>
+        <v>10.2317906234747</v>
       </c>
       <c r="S34" t="n">
-        <v>1.575682716273409</v>
+        <v>3.965698064132835</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3863176195349516</v>
+        <v>0.9722890402412272</v>
       </c>
       <c r="U34" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.01241220051371781</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2015642022164614</v>
+        <v>0.507299317478583</v>
       </c>
       <c r="H35" t="n">
-        <v>2.064269385949336</v>
+        <v>5.195379135127539</v>
       </c>
       <c r="I35" t="n">
-        <v>7.770803905950134</v>
+        <v>19.55765693709309</v>
       </c>
       <c r="J35" t="n">
-        <v>17.1075097078694</v>
+        <v>43.05639544684792</v>
       </c>
       <c r="K35" t="n">
-        <v>25.63972238769222</v>
+        <v>64.53037555571636</v>
       </c>
       <c r="L35" t="n">
-        <v>31.80834284127425</v>
+        <v>80.05563704300155</v>
       </c>
       <c r="M35" t="n">
-        <v>35.39291022244124</v>
+        <v>89.07732128021131</v>
       </c>
       <c r="N35" t="n">
-        <v>35.96560451198877</v>
+        <v>90.51868546599734</v>
       </c>
       <c r="O35" t="n">
-        <v>33.96130047619883</v>
+        <v>85.47422787781967</v>
       </c>
       <c r="P35" t="n">
-        <v>28.98518423397994</v>
+        <v>72.95027597756714</v>
       </c>
       <c r="Q35" t="n">
-        <v>21.76666624210291</v>
+        <v>54.78261917036537</v>
       </c>
       <c r="R35" t="n">
-        <v>12.6615073174798</v>
+        <v>31.86664075156407</v>
       </c>
       <c r="S35" t="n">
-        <v>4.593144258007618</v>
+        <v>11.56008319704322</v>
       </c>
       <c r="T35" t="n">
-        <v>0.8823472952025601</v>
+        <v>2.220702762262498</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.04058394539828663</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.2714290640641308</v>
       </c>
       <c r="H36" t="n">
-        <v>1.041568753335484</v>
+        <v>2.621433329250947</v>
       </c>
       <c r="I36" t="n">
-        <v>3.713131114297705</v>
+        <v>9.345255056593976</v>
       </c>
       <c r="J36" t="n">
-        <v>10.18911558383272</v>
+        <v>25.64409416230457</v>
       </c>
       <c r="K36" t="n">
-        <v>17.41482143122275</v>
+        <v>43.82984145460132</v>
       </c>
       <c r="L36" t="n">
-        <v>23.41637653672712</v>
+        <v>58.93463077409997</v>
       </c>
       <c r="M36" t="n">
-        <v>27.32580693923292</v>
+        <v>68.7739343464247</v>
       </c>
       <c r="N36" t="n">
-        <v>28.04903973843817</v>
+        <v>70.59417574534601</v>
       </c>
       <c r="O36" t="n">
-        <v>25.65939153596275</v>
+        <v>64.57987911529342</v>
       </c>
       <c r="P36" t="n">
-        <v>20.59392387952783</v>
+        <v>51.83104645273739</v>
       </c>
       <c r="Q36" t="n">
-        <v>13.76649273255037</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R36" t="n">
-        <v>6.695934274394691</v>
+        <v>16.85241153899928</v>
       </c>
       <c r="S36" t="n">
-        <v>2.003198760388633</v>
+        <v>5.04167581715611</v>
       </c>
       <c r="T36" t="n">
-        <v>0.4346964960559986</v>
+        <v>1.094049604714632</v>
       </c>
       <c r="U36" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.01785717526737703</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.2275570094181596</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8038694295854959</v>
+        <v>2.023188683736002</v>
       </c>
       <c r="I37" t="n">
-        <v>2.71901847962047</v>
+        <v>6.843259883229748</v>
       </c>
       <c r="J37" t="n">
-        <v>6.392323674730466</v>
+        <v>16.08828056586388</v>
       </c>
       <c r="K37" t="n">
-        <v>10.50455144182273</v>
+        <v>26.4379870942189</v>
       </c>
       <c r="L37" t="n">
-        <v>13.44220925505234</v>
+        <v>33.83152120022348</v>
       </c>
       <c r="M37" t="n">
-        <v>14.17292492264079</v>
+        <v>35.67059557633932</v>
       </c>
       <c r="N37" t="n">
-        <v>13.83592444602521</v>
+        <v>34.8224285412353</v>
       </c>
       <c r="O37" t="n">
-        <v>12.779715635169</v>
+        <v>32.16414893121406</v>
       </c>
       <c r="P37" t="n">
-        <v>10.9352544899851</v>
+        <v>27.52198593908359</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.571003390503065</v>
+        <v>19.05479648864244</v>
       </c>
       <c r="R37" t="n">
-        <v>4.065376481318874</v>
+        <v>10.2317906234747</v>
       </c>
       <c r="S37" t="n">
-        <v>1.575682716273409</v>
+        <v>3.965698064132835</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3863176195349516</v>
+        <v>0.9722890402412272</v>
       </c>
       <c r="U37" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.01241220051371781</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2015642022164614</v>
+        <v>0.507299317478583</v>
       </c>
       <c r="H38" t="n">
-        <v>2.064269385949336</v>
+        <v>5.195379135127539</v>
       </c>
       <c r="I38" t="n">
-        <v>7.770803905950134</v>
+        <v>19.55765693709309</v>
       </c>
       <c r="J38" t="n">
-        <v>17.1075097078694</v>
+        <v>43.05639544684792</v>
       </c>
       <c r="K38" t="n">
-        <v>25.63972238769222</v>
+        <v>64.53037555571636</v>
       </c>
       <c r="L38" t="n">
-        <v>31.80834284127425</v>
+        <v>80.05563704300155</v>
       </c>
       <c r="M38" t="n">
-        <v>35.39291022244124</v>
+        <v>89.07732128021131</v>
       </c>
       <c r="N38" t="n">
-        <v>35.96560451198877</v>
+        <v>90.51868546599734</v>
       </c>
       <c r="O38" t="n">
-        <v>33.96130047619883</v>
+        <v>85.47422787781967</v>
       </c>
       <c r="P38" t="n">
-        <v>28.98518423397994</v>
+        <v>72.95027597756714</v>
       </c>
       <c r="Q38" t="n">
-        <v>21.76666624210291</v>
+        <v>54.78261917036537</v>
       </c>
       <c r="R38" t="n">
-        <v>12.6615073174798</v>
+        <v>31.86664075156407</v>
       </c>
       <c r="S38" t="n">
-        <v>4.593144258007618</v>
+        <v>11.56008319704322</v>
       </c>
       <c r="T38" t="n">
-        <v>0.8823472952025601</v>
+        <v>2.220702762262498</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.04058394539828663</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.2714290640641308</v>
       </c>
       <c r="H39" t="n">
-        <v>1.041568753335484</v>
+        <v>2.621433329250947</v>
       </c>
       <c r="I39" t="n">
-        <v>3.713131114297705</v>
+        <v>9.345255056593976</v>
       </c>
       <c r="J39" t="n">
-        <v>10.18911558383272</v>
+        <v>25.64409416230457</v>
       </c>
       <c r="K39" t="n">
-        <v>17.41482143122275</v>
+        <v>43.82984145460132</v>
       </c>
       <c r="L39" t="n">
-        <v>23.41637653672712</v>
+        <v>58.93463077409997</v>
       </c>
       <c r="M39" t="n">
-        <v>27.32580693923292</v>
+        <v>68.7739343464247</v>
       </c>
       <c r="N39" t="n">
-        <v>28.04903973843817</v>
+        <v>70.59417574534601</v>
       </c>
       <c r="O39" t="n">
-        <v>25.65939153596275</v>
+        <v>64.57987911529342</v>
       </c>
       <c r="P39" t="n">
-        <v>20.59392387952783</v>
+        <v>51.83104645273739</v>
       </c>
       <c r="Q39" t="n">
-        <v>13.76649273255037</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R39" t="n">
-        <v>6.695934274394691</v>
+        <v>16.85241153899928</v>
       </c>
       <c r="S39" t="n">
-        <v>2.003198760388633</v>
+        <v>5.04167581715611</v>
       </c>
       <c r="T39" t="n">
-        <v>0.4346964960559986</v>
+        <v>1.094049604714632</v>
       </c>
       <c r="U39" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.01785717526737703</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.2275570094181596</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8038694295854959</v>
+        <v>2.023188683736002</v>
       </c>
       <c r="I40" t="n">
-        <v>2.71901847962047</v>
+        <v>6.843259883229748</v>
       </c>
       <c r="J40" t="n">
-        <v>6.392323674730466</v>
+        <v>16.08828056586388</v>
       </c>
       <c r="K40" t="n">
-        <v>10.50455144182273</v>
+        <v>26.4379870942189</v>
       </c>
       <c r="L40" t="n">
-        <v>13.44220925505234</v>
+        <v>33.83152120022348</v>
       </c>
       <c r="M40" t="n">
-        <v>14.17292492264079</v>
+        <v>35.67059557633932</v>
       </c>
       <c r="N40" t="n">
-        <v>13.83592444602521</v>
+        <v>34.8224285412353</v>
       </c>
       <c r="O40" t="n">
-        <v>12.779715635169</v>
+        <v>32.16414893121406</v>
       </c>
       <c r="P40" t="n">
-        <v>10.9352544899851</v>
+        <v>27.52198593908359</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.571003390503065</v>
+        <v>19.05479648864244</v>
       </c>
       <c r="R40" t="n">
-        <v>4.065376481318874</v>
+        <v>10.2317906234747</v>
       </c>
       <c r="S40" t="n">
-        <v>1.575682716273409</v>
+        <v>3.965698064132835</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3863176195349516</v>
+        <v>0.9722890402412272</v>
       </c>
       <c r="U40" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.01241220051371781</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2015642022164614</v>
+        <v>0.507299317478583</v>
       </c>
       <c r="H41" t="n">
-        <v>2.064269385949336</v>
+        <v>5.195379135127539</v>
       </c>
       <c r="I41" t="n">
-        <v>7.770803905950134</v>
+        <v>19.55765693709309</v>
       </c>
       <c r="J41" t="n">
-        <v>17.1075097078694</v>
+        <v>43.05639544684792</v>
       </c>
       <c r="K41" t="n">
-        <v>25.63972238769222</v>
+        <v>64.53037555571636</v>
       </c>
       <c r="L41" t="n">
-        <v>31.80834284127425</v>
+        <v>80.05563704300155</v>
       </c>
       <c r="M41" t="n">
-        <v>35.39291022244124</v>
+        <v>89.07732128021131</v>
       </c>
       <c r="N41" t="n">
-        <v>35.96560451198877</v>
+        <v>90.51868546599734</v>
       </c>
       <c r="O41" t="n">
-        <v>33.96130047619883</v>
+        <v>85.47422787781967</v>
       </c>
       <c r="P41" t="n">
-        <v>28.98518423397994</v>
+        <v>72.95027597756714</v>
       </c>
       <c r="Q41" t="n">
-        <v>21.76666624210291</v>
+        <v>54.78261917036537</v>
       </c>
       <c r="R41" t="n">
-        <v>12.6615073174798</v>
+        <v>31.86664075156407</v>
       </c>
       <c r="S41" t="n">
-        <v>4.593144258007618</v>
+        <v>11.56008319704322</v>
       </c>
       <c r="T41" t="n">
-        <v>0.8823472952025601</v>
+        <v>2.220702762262498</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.04058394539828663</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.2714290640641308</v>
       </c>
       <c r="H42" t="n">
-        <v>1.041568753335484</v>
+        <v>2.621433329250947</v>
       </c>
       <c r="I42" t="n">
-        <v>3.713131114297705</v>
+        <v>9.345255056593976</v>
       </c>
       <c r="J42" t="n">
-        <v>10.18911558383272</v>
+        <v>25.64409416230457</v>
       </c>
       <c r="K42" t="n">
-        <v>17.41482143122275</v>
+        <v>43.82984145460132</v>
       </c>
       <c r="L42" t="n">
-        <v>23.41637653672712</v>
+        <v>58.93463077409997</v>
       </c>
       <c r="M42" t="n">
-        <v>27.32580693923292</v>
+        <v>68.7739343464247</v>
       </c>
       <c r="N42" t="n">
-        <v>28.04903973843817</v>
+        <v>70.59417574534601</v>
       </c>
       <c r="O42" t="n">
-        <v>25.65939153596275</v>
+        <v>64.57987911529342</v>
       </c>
       <c r="P42" t="n">
-        <v>20.59392387952783</v>
+        <v>51.83104645273739</v>
       </c>
       <c r="Q42" t="n">
-        <v>13.76649273255037</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R42" t="n">
-        <v>6.695934274394691</v>
+        <v>16.85241153899928</v>
       </c>
       <c r="S42" t="n">
-        <v>2.003198760388633</v>
+        <v>5.04167581715611</v>
       </c>
       <c r="T42" t="n">
-        <v>0.4346964960559986</v>
+        <v>1.094049604714632</v>
       </c>
       <c r="U42" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.01785717526737703</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.2275570094181596</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8038694295854959</v>
+        <v>2.023188683736002</v>
       </c>
       <c r="I43" t="n">
-        <v>2.71901847962047</v>
+        <v>6.843259883229748</v>
       </c>
       <c r="J43" t="n">
-        <v>6.392323674730466</v>
+        <v>16.08828056586388</v>
       </c>
       <c r="K43" t="n">
-        <v>10.50455144182273</v>
+        <v>26.4379870942189</v>
       </c>
       <c r="L43" t="n">
-        <v>13.44220925505234</v>
+        <v>33.83152120022348</v>
       </c>
       <c r="M43" t="n">
-        <v>14.17292492264079</v>
+        <v>35.67059557633932</v>
       </c>
       <c r="N43" t="n">
-        <v>13.83592444602521</v>
+        <v>34.8224285412353</v>
       </c>
       <c r="O43" t="n">
-        <v>12.779715635169</v>
+        <v>32.16414893121406</v>
       </c>
       <c r="P43" t="n">
-        <v>10.9352544899851</v>
+        <v>27.52198593908359</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.571003390503065</v>
+        <v>19.05479648864244</v>
       </c>
       <c r="R43" t="n">
-        <v>4.065376481318874</v>
+        <v>10.2317906234747</v>
       </c>
       <c r="S43" t="n">
-        <v>1.575682716273409</v>
+        <v>3.965698064132835</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3863176195349516</v>
+        <v>0.9722890402412272</v>
       </c>
       <c r="U43" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.01241220051371781</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.459604303558358</v>
+        <v>0.507299317478583</v>
       </c>
       <c r="H44" t="n">
-        <v>4.706922573817035</v>
+        <v>5.195379135127539</v>
       </c>
       <c r="I44" t="n">
-        <v>17.71889491293361</v>
+        <v>19.55765693709309</v>
       </c>
       <c r="J44" t="n">
-        <v>39.00834075913622</v>
+        <v>43.05639544684792</v>
       </c>
       <c r="K44" t="n">
-        <v>58.46339092876153</v>
+        <v>64.53037555571635</v>
       </c>
       <c r="L44" t="n">
-        <v>72.52900613378564</v>
+        <v>80.05563704300155</v>
       </c>
       <c r="M44" t="n">
-        <v>80.70249416719157</v>
+        <v>89.07732128021131</v>
       </c>
       <c r="N44" t="n">
-        <v>82.00834489467677</v>
+        <v>90.51868546599734</v>
       </c>
       <c r="O44" t="n">
-        <v>77.43815460116835</v>
+        <v>85.47422787781967</v>
       </c>
       <c r="P44" t="n">
-        <v>66.09167335707137</v>
+        <v>72.95027597756714</v>
       </c>
       <c r="Q44" t="n">
-        <v>49.63209423588766</v>
+        <v>54.78261917036537</v>
       </c>
       <c r="R44" t="n">
-        <v>28.87061883339773</v>
+        <v>31.86664075156407</v>
       </c>
       <c r="S44" t="n">
-        <v>10.47323306733609</v>
+        <v>11.56008319704322</v>
       </c>
       <c r="T44" t="n">
-        <v>2.011917838826713</v>
+        <v>2.220702762262498</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.04058394539828663</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.2714290640641308</v>
       </c>
       <c r="H45" t="n">
-        <v>2.374972719465396</v>
+        <v>2.621433329250947</v>
       </c>
       <c r="I45" t="n">
-        <v>8.466637533062377</v>
+        <v>9.345255056593976</v>
       </c>
       <c r="J45" t="n">
-        <v>23.23310052225435</v>
+        <v>25.64409416230457</v>
       </c>
       <c r="K45" t="n">
-        <v>39.70906930633854</v>
+        <v>43.82984145460132</v>
       </c>
       <c r="L45" t="n">
-        <v>53.3937440858921</v>
+        <v>58.93463077409997</v>
       </c>
       <c r="M45" t="n">
-        <v>62.30798092802719</v>
+        <v>68.7739343464247</v>
       </c>
       <c r="N45" t="n">
-        <v>63.95708778000839</v>
+        <v>70.59417574534601</v>
       </c>
       <c r="O45" t="n">
-        <v>58.50824028739296</v>
+        <v>64.57987911529342</v>
       </c>
       <c r="P45" t="n">
-        <v>46.9580210082127</v>
+        <v>51.83104645273739</v>
       </c>
       <c r="Q45" t="n">
-        <v>31.39019347289776</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R45" t="n">
-        <v>15.26798992586383</v>
+        <v>16.85241153899928</v>
       </c>
       <c r="S45" t="n">
-        <v>4.56767005764575</v>
+        <v>5.04167581715611</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9911897952718879</v>
+        <v>1.094049604714632</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.01785717526737703</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.2275570094181596</v>
       </c>
       <c r="H46" t="n">
-        <v>1.832973540310141</v>
+        <v>2.023188683736002</v>
       </c>
       <c r="I46" t="n">
-        <v>6.199873692582764</v>
+        <v>6.843259883229748</v>
       </c>
       <c r="J46" t="n">
-        <v>14.57570063700609</v>
+        <v>16.08828056586388</v>
       </c>
       <c r="K46" t="n">
-        <v>23.95235362491163</v>
+        <v>26.4379870942189</v>
       </c>
       <c r="L46" t="n">
-        <v>30.65076613316158</v>
+        <v>33.83152120022348</v>
       </c>
       <c r="M46" t="n">
-        <v>32.31693533289134</v>
+        <v>35.67059557633932</v>
       </c>
       <c r="N46" t="n">
-        <v>31.5485108425773</v>
+        <v>34.8224285412353</v>
       </c>
       <c r="O46" t="n">
-        <v>29.14015603756857</v>
+        <v>32.16414893121406</v>
       </c>
       <c r="P46" t="n">
-        <v>24.93443760765448</v>
+        <v>27.52198593908359</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.26331214703139</v>
+        <v>19.05479648864244</v>
       </c>
       <c r="R46" t="n">
-        <v>9.269823241691153</v>
+        <v>10.2317906234747</v>
       </c>
       <c r="S46" t="n">
-        <v>3.592853043736745</v>
+        <v>3.965698064132835</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8808768547502713</v>
+        <v>0.9722890402412272</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.01241220051371781</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>45.30745850917874</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>45.30745850917874</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>45.30745850917874</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>43.47685412496949</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>42.91598734177153</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.5608667831979957</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>45.30745850917874</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>45.30745850917874</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>45.30745850917874</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36126,16 +36126,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>45.30745850917873</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>45.30745850917873</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>45.30745850917873</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>43.47685412496952</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>42.91598734177154</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>45.30745850917873</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>45.30745850917873</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>45.30745850917873</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>0.5608667831979812</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36360,19 +36360,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>6.06698462695482</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>60.00432937714729</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>60.00432937714729</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>60.00432937714729</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>51.51292740162084</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>47.03675949003433</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>60.00432937714729</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>10.54315253854135</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>60.00432937714729</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>60.00432937714729</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36597,19 +36597,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>6.066984626954834</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>51.51292740162084</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>57.57991202857568</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36834,19 +36834,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>6.066984626954834</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>51.51292740162084</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>47.03675949003433</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>10.54315253854135</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37071,19 +37071,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>6.066984626954837</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>51.51292740162084</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>47.03675949003433</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>10.54315253854135</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37308,19 +37308,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>6.066984626954834</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>51.51292740162084</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37387,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>47.03675949003433</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>10.54315253854135</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37545,19 +37545,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>6.066984626954834</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>51.51292740162084</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37624,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>47.03675949003433</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>10.54315253854135</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>6.066984626954834</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>51.51292740162084</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>57.57991202857568</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>60.0043293771473</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>6.06698462695482</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>60.00432937714729</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>60.00432937714729</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>60.00432937714729</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>51.51292740162084</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>60.00432937714729</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>60.00432937714729</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>60.00432937714729</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>57.57991202857568</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
